--- a/documentacion/tablero_kanban_web_asm.xlsx
+++ b/documentacion/tablero_kanban_web_asm.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nextretoffice365-my.sharepoint.com/personal/fpa_nextret_net/Documents/proyectos Nube/tfm_ism/06-web/documentacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FPA\OneDrive - NexTReT\proyectos Nube\tfm_ism\06-web\tfm-ism\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{40E23A4D-9721-4437-8E10-87321088632F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{604E7C08-FFC9-40D2-8BBF-C0EF12F66C11}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9AC0F9-672B-4340-A5DD-12D659DA4C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KANBAN" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>POR HACER</t>
   </si>
@@ -174,15 +174,6 @@
     <t>#ExcelPlanificacion</t>
   </si>
   <si>
-    <t>Iván</t>
-  </si>
-  <si>
-    <t>API pulicada en API manager</t>
-  </si>
-  <si>
-    <t>Programado</t>
-  </si>
-  <si>
     <t>VALIDADO</t>
   </si>
   <si>
@@ -192,10 +183,22 @@
     <t>tablero_kanban_web_asm.xlsx</t>
   </si>
   <si>
-    <t>Documentar Cookies y JWT</t>
+    <t>Desplegar Elastic</t>
   </si>
   <si>
-    <t>Desplegar Elastic</t>
+    <t>ACABADO</t>
+  </si>
+  <si>
+    <t>Certificados</t>
+  </si>
+  <si>
+    <t>Cear Git</t>
+  </si>
+  <si>
+    <t>https://github.com/Fiorellaps/tfm-ism.git</t>
+  </si>
+  <si>
+    <t>Jupyterlab</t>
   </si>
 </sst>
 </file>
@@ -884,13 +887,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaDatos" displayName="TablaDatos" ref="A1:I52" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:I52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaDatos" displayName="TablaDatos" ref="A1:I51" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:I51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Estado" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Criticidad" dataDxfId="24"/>
@@ -909,8 +908,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TablaEstados" displayName="TablaEstados" ref="B7:B12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="B7:B12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TablaEstados" displayName="TablaEstados" ref="B7:B13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="B7:B13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Estados" dataDxfId="14"/>
   </tableColumns>
@@ -1240,10 +1239,10 @@
     <outlinePr showOutlineSymbols="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP152"/>
+  <dimension ref="A1:AP151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showOutlineSymbols="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showOutlineSymbols="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -1328,7 +1327,7 @@
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
       <c r="AM1" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AN1" s="12"/>
       <c r="AO1" s="13"/>
@@ -1354,27 +1353,27 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="str">
         <f>IF(C3&gt;C2,IFERROR(SMALL(C$102:C$201,C3),""),D2)</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="E3" s="1">
         <f>IF(D3&lt;&gt;D2,3,E2+1)</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="F3" ca="1">IF(OR(D3="",G3=""),0,LEFT(G3)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D3,2)),2))</f>
-        <v>TI</v>
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" cm="1">
+        <f t="array" ref="F3">IF(OR(D3="",G3=""),0,LEFT(G3)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D3,2)),2))</f>
+        <v>0</v>
       </c>
       <c r="G3" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G3" ca="1">IF(OR(D3="",E3&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E3=3,1,E3)),"$",""))&amp;D3+1,
+        <f t="array" ref="G3">IF(OR(D3="",E3&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E3=3,1,E3)),"$",""))&amp;D3+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E3)&amp;IF(E3=3," "&amp;D3,"")&amp;":","")))</f>
-        <v>Tarea 2:</v>
+        <v/>
       </c>
       <c r="H3" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H3" ca="1">IF(OR(D3="",E3&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E3),"$",""))&amp;D3+1,
+        <f t="array" ref="H3">IF(OR(D3="",E3&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E3),"$",""))&amp;D3+1,
 IFERROR(INDEX(TablaDatos[],D3,E3),"")))</f>
-        <v>Desplegar Elastic</v>
+        <v/>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -1389,7 +1388,7 @@
       </c>
       <c r="N3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">IF(OR(L3="",O3=""),0,LEFT(O3)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L3,2)),2))</f>
-        <v>TN</v>
+        <v>TI</v>
       </c>
       <c r="O3" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">IF(OR(L3="",M3&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M3=3,1,M3)),"$",""))&amp;L3+1,
@@ -1399,7 +1398,7 @@
       <c r="P3" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">IF(OR(L3="",M3&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M3),"$",""))&amp;L3+1,
 IFERROR(INDEX(TablaDatos[],L3,M3),"")))</f>
-        <v>Documentar Cookies y JWT</v>
+        <v>Desplegar Elastic</v>
       </c>
       <c r="S3" s="1">
         <v>1</v>
@@ -1479,30 +1478,30 @@
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
-        <f ca="1">C3--(G3="")</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D67" ca="1" si="0">IF(C4&gt;C3,IFERROR(SMALL(C$102:C$201,C4),""),D3)</f>
+        <f>C3--(G3="")</f>
         <v>2</v>
       </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ref="D4:D67" si="0">IF(C4&gt;C3,IFERROR(SMALL(C$102:C$201,C4),""),D3)</f>
+        <v/>
+      </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E26" ca="1" si="1">IF(D4&lt;&gt;D3,3,E3+1)</f>
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="F4" ca="1">IF(OR(D4="",G4=""),0,LEFT(G4)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D4,2)),2))</f>
-        <v>DI</v>
+        <f t="shared" ref="E4:E26" si="1">IF(D4&lt;&gt;D3,3,E3+1)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" cm="1">
+        <f t="array" ref="F4">IF(OR(D4="",G4=""),0,LEFT(G4)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D4,2)),2))</f>
+        <v>0</v>
       </c>
       <c r="G4" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G4" ca="1">IF(OR(D4="",E4&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E4=3,1,E4)),"$",""))&amp;D4+1,
+        <f t="array" ref="G4">IF(OR(D4="",E4&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E4=3,1,E4)),"$",""))&amp;D4+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E4)&amp;IF(E4=3," "&amp;D4,"")&amp;":","")))</f>
-        <v>Descripción:</v>
+        <v/>
       </c>
       <c r="H4" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H4" ca="1">IF(OR(D4="",E4&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E4),"$",""))&amp;D4+1,
+        <f t="array" ref="H4">IF(OR(D4="",E4&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E4),"$",""))&amp;D4+1,
 IFERROR(INDEX(TablaDatos[],D4,E4),"")))</f>
-        <v>Programado</v>
+        <v/>
       </c>
       <c r="K4" s="1">
         <f ca="1">K3--(O3="")</f>
@@ -1518,7 +1517,7 @@
       </c>
       <c r="N4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">IF(OR(L4="",O4=""),0,LEFT(O4)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L4,2)),2))</f>
-        <v>DN</v>
+        <v>DI</v>
       </c>
       <c r="O4" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">IF(OR(L4="",M4&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M4=3,1,M4)),"$",""))&amp;L4+1,
@@ -1528,7 +1527,7 @@
       <c r="P4" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">IF(OR(L4="",M4&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M4),"$",""))&amp;L4+1,
 IFERROR(INDEX(TablaDatos[],L4,M4),"")))</f>
-        <v>API pulicada en API manager</v>
+        <v>Certificados</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" ref="S4:S16" si="4">S3--(W3="")</f>
@@ -1611,30 +1610,30 @@
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C18" ca="1" si="13">C4--(G4="")</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="C5:C18" si="13">C4--(G4="")</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="F5" ca="1">IF(OR(D5="",G5=""),0,LEFT(G5)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D5,2)),2))</f>
-        <v>II</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" cm="1">
+        <f t="array" ref="F5">IF(OR(D5="",G5=""),0,LEFT(G5)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D5,2)),2))</f>
+        <v>0</v>
       </c>
       <c r="G5" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G5" ca="1">IF(OR(D5="",E5&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E5=3,1,E5)),"$",""))&amp;D5+1,
+        <f t="array" ref="G5">IF(OR(D5="",E5&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E5=3,1,E5)),"$",""))&amp;D5+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E5)&amp;IF(E5=3," "&amp;D5,"")&amp;":","")))</f>
-        <v>Inicio:</v>
-      </c>
-      <c r="H5" s="4" cm="1">
-        <f t="array" aca="1" ref="H5" ca="1">IF(OR(D5="",E5&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E5),"$",""))&amp;D5+1,
+        <v/>
+      </c>
+      <c r="H5" s="4" t="str" cm="1">
+        <f t="array" ref="H5">IF(OR(D5="",E5&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E5),"$",""))&amp;D5+1,
 IFERROR(INDEX(TablaDatos[],D5,E5),"")))</f>
-        <v>45099</v>
+        <v/>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5:K9" ca="1" si="14">K4--(O4="")</f>
@@ -1650,7 +1649,7 @@
       </c>
       <c r="N5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">IF(OR(L5="",O5=""),0,LEFT(O5)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L5,2)),2))</f>
-        <v>IN</v>
+        <v>II</v>
       </c>
       <c r="O5" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">IF(OR(L5="",M5&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M5=3,1,M5)),"$",""))&amp;L5+1,
@@ -1660,7 +1659,7 @@
       <c r="P5" s="4" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">IF(OR(L5="",M5&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M5),"$",""))&amp;L5+1,
 IFERROR(INDEX(TablaDatos[],L5,M5),"")))</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="4"/>
@@ -1743,30 +1742,30 @@
     </row>
     <row r="6" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="F6" ca="1">IF(OR(D6="",G6=""),0,LEFT(G6)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D6,2)),2))</f>
-        <v>PI</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" cm="1">
+        <f t="array" ref="F6">IF(OR(D6="",G6=""),0,LEFT(G6)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D6,2)),2))</f>
+        <v>0</v>
       </c>
       <c r="G6" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G6" ca="1">IF(OR(D6="",E6&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E6=3,1,E6)),"$",""))&amp;D6+1,
+        <f t="array" ref="G6">IF(OR(D6="",E6&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E6=3,1,E6)),"$",""))&amp;D6+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E6)&amp;IF(E6=3," "&amp;D6,"")&amp;":","")))</f>
-        <v>Previsto:</v>
-      </c>
-      <c r="H6" s="4" cm="1">
-        <f t="array" aca="1" ref="H6" ca="1">IF(OR(D6="",E6&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E6),"$",""))&amp;D6+1,
+        <v/>
+      </c>
+      <c r="H6" s="4" t="str" cm="1">
+        <f t="array" ref="H6">IF(OR(D6="",E6&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E6),"$",""))&amp;D6+1,
 IFERROR(INDEX(TablaDatos[],D6,E6),"")))</f>
-        <v>45101</v>
+        <v/>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -1782,7 +1781,7 @@
       </c>
       <c r="N6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">IF(OR(L6="",O6=""),0,LEFT(O6)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L6,2)),2))</f>
-        <v>PN</v>
+        <v>PI</v>
       </c>
       <c r="O6" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">IF(OR(L6="",M6&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M6=3,1,M6)),"$",""))&amp;L6+1,
@@ -1792,7 +1791,7 @@
       <c r="P6" s="4" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">IF(OR(L6="",M6&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M6),"$",""))&amp;L6+1,
 IFERROR(INDEX(TablaDatos[],L6,M6),"")))</f>
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="4"/>
@@ -1875,30 +1874,30 @@
     </row>
     <row r="7" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="F7" ca="1">IF(OR(D7="",G7=""),0,LEFT(G7)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D7,2)),2))</f>
-        <v>FI</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" cm="1">
+        <f t="array" ref="F7">IF(OR(D7="",G7=""),0,LEFT(G7)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D7,2)),2))</f>
+        <v>0</v>
       </c>
       <c r="G7" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G7" ca="1">IF(OR(D7="",E7&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E7=3,1,E7)),"$",""))&amp;D7+1,
+        <f t="array" ref="G7">IF(OR(D7="",E7&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E7=3,1,E7)),"$",""))&amp;D7+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E7)&amp;IF(E7=3," "&amp;D7,"")&amp;":","")))</f>
-        <v>Final:</v>
-      </c>
-      <c r="H7" s="4" cm="1">
-        <f t="array" aca="1" ref="H7" ca="1">IF(OR(D7="",E7&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E7),"$",""))&amp;D7+1,
+        <v/>
+      </c>
+      <c r="H7" s="4" t="str" cm="1">
+        <f t="array" ref="H7">IF(OR(D7="",E7&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E7),"$",""))&amp;D7+1,
 IFERROR(INDEX(TablaDatos[],D7,E7),"")))</f>
-        <v>45101</v>
+        <v/>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -1914,7 +1913,7 @@
       </c>
       <c r="N7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">IF(OR(L7="",O7=""),0,LEFT(O7)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L7,2)),2))</f>
-        <v>FN</v>
+        <v>FI</v>
       </c>
       <c r="O7" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">IF(OR(L7="",M7&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M7=3,1,M7)),"$",""))&amp;L7+1,
@@ -1924,7 +1923,7 @@
       <c r="P7" s="4" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">IF(OR(L7="",M7&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M7),"$",""))&amp;L7+1,
 IFERROR(INDEX(TablaDatos[],L7,M7),"")))</f>
-        <v>45100</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="4"/>
@@ -2007,30 +2006,30 @@
     </row>
     <row r="8" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="F8" ca="1">IF(OR(D8="",G8=""),0,LEFT(G8)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D8,2)),2))</f>
-        <v>AI</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" cm="1">
+        <f t="array" ref="F8">IF(OR(D8="",G8=""),0,LEFT(G8)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D8,2)),2))</f>
+        <v>0</v>
       </c>
       <c r="G8" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G8" ca="1">IF(OR(D8="",E8&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E8=3,1,E8)),"$",""))&amp;D8+1,
+        <f t="array" ref="G8">IF(OR(D8="",E8&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E8=3,1,E8)),"$",""))&amp;D8+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E8)&amp;IF(E8=3," "&amp;D8,"")&amp;":","")))</f>
-        <v>Asignado:</v>
+        <v/>
       </c>
       <c r="H8" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H8" ca="1">IF(OR(D8="",E8&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E8),"$",""))&amp;D8+1,
+        <f t="array" ref="H8">IF(OR(D8="",E8&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E8),"$",""))&amp;D8+1,
 IFERROR(INDEX(TablaDatos[],D8,E8),"")))</f>
-        <v>Fio</v>
+        <v/>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -2046,7 +2045,7 @@
       </c>
       <c r="N8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">IF(OR(L8="",O8=""),0,LEFT(O8)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L8,2)),2))</f>
-        <v>AN</v>
+        <v>AI</v>
       </c>
       <c r="O8" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">IF(OR(L8="",M8&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M8=3,1,M8)),"$",""))&amp;L8+1,
@@ -2056,7 +2055,7 @@
       <c r="P8" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">IF(OR(L8="",M8&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M8),"$",""))&amp;L8+1,
 IFERROR(INDEX(TablaDatos[],L8,M8),"")))</f>
-        <v>Iván</v>
+        <v>Fio</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="4"/>
@@ -2139,28 +2138,28 @@
     </row>
     <row r="9" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="F9" s="1" cm="1">
-        <f t="array" aca="1" ref="F9" ca="1">IF(OR(D9="",G9=""),0,LEFT(G9)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D9,2)),2))</f>
+        <f t="array" ref="F9">IF(OR(D9="",G9=""),0,LEFT(G9)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D9,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G9" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G9" ca="1">IF(OR(D9="",E9&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E9=3,1,E9)),"$",""))&amp;D9+1,
+        <f t="array" ref="G9">IF(OR(D9="",E9&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E9=3,1,E9)),"$",""))&amp;D9+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E9)&amp;IF(E9=3," "&amp;D9,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H9" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H9" ca="1">IF(OR(D9="",E9&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E9),"$",""))&amp;D9+1,
+        <f t="array" ref="H9">IF(OR(D9="",E9&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E9),"$",""))&amp;D9+1,
 IFERROR(INDEX(TablaDatos[],D9,E9),"")))</f>
         <v/>
       </c>
@@ -2271,28 +2270,28 @@
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <f ca="1">C9--(G9="")</f>
-        <v>2</v>
+        <f>C9--(G9="")</f>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="F10" s="1" cm="1">
-        <f t="array" aca="1" ref="F10" ca="1">IF(OR(D10="",G10=""),0,LEFT(G10)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D10,2)),2))</f>
+        <f t="array" ref="F10">IF(OR(D10="",G10=""),0,LEFT(G10)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D10,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G10" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G10" ca="1">IF(OR(D10="",E10&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E10=3,1,E10)),"$",""))&amp;D10+1,
+        <f t="array" ref="G10">IF(OR(D10="",E10&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E10=3,1,E10)),"$",""))&amp;D10+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E10)&amp;IF(E10=3," "&amp;D10,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H10" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H10" ca="1">IF(OR(D10="",E10&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E10),"$",""))&amp;D10+1,
+        <f t="array" ref="H10">IF(OR(D10="",E10&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E10),"$",""))&amp;D10+1,
 IFERROR(INDEX(TablaDatos[],D10,E10),"")))</f>
         <v/>
       </c>
@@ -2403,28 +2402,28 @@
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="F11" s="1" cm="1">
-        <f t="array" aca="1" ref="F11" ca="1">IF(OR(D11="",G11=""),0,LEFT(G11)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D11,2)),2))</f>
+        <f t="array" ref="F11">IF(OR(D11="",G11=""),0,LEFT(G11)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D11,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G11" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G11" ca="1">IF(OR(D11="",E11&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E11=3,1,E11)),"$",""))&amp;D11+1,
+        <f t="array" ref="G11">IF(OR(D11="",E11&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E11=3,1,E11)),"$",""))&amp;D11+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E11)&amp;IF(E11=3," "&amp;D11,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H11" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H11" ca="1">IF(OR(D11="",E11&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E11),"$",""))&amp;D11+1,
+        <f t="array" ref="H11">IF(OR(D11="",E11&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E11),"$",""))&amp;D11+1,
 IFERROR(INDEX(TablaDatos[],D11,E11),"")))</f>
         <v/>
       </c>
@@ -2535,28 +2534,28 @@
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="F12" s="1" cm="1">
-        <f t="array" aca="1" ref="F12" ca="1">IF(OR(D12="",G12=""),0,LEFT(G12)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D12,2)),2))</f>
+        <f t="array" ref="F12">IF(OR(D12="",G12=""),0,LEFT(G12)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D12,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G12" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G12" ca="1">IF(OR(D12="",E12&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E12=3,1,E12)),"$",""))&amp;D12+1,
+        <f t="array" ref="G12">IF(OR(D12="",E12&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E12=3,1,E12)),"$",""))&amp;D12+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E12)&amp;IF(E12=3," "&amp;D12,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H12" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H12" ca="1">IF(OR(D12="",E12&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E12),"$",""))&amp;D12+1,
+        <f t="array" ref="H12">IF(OR(D12="",E12&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E12),"$",""))&amp;D12+1,
 IFERROR(INDEX(TablaDatos[],D12,E12),"")))</f>
         <v/>
       </c>
@@ -2667,28 +2666,28 @@
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="F13" s="1" cm="1">
-        <f t="array" aca="1" ref="F13" ca="1">IF(OR(D13="",G13=""),0,LEFT(G13)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D13,2)),2))</f>
+        <f t="array" ref="F13">IF(OR(D13="",G13=""),0,LEFT(G13)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D13,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G13" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G13" ca="1">IF(OR(D13="",E13&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E13=3,1,E13)),"$",""))&amp;D13+1,
+        <f t="array" ref="G13">IF(OR(D13="",E13&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E13=3,1,E13)),"$",""))&amp;D13+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E13)&amp;IF(E13=3," "&amp;D13,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H13" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H13" ca="1">IF(OR(D13="",E13&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E13),"$",""))&amp;D13+1,
+        <f t="array" ref="H13">IF(OR(D13="",E13&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E13),"$",""))&amp;D13+1,
 IFERROR(INDEX(TablaDatos[],D13,E13),"")))</f>
         <v/>
       </c>
@@ -2799,28 +2798,28 @@
     </row>
     <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="F14" s="1" cm="1">
-        <f t="array" aca="1" ref="F14" ca="1">IF(OR(D14="",G14=""),0,LEFT(G14)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D14,2)),2))</f>
+        <f t="array" ref="F14">IF(OR(D14="",G14=""),0,LEFT(G14)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D14,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G14" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G14" ca="1">IF(OR(D14="",E14&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E14=3,1,E14)),"$",""))&amp;D14+1,
+        <f t="array" ref="G14">IF(OR(D14="",E14&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E14=3,1,E14)),"$",""))&amp;D14+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E14)&amp;IF(E14=3," "&amp;D14,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H14" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H14" ca="1">IF(OR(D14="",E14&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E14),"$",""))&amp;D14+1,
+        <f t="array" ref="H14">IF(OR(D14="",E14&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E14),"$",""))&amp;D14+1,
 IFERROR(INDEX(TablaDatos[],D14,E14),"")))</f>
         <v/>
       </c>
@@ -2931,28 +2930,28 @@
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="F15" s="1" cm="1">
-        <f t="array" aca="1" ref="F15" ca="1">IF(OR(D15="",G15=""),0,LEFT(G15)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D15,2)),2))</f>
+        <f t="array" ref="F15">IF(OR(D15="",G15=""),0,LEFT(G15)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D15,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G15" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G15" ca="1">IF(OR(D15="",E15&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E15=3,1,E15)),"$",""))&amp;D15+1,
+        <f t="array" ref="G15">IF(OR(D15="",E15&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E15=3,1,E15)),"$",""))&amp;D15+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E15)&amp;IF(E15=3," "&amp;D15,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H15" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H15" ca="1">IF(OR(D15="",E15&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E15),"$",""))&amp;D15+1,
+        <f t="array" ref="H15">IF(OR(D15="",E15&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E15),"$",""))&amp;D15+1,
 IFERROR(INDEX(TablaDatos[],D15,E15),"")))</f>
         <v/>
       </c>
@@ -3063,28 +3062,28 @@
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="F16" s="1" cm="1">
-        <f t="array" aca="1" ref="F16" ca="1">IF(OR(D16="",G16=""),0,LEFT(G16)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D16,2)),2))</f>
+        <f t="array" ref="F16">IF(OR(D16="",G16=""),0,LEFT(G16)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D16,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G16" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G16" ca="1">IF(OR(D16="",E16&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E16=3,1,E16)),"$",""))&amp;D16+1,
+        <f t="array" ref="G16">IF(OR(D16="",E16&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E16=3,1,E16)),"$",""))&amp;D16+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E16)&amp;IF(E16=3," "&amp;D16,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H16" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H16" ca="1">IF(OR(D16="",E16&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E16),"$",""))&amp;D16+1,
+        <f t="array" ref="H16">IF(OR(D16="",E16&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E16),"$",""))&amp;D16+1,
 IFERROR(INDEX(TablaDatos[],D16,E16),"")))</f>
         <v/>
       </c>
@@ -3195,28 +3194,28 @@
     </row>
     <row r="17" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <f t="shared" si="13"/>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="F17" s="1" cm="1">
-        <f t="array" aca="1" ref="F17" ca="1">IF(OR(D17="",G17=""),0,LEFT(G17)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D17,2)),2))</f>
+        <f t="array" ref="F17">IF(OR(D17="",G17=""),0,LEFT(G17)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D17,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G17" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G17" ca="1">IF(OR(D17="",E17&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E17=3,1,E17)),"$",""))&amp;D17+1,
+        <f t="array" ref="G17">IF(OR(D17="",E17&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E17=3,1,E17)),"$",""))&amp;D17+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E17)&amp;IF(E17=3," "&amp;D17,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H17" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H17" ca="1">IF(OR(D17="",E17&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E17),"$",""))&amp;D17+1,
+        <f t="array" ref="H17">IF(OR(D17="",E17&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E17),"$",""))&amp;D17+1,
 IFERROR(INDEX(TablaDatos[],D17,E17),"")))</f>
         <v/>
       </c>
@@ -3327,28 +3326,28 @@
     </row>
     <row r="18" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="F18" s="1" cm="1">
-        <f t="array" aca="1" ref="F18" ca="1">IF(OR(D18="",G18=""),0,LEFT(G18)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D18,2)),2))</f>
+        <f t="array" ref="F18">IF(OR(D18="",G18=""),0,LEFT(G18)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D18,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G18" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G18" ca="1">IF(OR(D18="",E18&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E18=3,1,E18)),"$",""))&amp;D18+1,
+        <f t="array" ref="G18">IF(OR(D18="",E18&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E18=3,1,E18)),"$",""))&amp;D18+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E18)&amp;IF(E18=3," "&amp;D18,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H18" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H18" ca="1">IF(OR(D18="",E18&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E18),"$",""))&amp;D18+1,
+        <f t="array" ref="H18">IF(OR(D18="",E18&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E18),"$",""))&amp;D18+1,
 IFERROR(INDEX(TablaDatos[],D18,E18),"")))</f>
         <v/>
       </c>
@@ -3459,28 +3458,28 @@
     </row>
     <row r="19" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
-        <f t="shared" ref="C19:C21" ca="1" si="17">C18--(G18="")</f>
-        <v>11</v>
+        <f t="shared" ref="C19:C21" si="17">C18--(G18="")</f>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="F19" s="1" cm="1">
-        <f t="array" aca="1" ref="F19" ca="1">IF(OR(D19="",G19=""),0,LEFT(G19)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D19,2)),2))</f>
+        <f t="array" ref="F19">IF(OR(D19="",G19=""),0,LEFT(G19)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D19,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G19" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G19" ca="1">IF(OR(D19="",E19&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E19=3,1,E19)),"$",""))&amp;D19+1,
+        <f t="array" ref="G19">IF(OR(D19="",E19&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E19=3,1,E19)),"$",""))&amp;D19+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E19)&amp;IF(E19=3," "&amp;D19,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H19" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H19" ca="1">IF(OR(D19="",E19&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E19),"$",""))&amp;D19+1,
+        <f t="array" ref="H19">IF(OR(D19="",E19&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E19),"$",""))&amp;D19+1,
 IFERROR(INDEX(TablaDatos[],D19,E19),"")))</f>
         <v/>
       </c>
@@ -3591,28 +3590,28 @@
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>12</v>
+        <f t="shared" si="17"/>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="F20" s="1" cm="1">
-        <f t="array" aca="1" ref="F20" ca="1">IF(OR(D20="",G20=""),0,LEFT(G20)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D20,2)),2))</f>
+        <f t="array" ref="F20">IF(OR(D20="",G20=""),0,LEFT(G20)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D20,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G20" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G20" ca="1">IF(OR(D20="",E20&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E20=3,1,E20)),"$",""))&amp;D20+1,
+        <f t="array" ref="G20">IF(OR(D20="",E20&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E20=3,1,E20)),"$",""))&amp;D20+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E20)&amp;IF(E20=3," "&amp;D20,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H20" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H20" ca="1">IF(OR(D20="",E20&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E20),"$",""))&amp;D20+1,
+        <f t="array" ref="H20">IF(OR(D20="",E20&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E20),"$",""))&amp;D20+1,
 IFERROR(INDEX(TablaDatos[],D20,E20),"")))</f>
         <v/>
       </c>
@@ -3723,28 +3722,28 @@
     </row>
     <row r="21" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>13</v>
+        <f t="shared" si="17"/>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="F21" s="1" cm="1">
-        <f t="array" aca="1" ref="F21" ca="1">IF(OR(D21="",G21=""),0,LEFT(G21)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D21,2)),2))</f>
+        <f t="array" ref="F21">IF(OR(D21="",G21=""),0,LEFT(G21)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D21,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G21" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G21" ca="1">IF(OR(D21="",E21&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E21=3,1,E21)),"$",""))&amp;D21+1,
+        <f t="array" ref="G21">IF(OR(D21="",E21&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E21=3,1,E21)),"$",""))&amp;D21+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E21)&amp;IF(E21=3," "&amp;D21,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H21" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H21" ca="1">IF(OR(D21="",E21&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E21),"$",""))&amp;D21+1,
+        <f t="array" ref="H21">IF(OR(D21="",E21&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E21),"$",""))&amp;D21+1,
 IFERROR(INDEX(TablaDatos[],D21,E21),"")))</f>
         <v/>
       </c>
@@ -3855,28 +3854,28 @@
     </row>
     <row r="22" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
-        <f t="shared" ref="C22:C26" ca="1" si="19">C21--(G21="")</f>
-        <v>14</v>
+        <f t="shared" ref="C22:C26" si="19">C21--(G21="")</f>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="F22" s="1" cm="1">
-        <f t="array" aca="1" ref="F22" ca="1">IF(OR(D22="",G22=""),0,LEFT(G22)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D22,2)),2))</f>
+        <f t="array" ref="F22">IF(OR(D22="",G22=""),0,LEFT(G22)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D22,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G22" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G22" ca="1">IF(OR(D22="",E22&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E22=3,1,E22)),"$",""))&amp;D22+1,
+        <f t="array" ref="G22">IF(OR(D22="",E22&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E22=3,1,E22)),"$",""))&amp;D22+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E22)&amp;IF(E22=3," "&amp;D22,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H22" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H22" ca="1">IF(OR(D22="",E22&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E22),"$",""))&amp;D22+1,
+        <f t="array" ref="H22">IF(OR(D22="",E22&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E22),"$",""))&amp;D22+1,
 IFERROR(INDEX(TablaDatos[],D22,E22),"")))</f>
         <v/>
       </c>
@@ -3987,28 +3986,28 @@
     </row>
     <row r="23" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
-        <f t="shared" ca="1" si="19"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="F23" s="1" cm="1">
-        <f t="array" aca="1" ref="F23" ca="1">IF(OR(D23="",G23=""),0,LEFT(G23)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D23,2)),2))</f>
+        <f t="array" ref="F23">IF(OR(D23="",G23=""),0,LEFT(G23)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D23,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G23" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G23" ca="1">IF(OR(D23="",E23&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E23=3,1,E23)),"$",""))&amp;D23+1,
+        <f t="array" ref="G23">IF(OR(D23="",E23&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E23=3,1,E23)),"$",""))&amp;D23+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E23)&amp;IF(E23=3," "&amp;D23,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H23" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H23" ca="1">IF(OR(D23="",E23&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E23),"$",""))&amp;D23+1,
+        <f t="array" ref="H23">IF(OR(D23="",E23&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E23),"$",""))&amp;D23+1,
 IFERROR(INDEX(TablaDatos[],D23,E23),"")))</f>
         <v/>
       </c>
@@ -4119,28 +4118,28 @@
     </row>
     <row r="24" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
-        <f t="shared" ca="1" si="19"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="F24" s="1" cm="1">
-        <f t="array" aca="1" ref="F24" ca="1">IF(OR(D24="",G24=""),0,LEFT(G24)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D24,2)),2))</f>
+        <f t="array" ref="F24">IF(OR(D24="",G24=""),0,LEFT(G24)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D24,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G24" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G24" ca="1">IF(OR(D24="",E24&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E24=3,1,E24)),"$",""))&amp;D24+1,
+        <f t="array" ref="G24">IF(OR(D24="",E24&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E24=3,1,E24)),"$",""))&amp;D24+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E24)&amp;IF(E24=3," "&amp;D24,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H24" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H24" ca="1">IF(OR(D24="",E24&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E24),"$",""))&amp;D24+1,
+        <f t="array" ref="H24">IF(OR(D24="",E24&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E24),"$",""))&amp;D24+1,
 IFERROR(INDEX(TablaDatos[],D24,E24),"")))</f>
         <v/>
       </c>
@@ -4251,28 +4250,28 @@
     </row>
     <row r="25" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
-        <f t="shared" ca="1" si="19"/>
-        <v>17</v>
+        <f t="shared" si="19"/>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="F25" s="1" cm="1">
-        <f t="array" aca="1" ref="F25" ca="1">IF(OR(D25="",G25=""),0,LEFT(G25)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D25,2)),2))</f>
+        <f t="array" ref="F25">IF(OR(D25="",G25=""),0,LEFT(G25)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D25,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G25" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G25" ca="1">IF(OR(D25="",E25&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E25=3,1,E25)),"$",""))&amp;D25+1,
+        <f t="array" ref="G25">IF(OR(D25="",E25&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E25=3,1,E25)),"$",""))&amp;D25+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E25)&amp;IF(E25=3," "&amp;D25,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H25" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H25" ca="1">IF(OR(D25="",E25&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E25),"$",""))&amp;D25+1,
+        <f t="array" ref="H25">IF(OR(D25="",E25&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E25),"$",""))&amp;D25+1,
 IFERROR(INDEX(TablaDatos[],D25,E25),"")))</f>
         <v/>
       </c>
@@ -4383,28 +4382,28 @@
     </row>
     <row r="26" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
-        <f t="shared" ca="1" si="19"/>
-        <v>18</v>
+        <f t="shared" si="19"/>
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="F26" s="1" cm="1">
-        <f t="array" aca="1" ref="F26" ca="1">IF(OR(D26="",G26=""),0,LEFT(G26)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D26,2)),2))</f>
+        <f t="array" ref="F26">IF(OR(D26="",G26=""),0,LEFT(G26)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D26,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G26" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G26" ca="1">IF(OR(D26="",E26&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E26=3,1,E26)),"$",""))&amp;D26+1,
+        <f t="array" ref="G26">IF(OR(D26="",E26&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E26=3,1,E26)),"$",""))&amp;D26+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E26)&amp;IF(E26=3," "&amp;D26,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H26" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H26" ca="1">IF(OR(D26="",E26&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E26),"$",""))&amp;D26+1,
+        <f t="array" ref="H26">IF(OR(D26="",E26&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E26),"$",""))&amp;D26+1,
 IFERROR(INDEX(TablaDatos[],D26,E26),"")))</f>
         <v/>
       </c>
@@ -4515,28 +4514,28 @@
     </row>
     <row r="27" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
-        <f t="shared" ref="C27:C28" ca="1" si="20">C26--(G26="")</f>
-        <v>19</v>
+        <f t="shared" ref="C27:C28" si="20">C26--(G26="")</f>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ref="E27:E28" ca="1" si="21">IF(D27&lt;&gt;D26,3,E26+1)</f>
-        <v>20</v>
+        <f t="shared" ref="E27:E28" si="21">IF(D27&lt;&gt;D26,3,E26+1)</f>
+        <v>25</v>
       </c>
       <c r="F27" s="1" cm="1">
-        <f t="array" aca="1" ref="F27" ca="1">IF(OR(D27="",G27=""),0,LEFT(G27)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D27,2)),2))</f>
+        <f t="array" ref="F27">IF(OR(D27="",G27=""),0,LEFT(G27)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D27,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G27" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G27" ca="1">IF(OR(D27="",E27&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E27=3,1,E27)),"$",""))&amp;D27+1,
+        <f t="array" ref="G27">IF(OR(D27="",E27&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E27=3,1,E27)),"$",""))&amp;D27+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E27)&amp;IF(E27=3," "&amp;D27,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H27" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H27" ca="1">IF(OR(D27="",E27&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E27),"$",""))&amp;D27+1,
+        <f t="array" ref="H27">IF(OR(D27="",E27&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E27),"$",""))&amp;D27+1,
 IFERROR(INDEX(TablaDatos[],D27,E27),"")))</f>
         <v/>
       </c>
@@ -4647,28 +4646,28 @@
     </row>
     <row r="28" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>20</v>
+        <f t="shared" si="20"/>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>21</v>
+        <f t="shared" si="21"/>
+        <v>26</v>
       </c>
       <c r="F28" s="1" cm="1">
-        <f t="array" aca="1" ref="F28" ca="1">IF(OR(D28="",G28=""),0,LEFT(G28)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D28,2)),2))</f>
+        <f t="array" ref="F28">IF(OR(D28="",G28=""),0,LEFT(G28)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D28,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G28" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G28" ca="1">IF(OR(D28="",E28&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E28=3,1,E28)),"$",""))&amp;D28+1,
+        <f t="array" ref="G28">IF(OR(D28="",E28&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E28=3,1,E28)),"$",""))&amp;D28+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E28)&amp;IF(E28=3," "&amp;D28,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H28" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H28" ca="1">IF(OR(D28="",E28&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E28),"$",""))&amp;D28+1,
+        <f t="array" ref="H28">IF(OR(D28="",E28&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E28),"$",""))&amp;D28+1,
 IFERROR(INDEX(TablaDatos[],D28,E28),"")))</f>
         <v/>
       </c>
@@ -4779,28 +4778,28 @@
     </row>
     <row r="29" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
-        <f t="shared" ref="C29:C92" ca="1" si="28">C28--(G28="")</f>
-        <v>21</v>
+        <f t="shared" ref="C29:C92" si="28">C28--(G28="")</f>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ref="E29:E92" ca="1" si="29">IF(D29&lt;&gt;D28,3,E28+1)</f>
-        <v>22</v>
+        <f t="shared" ref="E29:E92" si="29">IF(D29&lt;&gt;D28,3,E28+1)</f>
+        <v>27</v>
       </c>
       <c r="F29" s="1" cm="1">
-        <f t="array" aca="1" ref="F29" ca="1">IF(OR(D29="",G29=""),0,LEFT(G29)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D29,2)),2))</f>
+        <f t="array" ref="F29">IF(OR(D29="",G29=""),0,LEFT(G29)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D29,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G29" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G29" ca="1">IF(OR(D29="",E29&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E29=3,1,E29)),"$",""))&amp;D29+1,
+        <f t="array" ref="G29">IF(OR(D29="",E29&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E29=3,1,E29)),"$",""))&amp;D29+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E29)&amp;IF(E29=3," "&amp;D29,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H29" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H29" ca="1">IF(OR(D29="",E29&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E29),"$",""))&amp;D29+1,
+        <f t="array" ref="H29">IF(OR(D29="",E29&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E29),"$",""))&amp;D29+1,
 IFERROR(INDEX(TablaDatos[],D29,E29),"")))</f>
         <v/>
       </c>
@@ -4911,28 +4910,28 @@
     </row>
     <row r="30" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>22</v>
+        <f t="shared" si="28"/>
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E30" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>23</v>
+        <f t="shared" si="29"/>
+        <v>28</v>
       </c>
       <c r="F30" s="1" cm="1">
-        <f t="array" aca="1" ref="F30" ca="1">IF(OR(D30="",G30=""),0,LEFT(G30)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D30,2)),2))</f>
+        <f t="array" ref="F30">IF(OR(D30="",G30=""),0,LEFT(G30)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D30,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G30" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G30" ca="1">IF(OR(D30="",E30&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E30=3,1,E30)),"$",""))&amp;D30+1,
+        <f t="array" ref="G30">IF(OR(D30="",E30&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E30=3,1,E30)),"$",""))&amp;D30+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E30)&amp;IF(E30=3," "&amp;D30,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H30" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H30" ca="1">IF(OR(D30="",E30&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E30),"$",""))&amp;D30+1,
+        <f t="array" ref="H30">IF(OR(D30="",E30&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E30),"$",""))&amp;D30+1,
 IFERROR(INDEX(TablaDatos[],D30,E30),"")))</f>
         <v/>
       </c>
@@ -5043,28 +5042,28 @@
     </row>
     <row r="31" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>23</v>
+        <f t="shared" si="28"/>
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E31" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>24</v>
+        <f t="shared" si="29"/>
+        <v>29</v>
       </c>
       <c r="F31" s="1" cm="1">
-        <f t="array" aca="1" ref="F31" ca="1">IF(OR(D31="",G31=""),0,LEFT(G31)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D31,2)),2))</f>
+        <f t="array" ref="F31">IF(OR(D31="",G31=""),0,LEFT(G31)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D31,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G31" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G31" ca="1">IF(OR(D31="",E31&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E31=3,1,E31)),"$",""))&amp;D31+1,
+        <f t="array" ref="G31">IF(OR(D31="",E31&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E31=3,1,E31)),"$",""))&amp;D31+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E31)&amp;IF(E31=3," "&amp;D31,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H31" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H31" ca="1">IF(OR(D31="",E31&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E31),"$",""))&amp;D31+1,
+        <f t="array" ref="H31">IF(OR(D31="",E31&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E31),"$",""))&amp;D31+1,
 IFERROR(INDEX(TablaDatos[],D31,E31),"")))</f>
         <v/>
       </c>
@@ -5175,28 +5174,28 @@
     </row>
     <row r="32" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>24</v>
+        <f t="shared" si="28"/>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E32" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>25</v>
+        <f t="shared" si="29"/>
+        <v>30</v>
       </c>
       <c r="F32" s="1" cm="1">
-        <f t="array" aca="1" ref="F32" ca="1">IF(OR(D32="",G32=""),0,LEFT(G32)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D32,2)),2))</f>
+        <f t="array" ref="F32">IF(OR(D32="",G32=""),0,LEFT(G32)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D32,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G32" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G32" ca="1">IF(OR(D32="",E32&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E32=3,1,E32)),"$",""))&amp;D32+1,
+        <f t="array" ref="G32">IF(OR(D32="",E32&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E32=3,1,E32)),"$",""))&amp;D32+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E32)&amp;IF(E32=3," "&amp;D32,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H32" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H32" ca="1">IF(OR(D32="",E32&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E32),"$",""))&amp;D32+1,
+        <f t="array" ref="H32">IF(OR(D32="",E32&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E32),"$",""))&amp;D32+1,
 IFERROR(INDEX(TablaDatos[],D32,E32),"")))</f>
         <v/>
       </c>
@@ -5307,28 +5306,28 @@
     </row>
     <row r="33" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>25</v>
+        <f t="shared" si="28"/>
+        <v>31</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E33" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>26</v>
+        <f t="shared" si="29"/>
+        <v>31</v>
       </c>
       <c r="F33" s="1" cm="1">
-        <f t="array" aca="1" ref="F33" ca="1">IF(OR(D33="",G33=""),0,LEFT(G33)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D33,2)),2))</f>
+        <f t="array" ref="F33">IF(OR(D33="",G33=""),0,LEFT(G33)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D33,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G33" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G33" ca="1">IF(OR(D33="",E33&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E33=3,1,E33)),"$",""))&amp;D33+1,
+        <f t="array" ref="G33">IF(OR(D33="",E33&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E33=3,1,E33)),"$",""))&amp;D33+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E33)&amp;IF(E33=3," "&amp;D33,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H33" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H33" ca="1">IF(OR(D33="",E33&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E33),"$",""))&amp;D33+1,
+        <f t="array" ref="H33">IF(OR(D33="",E33&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E33),"$",""))&amp;D33+1,
 IFERROR(INDEX(TablaDatos[],D33,E33),"")))</f>
         <v/>
       </c>
@@ -5439,28 +5438,28 @@
     </row>
     <row r="34" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>26</v>
+        <f t="shared" si="28"/>
+        <v>32</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>27</v>
+        <f t="shared" si="29"/>
+        <v>32</v>
       </c>
       <c r="F34" s="1" cm="1">
-        <f t="array" aca="1" ref="F34" ca="1">IF(OR(D34="",G34=""),0,LEFT(G34)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D34,2)),2))</f>
+        <f t="array" ref="F34">IF(OR(D34="",G34=""),0,LEFT(G34)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D34,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G34" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G34" ca="1">IF(OR(D34="",E34&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E34=3,1,E34)),"$",""))&amp;D34+1,
+        <f t="array" ref="G34">IF(OR(D34="",E34&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E34=3,1,E34)),"$",""))&amp;D34+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E34)&amp;IF(E34=3," "&amp;D34,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H34" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H34" ca="1">IF(OR(D34="",E34&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E34),"$",""))&amp;D34+1,
+        <f t="array" ref="H34">IF(OR(D34="",E34&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E34),"$",""))&amp;D34+1,
 IFERROR(INDEX(TablaDatos[],D34,E34),"")))</f>
         <v/>
       </c>
@@ -5571,28 +5570,28 @@
     </row>
     <row r="35" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>27</v>
+        <f t="shared" si="28"/>
+        <v>33</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E35" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>28</v>
+        <f t="shared" si="29"/>
+        <v>33</v>
       </c>
       <c r="F35" s="1" cm="1">
-        <f t="array" aca="1" ref="F35" ca="1">IF(OR(D35="",G35=""),0,LEFT(G35)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D35,2)),2))</f>
+        <f t="array" ref="F35">IF(OR(D35="",G35=""),0,LEFT(G35)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D35,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G35" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G35" ca="1">IF(OR(D35="",E35&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E35=3,1,E35)),"$",""))&amp;D35+1,
+        <f t="array" ref="G35">IF(OR(D35="",E35&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E35=3,1,E35)),"$",""))&amp;D35+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E35)&amp;IF(E35=3," "&amp;D35,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H35" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H35" ca="1">IF(OR(D35="",E35&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E35),"$",""))&amp;D35+1,
+        <f t="array" ref="H35">IF(OR(D35="",E35&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E35),"$",""))&amp;D35+1,
 IFERROR(INDEX(TablaDatos[],D35,E35),"")))</f>
         <v/>
       </c>
@@ -5703,28 +5702,28 @@
     </row>
     <row r="36" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>28</v>
+        <f t="shared" si="28"/>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>29</v>
+        <f t="shared" si="29"/>
+        <v>34</v>
       </c>
       <c r="F36" s="1" cm="1">
-        <f t="array" aca="1" ref="F36" ca="1">IF(OR(D36="",G36=""),0,LEFT(G36)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D36,2)),2))</f>
+        <f t="array" ref="F36">IF(OR(D36="",G36=""),0,LEFT(G36)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D36,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G36" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G36" ca="1">IF(OR(D36="",E36&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E36=3,1,E36)),"$",""))&amp;D36+1,
+        <f t="array" ref="G36">IF(OR(D36="",E36&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E36=3,1,E36)),"$",""))&amp;D36+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E36)&amp;IF(E36=3," "&amp;D36,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H36" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H36" ca="1">IF(OR(D36="",E36&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E36),"$",""))&amp;D36+1,
+        <f t="array" ref="H36">IF(OR(D36="",E36&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E36),"$",""))&amp;D36+1,
 IFERROR(INDEX(TablaDatos[],D36,E36),"")))</f>
         <v/>
       </c>
@@ -5835,28 +5834,28 @@
     </row>
     <row r="37" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>29</v>
+        <f t="shared" si="28"/>
+        <v>35</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E37" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>30</v>
+        <f t="shared" si="29"/>
+        <v>35</v>
       </c>
       <c r="F37" s="1" cm="1">
-        <f t="array" aca="1" ref="F37" ca="1">IF(OR(D37="",G37=""),0,LEFT(G37)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D37,2)),2))</f>
+        <f t="array" ref="F37">IF(OR(D37="",G37=""),0,LEFT(G37)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D37,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G37" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G37" ca="1">IF(OR(D37="",E37&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E37=3,1,E37)),"$",""))&amp;D37+1,
+        <f t="array" ref="G37">IF(OR(D37="",E37&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E37=3,1,E37)),"$",""))&amp;D37+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E37)&amp;IF(E37=3," "&amp;D37,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H37" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H37" ca="1">IF(OR(D37="",E37&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E37),"$",""))&amp;D37+1,
+        <f t="array" ref="H37">IF(OR(D37="",E37&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E37),"$",""))&amp;D37+1,
 IFERROR(INDEX(TablaDatos[],D37,E37),"")))</f>
         <v/>
       </c>
@@ -5967,28 +5966,28 @@
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>30</v>
+        <f t="shared" si="28"/>
+        <v>36</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E38" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>31</v>
+        <f t="shared" si="29"/>
+        <v>36</v>
       </c>
       <c r="F38" s="1" cm="1">
-        <f t="array" aca="1" ref="F38" ca="1">IF(OR(D38="",G38=""),0,LEFT(G38)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D38,2)),2))</f>
+        <f t="array" ref="F38">IF(OR(D38="",G38=""),0,LEFT(G38)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D38,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G38" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G38" ca="1">IF(OR(D38="",E38&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E38=3,1,E38)),"$",""))&amp;D38+1,
+        <f t="array" ref="G38">IF(OR(D38="",E38&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E38=3,1,E38)),"$",""))&amp;D38+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E38)&amp;IF(E38=3," "&amp;D38,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H38" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H38" ca="1">IF(OR(D38="",E38&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E38),"$",""))&amp;D38+1,
+        <f t="array" ref="H38">IF(OR(D38="",E38&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E38),"$",""))&amp;D38+1,
 IFERROR(INDEX(TablaDatos[],D38,E38),"")))</f>
         <v/>
       </c>
@@ -6099,28 +6098,28 @@
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>31</v>
+        <f t="shared" si="28"/>
+        <v>37</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E39" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>32</v>
+        <f t="shared" si="29"/>
+        <v>37</v>
       </c>
       <c r="F39" s="1" cm="1">
-        <f t="array" aca="1" ref="F39" ca="1">IF(OR(D39="",G39=""),0,LEFT(G39)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D39,2)),2))</f>
+        <f t="array" ref="F39">IF(OR(D39="",G39=""),0,LEFT(G39)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D39,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G39" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G39" ca="1">IF(OR(D39="",E39&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E39=3,1,E39)),"$",""))&amp;D39+1,
+        <f t="array" ref="G39">IF(OR(D39="",E39&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E39=3,1,E39)),"$",""))&amp;D39+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E39)&amp;IF(E39=3," "&amp;D39,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H39" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H39" ca="1">IF(OR(D39="",E39&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E39),"$",""))&amp;D39+1,
+        <f t="array" ref="H39">IF(OR(D39="",E39&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E39),"$",""))&amp;D39+1,
 IFERROR(INDEX(TablaDatos[],D39,E39),"")))</f>
         <v/>
       </c>
@@ -6231,28 +6230,28 @@
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>32</v>
+        <f t="shared" si="28"/>
+        <v>38</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E40" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>33</v>
+        <f t="shared" si="29"/>
+        <v>38</v>
       </c>
       <c r="F40" s="1" cm="1">
-        <f t="array" aca="1" ref="F40" ca="1">IF(OR(D40="",G40=""),0,LEFT(G40)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D40,2)),2))</f>
+        <f t="array" ref="F40">IF(OR(D40="",G40=""),0,LEFT(G40)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D40,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G40" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G40" ca="1">IF(OR(D40="",E40&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E40=3,1,E40)),"$",""))&amp;D40+1,
+        <f t="array" ref="G40">IF(OR(D40="",E40&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E40=3,1,E40)),"$",""))&amp;D40+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E40)&amp;IF(E40=3," "&amp;D40,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H40" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H40" ca="1">IF(OR(D40="",E40&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E40),"$",""))&amp;D40+1,
+        <f t="array" ref="H40">IF(OR(D40="",E40&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E40),"$",""))&amp;D40+1,
 IFERROR(INDEX(TablaDatos[],D40,E40),"")))</f>
         <v/>
       </c>
@@ -6363,28 +6362,28 @@
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>33</v>
+        <f t="shared" si="28"/>
+        <v>39</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E41" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>34</v>
+        <f t="shared" si="29"/>
+        <v>39</v>
       </c>
       <c r="F41" s="1" cm="1">
-        <f t="array" aca="1" ref="F41" ca="1">IF(OR(D41="",G41=""),0,LEFT(G41)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D41,2)),2))</f>
+        <f t="array" ref="F41">IF(OR(D41="",G41=""),0,LEFT(G41)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D41,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G41" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G41" ca="1">IF(OR(D41="",E41&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E41=3,1,E41)),"$",""))&amp;D41+1,
+        <f t="array" ref="G41">IF(OR(D41="",E41&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E41=3,1,E41)),"$",""))&amp;D41+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E41)&amp;IF(E41=3," "&amp;D41,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H41" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H41" ca="1">IF(OR(D41="",E41&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E41),"$",""))&amp;D41+1,
+        <f t="array" ref="H41">IF(OR(D41="",E41&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E41),"$",""))&amp;D41+1,
 IFERROR(INDEX(TablaDatos[],D41,E41),"")))</f>
         <v/>
       </c>
@@ -6495,28 +6494,28 @@
     </row>
     <row r="42" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>34</v>
+        <f t="shared" si="28"/>
+        <v>40</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E42" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>35</v>
+        <f t="shared" si="29"/>
+        <v>40</v>
       </c>
       <c r="F42" s="1" cm="1">
-        <f t="array" aca="1" ref="F42" ca="1">IF(OR(D42="",G42=""),0,LEFT(G42)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D42,2)),2))</f>
+        <f t="array" ref="F42">IF(OR(D42="",G42=""),0,LEFT(G42)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D42,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G42" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G42" ca="1">IF(OR(D42="",E42&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E42=3,1,E42)),"$",""))&amp;D42+1,
+        <f t="array" ref="G42">IF(OR(D42="",E42&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E42=3,1,E42)),"$",""))&amp;D42+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E42)&amp;IF(E42=3," "&amp;D42,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H42" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H42" ca="1">IF(OR(D42="",E42&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E42),"$",""))&amp;D42+1,
+        <f t="array" ref="H42">IF(OR(D42="",E42&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E42),"$",""))&amp;D42+1,
 IFERROR(INDEX(TablaDatos[],D42,E42),"")))</f>
         <v/>
       </c>
@@ -6627,28 +6626,28 @@
     </row>
     <row r="43" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>35</v>
+        <f t="shared" si="28"/>
+        <v>41</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E43" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>36</v>
+        <f t="shared" si="29"/>
+        <v>41</v>
       </c>
       <c r="F43" s="1" cm="1">
-        <f t="array" aca="1" ref="F43" ca="1">IF(OR(D43="",G43=""),0,LEFT(G43)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D43,2)),2))</f>
+        <f t="array" ref="F43">IF(OR(D43="",G43=""),0,LEFT(G43)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D43,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G43" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G43" ca="1">IF(OR(D43="",E43&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E43=3,1,E43)),"$",""))&amp;D43+1,
+        <f t="array" ref="G43">IF(OR(D43="",E43&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E43=3,1,E43)),"$",""))&amp;D43+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E43)&amp;IF(E43=3," "&amp;D43,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H43" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H43" ca="1">IF(OR(D43="",E43&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E43),"$",""))&amp;D43+1,
+        <f t="array" ref="H43">IF(OR(D43="",E43&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E43),"$",""))&amp;D43+1,
 IFERROR(INDEX(TablaDatos[],D43,E43),"")))</f>
         <v/>
       </c>
@@ -6759,28 +6758,28 @@
     </row>
     <row r="44" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>36</v>
+        <f t="shared" si="28"/>
+        <v>42</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E44" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>37</v>
+        <f t="shared" si="29"/>
+        <v>42</v>
       </c>
       <c r="F44" s="1" cm="1">
-        <f t="array" aca="1" ref="F44" ca="1">IF(OR(D44="",G44=""),0,LEFT(G44)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D44,2)),2))</f>
+        <f t="array" ref="F44">IF(OR(D44="",G44=""),0,LEFT(G44)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D44,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G44" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G44" ca="1">IF(OR(D44="",E44&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E44=3,1,E44)),"$",""))&amp;D44+1,
+        <f t="array" ref="G44">IF(OR(D44="",E44&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E44=3,1,E44)),"$",""))&amp;D44+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E44)&amp;IF(E44=3," "&amp;D44,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H44" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H44" ca="1">IF(OR(D44="",E44&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E44),"$",""))&amp;D44+1,
+        <f t="array" ref="H44">IF(OR(D44="",E44&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E44),"$",""))&amp;D44+1,
 IFERROR(INDEX(TablaDatos[],D44,E44),"")))</f>
         <v/>
       </c>
@@ -6891,28 +6890,28 @@
     </row>
     <row r="45" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>37</v>
+        <f t="shared" si="28"/>
+        <v>43</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E45" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>38</v>
+        <f t="shared" si="29"/>
+        <v>43</v>
       </c>
       <c r="F45" s="1" cm="1">
-        <f t="array" aca="1" ref="F45" ca="1">IF(OR(D45="",G45=""),0,LEFT(G45)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D45,2)),2))</f>
+        <f t="array" ref="F45">IF(OR(D45="",G45=""),0,LEFT(G45)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D45,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G45" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G45" ca="1">IF(OR(D45="",E45&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E45=3,1,E45)),"$",""))&amp;D45+1,
+        <f t="array" ref="G45">IF(OR(D45="",E45&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E45=3,1,E45)),"$",""))&amp;D45+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E45)&amp;IF(E45=3," "&amp;D45,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H45" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H45" ca="1">IF(OR(D45="",E45&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E45),"$",""))&amp;D45+1,
+        <f t="array" ref="H45">IF(OR(D45="",E45&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E45),"$",""))&amp;D45+1,
 IFERROR(INDEX(TablaDatos[],D45,E45),"")))</f>
         <v/>
       </c>
@@ -7023,28 +7022,28 @@
     </row>
     <row r="46" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>38</v>
+        <f t="shared" si="28"/>
+        <v>44</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E46" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>39</v>
+        <f t="shared" si="29"/>
+        <v>44</v>
       </c>
       <c r="F46" s="1" cm="1">
-        <f t="array" aca="1" ref="F46" ca="1">IF(OR(D46="",G46=""),0,LEFT(G46)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D46,2)),2))</f>
+        <f t="array" ref="F46">IF(OR(D46="",G46=""),0,LEFT(G46)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D46,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G46" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G46" ca="1">IF(OR(D46="",E46&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E46=3,1,E46)),"$",""))&amp;D46+1,
+        <f t="array" ref="G46">IF(OR(D46="",E46&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E46=3,1,E46)),"$",""))&amp;D46+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E46)&amp;IF(E46=3," "&amp;D46,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H46" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H46" ca="1">IF(OR(D46="",E46&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E46),"$",""))&amp;D46+1,
+        <f t="array" ref="H46">IF(OR(D46="",E46&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E46),"$",""))&amp;D46+1,
 IFERROR(INDEX(TablaDatos[],D46,E46),"")))</f>
         <v/>
       </c>
@@ -7155,28 +7154,28 @@
     </row>
     <row r="47" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>39</v>
+        <f t="shared" si="28"/>
+        <v>45</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E47" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>40</v>
+        <f t="shared" si="29"/>
+        <v>45</v>
       </c>
       <c r="F47" s="1" cm="1">
-        <f t="array" aca="1" ref="F47" ca="1">IF(OR(D47="",G47=""),0,LEFT(G47)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D47,2)),2))</f>
+        <f t="array" ref="F47">IF(OR(D47="",G47=""),0,LEFT(G47)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D47,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G47" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G47" ca="1">IF(OR(D47="",E47&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E47=3,1,E47)),"$",""))&amp;D47+1,
+        <f t="array" ref="G47">IF(OR(D47="",E47&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E47=3,1,E47)),"$",""))&amp;D47+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E47)&amp;IF(E47=3," "&amp;D47,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H47" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H47" ca="1">IF(OR(D47="",E47&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E47),"$",""))&amp;D47+1,
+        <f t="array" ref="H47">IF(OR(D47="",E47&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E47),"$",""))&amp;D47+1,
 IFERROR(INDEX(TablaDatos[],D47,E47),"")))</f>
         <v/>
       </c>
@@ -7287,28 +7286,28 @@
     </row>
     <row r="48" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>40</v>
+        <f t="shared" si="28"/>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E48" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>41</v>
+        <f t="shared" si="29"/>
+        <v>46</v>
       </c>
       <c r="F48" s="1" cm="1">
-        <f t="array" aca="1" ref="F48" ca="1">IF(OR(D48="",G48=""),0,LEFT(G48)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D48,2)),2))</f>
+        <f t="array" ref="F48">IF(OR(D48="",G48=""),0,LEFT(G48)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D48,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G48" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G48" ca="1">IF(OR(D48="",E48&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E48=3,1,E48)),"$",""))&amp;D48+1,
+        <f t="array" ref="G48">IF(OR(D48="",E48&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E48=3,1,E48)),"$",""))&amp;D48+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E48)&amp;IF(E48=3," "&amp;D48,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H48" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H48" ca="1">IF(OR(D48="",E48&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E48),"$",""))&amp;D48+1,
+        <f t="array" ref="H48">IF(OR(D48="",E48&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E48),"$",""))&amp;D48+1,
 IFERROR(INDEX(TablaDatos[],D48,E48),"")))</f>
         <v/>
       </c>
@@ -7419,28 +7418,28 @@
     </row>
     <row r="49" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>41</v>
+        <f t="shared" si="28"/>
+        <v>47</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>42</v>
+        <f t="shared" si="29"/>
+        <v>47</v>
       </c>
       <c r="F49" s="1" cm="1">
-        <f t="array" aca="1" ref="F49" ca="1">IF(OR(D49="",G49=""),0,LEFT(G49)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D49,2)),2))</f>
+        <f t="array" ref="F49">IF(OR(D49="",G49=""),0,LEFT(G49)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D49,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G49" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G49" ca="1">IF(OR(D49="",E49&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E49=3,1,E49)),"$",""))&amp;D49+1,
+        <f t="array" ref="G49">IF(OR(D49="",E49&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E49=3,1,E49)),"$",""))&amp;D49+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E49)&amp;IF(E49=3," "&amp;D49,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H49" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H49" ca="1">IF(OR(D49="",E49&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E49),"$",""))&amp;D49+1,
+        <f t="array" ref="H49">IF(OR(D49="",E49&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E49),"$",""))&amp;D49+1,
 IFERROR(INDEX(TablaDatos[],D49,E49),"")))</f>
         <v/>
       </c>
@@ -7551,28 +7550,28 @@
     </row>
     <row r="50" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>42</v>
+        <f t="shared" si="28"/>
+        <v>48</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E50" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>43</v>
+        <f t="shared" si="29"/>
+        <v>48</v>
       </c>
       <c r="F50" s="1" cm="1">
-        <f t="array" aca="1" ref="F50" ca="1">IF(OR(D50="",G50=""),0,LEFT(G50)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D50,2)),2))</f>
+        <f t="array" ref="F50">IF(OR(D50="",G50=""),0,LEFT(G50)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D50,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G50" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G50" ca="1">IF(OR(D50="",E50&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E50=3,1,E50)),"$",""))&amp;D50+1,
+        <f t="array" ref="G50">IF(OR(D50="",E50&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E50=3,1,E50)),"$",""))&amp;D50+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E50)&amp;IF(E50=3," "&amp;D50,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H50" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H50" ca="1">IF(OR(D50="",E50&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E50),"$",""))&amp;D50+1,
+        <f t="array" ref="H50">IF(OR(D50="",E50&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E50),"$",""))&amp;D50+1,
 IFERROR(INDEX(TablaDatos[],D50,E50),"")))</f>
         <v/>
       </c>
@@ -7683,28 +7682,28 @@
     </row>
     <row r="51" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>43</v>
+        <f t="shared" si="28"/>
+        <v>49</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E51" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>44</v>
+        <f t="shared" si="29"/>
+        <v>49</v>
       </c>
       <c r="F51" s="1" cm="1">
-        <f t="array" aca="1" ref="F51" ca="1">IF(OR(D51="",G51=""),0,LEFT(G51)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D51,2)),2))</f>
+        <f t="array" ref="F51">IF(OR(D51="",G51=""),0,LEFT(G51)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D51,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G51" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G51" ca="1">IF(OR(D51="",E51&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E51=3,1,E51)),"$",""))&amp;D51+1,
+        <f t="array" ref="G51">IF(OR(D51="",E51&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E51=3,1,E51)),"$",""))&amp;D51+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E51)&amp;IF(E51=3," "&amp;D51,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H51" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H51" ca="1">IF(OR(D51="",E51&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E51),"$",""))&amp;D51+1,
+        <f t="array" ref="H51">IF(OR(D51="",E51&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E51),"$",""))&amp;D51+1,
 IFERROR(INDEX(TablaDatos[],D51,E51),"")))</f>
         <v/>
       </c>
@@ -7815,28 +7814,28 @@
     </row>
     <row r="52" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>44</v>
+        <f t="shared" si="28"/>
+        <v>50</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E52" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <f t="shared" si="29"/>
+        <v>50</v>
       </c>
       <c r="F52" s="1" cm="1">
-        <f t="array" aca="1" ref="F52" ca="1">IF(OR(D52="",G52=""),0,LEFT(G52)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D52,2)),2))</f>
+        <f t="array" ref="F52">IF(OR(D52="",G52=""),0,LEFT(G52)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D52,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G52" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G52" ca="1">IF(OR(D52="",E52&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E52=3,1,E52)),"$",""))&amp;D52+1,
+        <f t="array" ref="G52">IF(OR(D52="",E52&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E52=3,1,E52)),"$",""))&amp;D52+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E52)&amp;IF(E52=3," "&amp;D52,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H52" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H52" ca="1">IF(OR(D52="",E52&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E52),"$",""))&amp;D52+1,
+        <f t="array" ref="H52">IF(OR(D52="",E52&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E52),"$",""))&amp;D52+1,
 IFERROR(INDEX(TablaDatos[],D52,E52),"")))</f>
         <v/>
       </c>
@@ -7947,28 +7946,28 @@
     </row>
     <row r="53" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <f t="shared" si="28"/>
+        <v>51</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E53" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>46</v>
+        <f t="shared" si="29"/>
+        <v>51</v>
       </c>
       <c r="F53" s="1" cm="1">
-        <f t="array" aca="1" ref="F53" ca="1">IF(OR(D53="",G53=""),0,LEFT(G53)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D53,2)),2))</f>
+        <f t="array" ref="F53">IF(OR(D53="",G53=""),0,LEFT(G53)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D53,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G53" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G53" ca="1">IF(OR(D53="",E53&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E53=3,1,E53)),"$",""))&amp;D53+1,
+        <f t="array" ref="G53">IF(OR(D53="",E53&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E53=3,1,E53)),"$",""))&amp;D53+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E53)&amp;IF(E53=3," "&amp;D53,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H53" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H53" ca="1">IF(OR(D53="",E53&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E53),"$",""))&amp;D53+1,
+        <f t="array" ref="H53">IF(OR(D53="",E53&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E53),"$",""))&amp;D53+1,
 IFERROR(INDEX(TablaDatos[],D53,E53),"")))</f>
         <v/>
       </c>
@@ -8079,28 +8078,28 @@
     </row>
     <row r="54" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <f t="shared" si="28"/>
+        <v>52</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E54" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>47</v>
+        <f t="shared" si="29"/>
+        <v>52</v>
       </c>
       <c r="F54" s="1" cm="1">
-        <f t="array" aca="1" ref="F54" ca="1">IF(OR(D54="",G54=""),0,LEFT(G54)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D54,2)),2))</f>
+        <f t="array" ref="F54">IF(OR(D54="",G54=""),0,LEFT(G54)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D54,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G54" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G54" ca="1">IF(OR(D54="",E54&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E54=3,1,E54)),"$",""))&amp;D54+1,
+        <f t="array" ref="G54">IF(OR(D54="",E54&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E54=3,1,E54)),"$",""))&amp;D54+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E54)&amp;IF(E54=3," "&amp;D54,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H54" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H54" ca="1">IF(OR(D54="",E54&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E54),"$",""))&amp;D54+1,
+        <f t="array" ref="H54">IF(OR(D54="",E54&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E54),"$",""))&amp;D54+1,
 IFERROR(INDEX(TablaDatos[],D54,E54),"")))</f>
         <v/>
       </c>
@@ -8211,28 +8210,28 @@
     </row>
     <row r="55" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <f t="shared" si="28"/>
+        <v>53</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E55" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>48</v>
+        <f t="shared" si="29"/>
+        <v>53</v>
       </c>
       <c r="F55" s="1" cm="1">
-        <f t="array" aca="1" ref="F55" ca="1">IF(OR(D55="",G55=""),0,LEFT(G55)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D55,2)),2))</f>
+        <f t="array" ref="F55">IF(OR(D55="",G55=""),0,LEFT(G55)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D55,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G55" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G55" ca="1">IF(OR(D55="",E55&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E55=3,1,E55)),"$",""))&amp;D55+1,
+        <f t="array" ref="G55">IF(OR(D55="",E55&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E55=3,1,E55)),"$",""))&amp;D55+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E55)&amp;IF(E55=3," "&amp;D55,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H55" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H55" ca="1">IF(OR(D55="",E55&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E55),"$",""))&amp;D55+1,
+        <f t="array" ref="H55">IF(OR(D55="",E55&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E55),"$",""))&amp;D55+1,
 IFERROR(INDEX(TablaDatos[],D55,E55),"")))</f>
         <v/>
       </c>
@@ -8343,28 +8342,28 @@
     </row>
     <row r="56" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>48</v>
+        <f t="shared" si="28"/>
+        <v>54</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E56" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>49</v>
+        <f t="shared" si="29"/>
+        <v>54</v>
       </c>
       <c r="F56" s="1" cm="1">
-        <f t="array" aca="1" ref="F56" ca="1">IF(OR(D56="",G56=""),0,LEFT(G56)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D56,2)),2))</f>
+        <f t="array" ref="F56">IF(OR(D56="",G56=""),0,LEFT(G56)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D56,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G56" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G56" ca="1">IF(OR(D56="",E56&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E56=3,1,E56)),"$",""))&amp;D56+1,
+        <f t="array" ref="G56">IF(OR(D56="",E56&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E56=3,1,E56)),"$",""))&amp;D56+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E56)&amp;IF(E56=3," "&amp;D56,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H56" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H56" ca="1">IF(OR(D56="",E56&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E56),"$",""))&amp;D56+1,
+        <f t="array" ref="H56">IF(OR(D56="",E56&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E56),"$",""))&amp;D56+1,
 IFERROR(INDEX(TablaDatos[],D56,E56),"")))</f>
         <v/>
       </c>
@@ -8475,28 +8474,28 @@
     </row>
     <row r="57" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>49</v>
+        <f t="shared" si="28"/>
+        <v>55</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E57" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>50</v>
+        <f t="shared" si="29"/>
+        <v>55</v>
       </c>
       <c r="F57" s="1" cm="1">
-        <f t="array" aca="1" ref="F57" ca="1">IF(OR(D57="",G57=""),0,LEFT(G57)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D57,2)),2))</f>
+        <f t="array" ref="F57">IF(OR(D57="",G57=""),0,LEFT(G57)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D57,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G57" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G57" ca="1">IF(OR(D57="",E57&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E57=3,1,E57)),"$",""))&amp;D57+1,
+        <f t="array" ref="G57">IF(OR(D57="",E57&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E57=3,1,E57)),"$",""))&amp;D57+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E57)&amp;IF(E57=3," "&amp;D57,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H57" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H57" ca="1">IF(OR(D57="",E57&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E57),"$",""))&amp;D57+1,
+        <f t="array" ref="H57">IF(OR(D57="",E57&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E57),"$",""))&amp;D57+1,
 IFERROR(INDEX(TablaDatos[],D57,E57),"")))</f>
         <v/>
       </c>
@@ -8607,28 +8606,28 @@
     </row>
     <row r="58" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>50</v>
+        <f t="shared" si="28"/>
+        <v>56</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E58" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>51</v>
+        <f t="shared" si="29"/>
+        <v>56</v>
       </c>
       <c r="F58" s="1" cm="1">
-        <f t="array" aca="1" ref="F58" ca="1">IF(OR(D58="",G58=""),0,LEFT(G58)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D58,2)),2))</f>
+        <f t="array" ref="F58">IF(OR(D58="",G58=""),0,LEFT(G58)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D58,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G58" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G58" ca="1">IF(OR(D58="",E58&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E58=3,1,E58)),"$",""))&amp;D58+1,
+        <f t="array" ref="G58">IF(OR(D58="",E58&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E58=3,1,E58)),"$",""))&amp;D58+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E58)&amp;IF(E58=3," "&amp;D58,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H58" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H58" ca="1">IF(OR(D58="",E58&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E58),"$",""))&amp;D58+1,
+        <f t="array" ref="H58">IF(OR(D58="",E58&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E58),"$",""))&amp;D58+1,
 IFERROR(INDEX(TablaDatos[],D58,E58),"")))</f>
         <v/>
       </c>
@@ -8739,28 +8738,28 @@
     </row>
     <row r="59" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C59" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>51</v>
+        <f t="shared" si="28"/>
+        <v>57</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E59" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>52</v>
+        <f t="shared" si="29"/>
+        <v>57</v>
       </c>
       <c r="F59" s="1" cm="1">
-        <f t="array" aca="1" ref="F59" ca="1">IF(OR(D59="",G59=""),0,LEFT(G59)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D59,2)),2))</f>
+        <f t="array" ref="F59">IF(OR(D59="",G59=""),0,LEFT(G59)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D59,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G59" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G59" ca="1">IF(OR(D59="",E59&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E59=3,1,E59)),"$",""))&amp;D59+1,
+        <f t="array" ref="G59">IF(OR(D59="",E59&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E59=3,1,E59)),"$",""))&amp;D59+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E59)&amp;IF(E59=3," "&amp;D59,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H59" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H59" ca="1">IF(OR(D59="",E59&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E59),"$",""))&amp;D59+1,
+        <f t="array" ref="H59">IF(OR(D59="",E59&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E59),"$",""))&amp;D59+1,
 IFERROR(INDEX(TablaDatos[],D59,E59),"")))</f>
         <v/>
       </c>
@@ -8871,28 +8870,28 @@
     </row>
     <row r="60" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C60" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>52</v>
+        <f t="shared" si="28"/>
+        <v>58</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E60" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>53</v>
+        <f t="shared" si="29"/>
+        <v>58</v>
       </c>
       <c r="F60" s="1" cm="1">
-        <f t="array" aca="1" ref="F60" ca="1">IF(OR(D60="",G60=""),0,LEFT(G60)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D60,2)),2))</f>
+        <f t="array" ref="F60">IF(OR(D60="",G60=""),0,LEFT(G60)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D60,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G60" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G60" ca="1">IF(OR(D60="",E60&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E60=3,1,E60)),"$",""))&amp;D60+1,
+        <f t="array" ref="G60">IF(OR(D60="",E60&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E60=3,1,E60)),"$",""))&amp;D60+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E60)&amp;IF(E60=3," "&amp;D60,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H60" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H60" ca="1">IF(OR(D60="",E60&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E60),"$",""))&amp;D60+1,
+        <f t="array" ref="H60">IF(OR(D60="",E60&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E60),"$",""))&amp;D60+1,
 IFERROR(INDEX(TablaDatos[],D60,E60),"")))</f>
         <v/>
       </c>
@@ -9003,28 +9002,28 @@
     </row>
     <row r="61" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C61" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>53</v>
+        <f t="shared" si="28"/>
+        <v>59</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>54</v>
+        <f t="shared" si="29"/>
+        <v>59</v>
       </c>
       <c r="F61" s="1" cm="1">
-        <f t="array" aca="1" ref="F61" ca="1">IF(OR(D61="",G61=""),0,LEFT(G61)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D61,2)),2))</f>
+        <f t="array" ref="F61">IF(OR(D61="",G61=""),0,LEFT(G61)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D61,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G61" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G61" ca="1">IF(OR(D61="",E61&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E61=3,1,E61)),"$",""))&amp;D61+1,
+        <f t="array" ref="G61">IF(OR(D61="",E61&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E61=3,1,E61)),"$",""))&amp;D61+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E61)&amp;IF(E61=3," "&amp;D61,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H61" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H61" ca="1">IF(OR(D61="",E61&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E61),"$",""))&amp;D61+1,
+        <f t="array" ref="H61">IF(OR(D61="",E61&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E61),"$",""))&amp;D61+1,
 IFERROR(INDEX(TablaDatos[],D61,E61),"")))</f>
         <v/>
       </c>
@@ -9135,28 +9134,28 @@
     </row>
     <row r="62" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C62" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>54</v>
+        <f t="shared" si="28"/>
+        <v>60</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E62" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>55</v>
+        <f t="shared" si="29"/>
+        <v>60</v>
       </c>
       <c r="F62" s="1" cm="1">
-        <f t="array" aca="1" ref="F62" ca="1">IF(OR(D62="",G62=""),0,LEFT(G62)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D62,2)),2))</f>
+        <f t="array" ref="F62">IF(OR(D62="",G62=""),0,LEFT(G62)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D62,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G62" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G62" ca="1">IF(OR(D62="",E62&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E62=3,1,E62)),"$",""))&amp;D62+1,
+        <f t="array" ref="G62">IF(OR(D62="",E62&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E62=3,1,E62)),"$",""))&amp;D62+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E62)&amp;IF(E62=3," "&amp;D62,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H62" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H62" ca="1">IF(OR(D62="",E62&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E62),"$",""))&amp;D62+1,
+        <f t="array" ref="H62">IF(OR(D62="",E62&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E62),"$",""))&amp;D62+1,
 IFERROR(INDEX(TablaDatos[],D62,E62),"")))</f>
         <v/>
       </c>
@@ -9267,28 +9266,28 @@
     </row>
     <row r="63" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C63" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>55</v>
+        <f t="shared" si="28"/>
+        <v>61</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E63" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>56</v>
+        <f t="shared" si="29"/>
+        <v>61</v>
       </c>
       <c r="F63" s="1" cm="1">
-        <f t="array" aca="1" ref="F63" ca="1">IF(OR(D63="",G63=""),0,LEFT(G63)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D63,2)),2))</f>
+        <f t="array" ref="F63">IF(OR(D63="",G63=""),0,LEFT(G63)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D63,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G63" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G63" ca="1">IF(OR(D63="",E63&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E63=3,1,E63)),"$",""))&amp;D63+1,
+        <f t="array" ref="G63">IF(OR(D63="",E63&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E63=3,1,E63)),"$",""))&amp;D63+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E63)&amp;IF(E63=3," "&amp;D63,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H63" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H63" ca="1">IF(OR(D63="",E63&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E63),"$",""))&amp;D63+1,
+        <f t="array" ref="H63">IF(OR(D63="",E63&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E63),"$",""))&amp;D63+1,
 IFERROR(INDEX(TablaDatos[],D63,E63),"")))</f>
         <v/>
       </c>
@@ -9399,28 +9398,28 @@
     </row>
     <row r="64" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C64" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>56</v>
+        <f t="shared" si="28"/>
+        <v>62</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E64" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>57</v>
+        <f t="shared" si="29"/>
+        <v>62</v>
       </c>
       <c r="F64" s="1" cm="1">
-        <f t="array" aca="1" ref="F64" ca="1">IF(OR(D64="",G64=""),0,LEFT(G64)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D64,2)),2))</f>
+        <f t="array" ref="F64">IF(OR(D64="",G64=""),0,LEFT(G64)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D64,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G64" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G64" ca="1">IF(OR(D64="",E64&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E64=3,1,E64)),"$",""))&amp;D64+1,
+        <f t="array" ref="G64">IF(OR(D64="",E64&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E64=3,1,E64)),"$",""))&amp;D64+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E64)&amp;IF(E64=3," "&amp;D64,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H64" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H64" ca="1">IF(OR(D64="",E64&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E64),"$",""))&amp;D64+1,
+        <f t="array" ref="H64">IF(OR(D64="",E64&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E64),"$",""))&amp;D64+1,
 IFERROR(INDEX(TablaDatos[],D64,E64),"")))</f>
         <v/>
       </c>
@@ -9531,28 +9530,28 @@
     </row>
     <row r="65" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C65" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>57</v>
+        <f t="shared" si="28"/>
+        <v>63</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E65" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>58</v>
+        <f t="shared" si="29"/>
+        <v>63</v>
       </c>
       <c r="F65" s="1" cm="1">
-        <f t="array" aca="1" ref="F65" ca="1">IF(OR(D65="",G65=""),0,LEFT(G65)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D65,2)),2))</f>
+        <f t="array" ref="F65">IF(OR(D65="",G65=""),0,LEFT(G65)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D65,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G65" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G65" ca="1">IF(OR(D65="",E65&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E65=3,1,E65)),"$",""))&amp;D65+1,
+        <f t="array" ref="G65">IF(OR(D65="",E65&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E65=3,1,E65)),"$",""))&amp;D65+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E65)&amp;IF(E65=3," "&amp;D65,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H65" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H65" ca="1">IF(OR(D65="",E65&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E65),"$",""))&amp;D65+1,
+        <f t="array" ref="H65">IF(OR(D65="",E65&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E65),"$",""))&amp;D65+1,
 IFERROR(INDEX(TablaDatos[],D65,E65),"")))</f>
         <v/>
       </c>
@@ -9663,28 +9662,28 @@
     </row>
     <row r="66" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C66" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>58</v>
+        <f t="shared" si="28"/>
+        <v>64</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>59</v>
+        <f t="shared" si="29"/>
+        <v>64</v>
       </c>
       <c r="F66" s="1" cm="1">
-        <f t="array" aca="1" ref="F66" ca="1">IF(OR(D66="",G66=""),0,LEFT(G66)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D66,2)),2))</f>
+        <f t="array" ref="F66">IF(OR(D66="",G66=""),0,LEFT(G66)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D66,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G66" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G66" ca="1">IF(OR(D66="",E66&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E66=3,1,E66)),"$",""))&amp;D66+1,
+        <f t="array" ref="G66">IF(OR(D66="",E66&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E66=3,1,E66)),"$",""))&amp;D66+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E66)&amp;IF(E66=3," "&amp;D66,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H66" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H66" ca="1">IF(OR(D66="",E66&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E66),"$",""))&amp;D66+1,
+        <f t="array" ref="H66">IF(OR(D66="",E66&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E66),"$",""))&amp;D66+1,
 IFERROR(INDEX(TablaDatos[],D66,E66),"")))</f>
         <v/>
       </c>
@@ -9795,28 +9794,28 @@
     </row>
     <row r="67" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C67" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>59</v>
+        <f t="shared" si="28"/>
+        <v>65</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>60</v>
+        <f t="shared" si="29"/>
+        <v>65</v>
       </c>
       <c r="F67" s="1" cm="1">
-        <f t="array" aca="1" ref="F67" ca="1">IF(OR(D67="",G67=""),0,LEFT(G67)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D67,2)),2))</f>
+        <f t="array" ref="F67">IF(OR(D67="",G67=""),0,LEFT(G67)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D67,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G67" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G67" ca="1">IF(OR(D67="",E67&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E67=3,1,E67)),"$",""))&amp;D67+1,
+        <f t="array" ref="G67">IF(OR(D67="",E67&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E67=3,1,E67)),"$",""))&amp;D67+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E67)&amp;IF(E67=3," "&amp;D67,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H67" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H67" ca="1">IF(OR(D67="",E67&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E67),"$",""))&amp;D67+1,
+        <f t="array" ref="H67">IF(OR(D67="",E67&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E67),"$",""))&amp;D67+1,
 IFERROR(INDEX(TablaDatos[],D67,E67),"")))</f>
         <v/>
       </c>
@@ -9927,28 +9926,28 @@
     </row>
     <row r="68" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C68" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>60</v>
+        <f t="shared" si="28"/>
+        <v>66</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f t="shared" ref="D68:D99" ca="1" si="36">IF(C68&gt;C67,IFERROR(SMALL(C$102:C$201,C68),""),D67)</f>
+        <f t="shared" ref="D68:D99" si="36">IF(C68&gt;C67,IFERROR(SMALL(C$102:C$201,C68),""),D67)</f>
         <v/>
       </c>
       <c r="E68" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>61</v>
+        <f t="shared" si="29"/>
+        <v>66</v>
       </c>
       <c r="F68" s="1" cm="1">
-        <f t="array" aca="1" ref="F68" ca="1">IF(OR(D68="",G68=""),0,LEFT(G68)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D68,2)),2))</f>
+        <f t="array" ref="F68">IF(OR(D68="",G68=""),0,LEFT(G68)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D68,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G68" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G68" ca="1">IF(OR(D68="",E68&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E68=3,1,E68)),"$",""))&amp;D68+1,
+        <f t="array" ref="G68">IF(OR(D68="",E68&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E68=3,1,E68)),"$",""))&amp;D68+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E68)&amp;IF(E68=3," "&amp;D68,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H68" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H68" ca="1">IF(OR(D68="",E68&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E68),"$",""))&amp;D68+1,
+        <f t="array" ref="H68">IF(OR(D68="",E68&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E68),"$",""))&amp;D68+1,
 IFERROR(INDEX(TablaDatos[],D68,E68),"")))</f>
         <v/>
       </c>
@@ -10059,28 +10058,28 @@
     </row>
     <row r="69" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C69" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>61</v>
+        <f t="shared" si="28"/>
+        <v>67</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E69" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>62</v>
+        <f t="shared" si="29"/>
+        <v>67</v>
       </c>
       <c r="F69" s="1" cm="1">
-        <f t="array" aca="1" ref="F69" ca="1">IF(OR(D69="",G69=""),0,LEFT(G69)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D69,2)),2))</f>
+        <f t="array" ref="F69">IF(OR(D69="",G69=""),0,LEFT(G69)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D69,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G69" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G69" ca="1">IF(OR(D69="",E69&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E69=3,1,E69)),"$",""))&amp;D69+1,
+        <f t="array" ref="G69">IF(OR(D69="",E69&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E69=3,1,E69)),"$",""))&amp;D69+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E69)&amp;IF(E69=3," "&amp;D69,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H69" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H69" ca="1">IF(OR(D69="",E69&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E69),"$",""))&amp;D69+1,
+        <f t="array" ref="H69">IF(OR(D69="",E69&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E69),"$",""))&amp;D69+1,
 IFERROR(INDEX(TablaDatos[],D69,E69),"")))</f>
         <v/>
       </c>
@@ -10191,28 +10190,28 @@
     </row>
     <row r="70" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C70" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>62</v>
+        <f t="shared" si="28"/>
+        <v>68</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E70" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>63</v>
+        <f t="shared" si="29"/>
+        <v>68</v>
       </c>
       <c r="F70" s="1" cm="1">
-        <f t="array" aca="1" ref="F70" ca="1">IF(OR(D70="",G70=""),0,LEFT(G70)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D70,2)),2))</f>
+        <f t="array" ref="F70">IF(OR(D70="",G70=""),0,LEFT(G70)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D70,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G70" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G70" ca="1">IF(OR(D70="",E70&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E70=3,1,E70)),"$",""))&amp;D70+1,
+        <f t="array" ref="G70">IF(OR(D70="",E70&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E70=3,1,E70)),"$",""))&amp;D70+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E70)&amp;IF(E70=3," "&amp;D70,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H70" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H70" ca="1">IF(OR(D70="",E70&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E70),"$",""))&amp;D70+1,
+        <f t="array" ref="H70">IF(OR(D70="",E70&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E70),"$",""))&amp;D70+1,
 IFERROR(INDEX(TablaDatos[],D70,E70),"")))</f>
         <v/>
       </c>
@@ -10323,28 +10322,28 @@
     </row>
     <row r="71" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C71" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>63</v>
+        <f t="shared" si="28"/>
+        <v>69</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E71" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>64</v>
+        <f t="shared" si="29"/>
+        <v>69</v>
       </c>
       <c r="F71" s="1" cm="1">
-        <f t="array" aca="1" ref="F71" ca="1">IF(OR(D71="",G71=""),0,LEFT(G71)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D71,2)),2))</f>
+        <f t="array" ref="F71">IF(OR(D71="",G71=""),0,LEFT(G71)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D71,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G71" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G71" ca="1">IF(OR(D71="",E71&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E71=3,1,E71)),"$",""))&amp;D71+1,
+        <f t="array" ref="G71">IF(OR(D71="",E71&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E71=3,1,E71)),"$",""))&amp;D71+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E71)&amp;IF(E71=3," "&amp;D71,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H71" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H71" ca="1">IF(OR(D71="",E71&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E71),"$",""))&amp;D71+1,
+        <f t="array" ref="H71">IF(OR(D71="",E71&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E71),"$",""))&amp;D71+1,
 IFERROR(INDEX(TablaDatos[],D71,E71),"")))</f>
         <v/>
       </c>
@@ -10455,28 +10454,28 @@
     </row>
     <row r="72" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C72" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>64</v>
+        <f t="shared" si="28"/>
+        <v>70</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E72" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>65</v>
+        <f t="shared" si="29"/>
+        <v>70</v>
       </c>
       <c r="F72" s="1" cm="1">
-        <f t="array" aca="1" ref="F72" ca="1">IF(OR(D72="",G72=""),0,LEFT(G72)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D72,2)),2))</f>
+        <f t="array" ref="F72">IF(OR(D72="",G72=""),0,LEFT(G72)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D72,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G72" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G72" ca="1">IF(OR(D72="",E72&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E72=3,1,E72)),"$",""))&amp;D72+1,
+        <f t="array" ref="G72">IF(OR(D72="",E72&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E72=3,1,E72)),"$",""))&amp;D72+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E72)&amp;IF(E72=3," "&amp;D72,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H72" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H72" ca="1">IF(OR(D72="",E72&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E72),"$",""))&amp;D72+1,
+        <f t="array" ref="H72">IF(OR(D72="",E72&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E72),"$",""))&amp;D72+1,
 IFERROR(INDEX(TablaDatos[],D72,E72),"")))</f>
         <v/>
       </c>
@@ -10587,28 +10586,28 @@
     </row>
     <row r="73" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C73" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>65</v>
+        <f t="shared" si="28"/>
+        <v>71</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E73" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>66</v>
+        <f t="shared" si="29"/>
+        <v>71</v>
       </c>
       <c r="F73" s="1" cm="1">
-        <f t="array" aca="1" ref="F73" ca="1">IF(OR(D73="",G73=""),0,LEFT(G73)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D73,2)),2))</f>
+        <f t="array" ref="F73">IF(OR(D73="",G73=""),0,LEFT(G73)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D73,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G73" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G73" ca="1">IF(OR(D73="",E73&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E73=3,1,E73)),"$",""))&amp;D73+1,
+        <f t="array" ref="G73">IF(OR(D73="",E73&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E73=3,1,E73)),"$",""))&amp;D73+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E73)&amp;IF(E73=3," "&amp;D73,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H73" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H73" ca="1">IF(OR(D73="",E73&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E73),"$",""))&amp;D73+1,
+        <f t="array" ref="H73">IF(OR(D73="",E73&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E73),"$",""))&amp;D73+1,
 IFERROR(INDEX(TablaDatos[],D73,E73),"")))</f>
         <v/>
       </c>
@@ -10719,28 +10718,28 @@
     </row>
     <row r="74" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C74" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>66</v>
+        <f t="shared" si="28"/>
+        <v>72</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>67</v>
+        <f t="shared" si="29"/>
+        <v>72</v>
       </c>
       <c r="F74" s="1" cm="1">
-        <f t="array" aca="1" ref="F74" ca="1">IF(OR(D74="",G74=""),0,LEFT(G74)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D74,2)),2))</f>
+        <f t="array" ref="F74">IF(OR(D74="",G74=""),0,LEFT(G74)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D74,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G74" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G74" ca="1">IF(OR(D74="",E74&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E74=3,1,E74)),"$",""))&amp;D74+1,
+        <f t="array" ref="G74">IF(OR(D74="",E74&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E74=3,1,E74)),"$",""))&amp;D74+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E74)&amp;IF(E74=3," "&amp;D74,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H74" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H74" ca="1">IF(OR(D74="",E74&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E74),"$",""))&amp;D74+1,
+        <f t="array" ref="H74">IF(OR(D74="",E74&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E74),"$",""))&amp;D74+1,
 IFERROR(INDEX(TablaDatos[],D74,E74),"")))</f>
         <v/>
       </c>
@@ -10851,28 +10850,28 @@
     </row>
     <row r="75" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C75" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>67</v>
+        <f t="shared" si="28"/>
+        <v>73</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E75" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>68</v>
+        <f t="shared" si="29"/>
+        <v>73</v>
       </c>
       <c r="F75" s="1" cm="1">
-        <f t="array" aca="1" ref="F75" ca="1">IF(OR(D75="",G75=""),0,LEFT(G75)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D75,2)),2))</f>
+        <f t="array" ref="F75">IF(OR(D75="",G75=""),0,LEFT(G75)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D75,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G75" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G75" ca="1">IF(OR(D75="",E75&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E75=3,1,E75)),"$",""))&amp;D75+1,
+        <f t="array" ref="G75">IF(OR(D75="",E75&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E75=3,1,E75)),"$",""))&amp;D75+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E75)&amp;IF(E75=3," "&amp;D75,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H75" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H75" ca="1">IF(OR(D75="",E75&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E75),"$",""))&amp;D75+1,
+        <f t="array" ref="H75">IF(OR(D75="",E75&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E75),"$",""))&amp;D75+1,
 IFERROR(INDEX(TablaDatos[],D75,E75),"")))</f>
         <v/>
       </c>
@@ -10983,28 +10982,28 @@
     </row>
     <row r="76" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C76" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>68</v>
+        <f t="shared" si="28"/>
+        <v>74</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E76" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>69</v>
+        <f t="shared" si="29"/>
+        <v>74</v>
       </c>
       <c r="F76" s="1" cm="1">
-        <f t="array" aca="1" ref="F76" ca="1">IF(OR(D76="",G76=""),0,LEFT(G76)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D76,2)),2))</f>
+        <f t="array" ref="F76">IF(OR(D76="",G76=""),0,LEFT(G76)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D76,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G76" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G76" ca="1">IF(OR(D76="",E76&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E76=3,1,E76)),"$",""))&amp;D76+1,
+        <f t="array" ref="G76">IF(OR(D76="",E76&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E76=3,1,E76)),"$",""))&amp;D76+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E76)&amp;IF(E76=3," "&amp;D76,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H76" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H76" ca="1">IF(OR(D76="",E76&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E76),"$",""))&amp;D76+1,
+        <f t="array" ref="H76">IF(OR(D76="",E76&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E76),"$",""))&amp;D76+1,
 IFERROR(INDEX(TablaDatos[],D76,E76),"")))</f>
         <v/>
       </c>
@@ -11115,28 +11114,28 @@
     </row>
     <row r="77" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C77" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>69</v>
+        <f t="shared" si="28"/>
+        <v>75</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E77" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>70</v>
+        <f t="shared" si="29"/>
+        <v>75</v>
       </c>
       <c r="F77" s="1" cm="1">
-        <f t="array" aca="1" ref="F77" ca="1">IF(OR(D77="",G77=""),0,LEFT(G77)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D77,2)),2))</f>
+        <f t="array" ref="F77">IF(OR(D77="",G77=""),0,LEFT(G77)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D77,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G77" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G77" ca="1">IF(OR(D77="",E77&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E77=3,1,E77)),"$",""))&amp;D77+1,
+        <f t="array" ref="G77">IF(OR(D77="",E77&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E77=3,1,E77)),"$",""))&amp;D77+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E77)&amp;IF(E77=3," "&amp;D77,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H77" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H77" ca="1">IF(OR(D77="",E77&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E77),"$",""))&amp;D77+1,
+        <f t="array" ref="H77">IF(OR(D77="",E77&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E77),"$",""))&amp;D77+1,
 IFERROR(INDEX(TablaDatos[],D77,E77),"")))</f>
         <v/>
       </c>
@@ -11247,28 +11246,28 @@
     </row>
     <row r="78" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C78" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>70</v>
+        <f t="shared" si="28"/>
+        <v>76</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E78" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>71</v>
+        <f t="shared" si="29"/>
+        <v>76</v>
       </c>
       <c r="F78" s="1" cm="1">
-        <f t="array" aca="1" ref="F78" ca="1">IF(OR(D78="",G78=""),0,LEFT(G78)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D78,2)),2))</f>
+        <f t="array" ref="F78">IF(OR(D78="",G78=""),0,LEFT(G78)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D78,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G78" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G78" ca="1">IF(OR(D78="",E78&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E78=3,1,E78)),"$",""))&amp;D78+1,
+        <f t="array" ref="G78">IF(OR(D78="",E78&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E78=3,1,E78)),"$",""))&amp;D78+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E78)&amp;IF(E78=3," "&amp;D78,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H78" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H78" ca="1">IF(OR(D78="",E78&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E78),"$",""))&amp;D78+1,
+        <f t="array" ref="H78">IF(OR(D78="",E78&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E78),"$",""))&amp;D78+1,
 IFERROR(INDEX(TablaDatos[],D78,E78),"")))</f>
         <v/>
       </c>
@@ -11379,28 +11378,28 @@
     </row>
     <row r="79" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C79" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>71</v>
+        <f t="shared" si="28"/>
+        <v>77</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E79" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>72</v>
+        <f t="shared" si="29"/>
+        <v>77</v>
       </c>
       <c r="F79" s="1" cm="1">
-        <f t="array" aca="1" ref="F79" ca="1">IF(OR(D79="",G79=""),0,LEFT(G79)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D79,2)),2))</f>
+        <f t="array" ref="F79">IF(OR(D79="",G79=""),0,LEFT(G79)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D79,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G79" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G79" ca="1">IF(OR(D79="",E79&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E79=3,1,E79)),"$",""))&amp;D79+1,
+        <f t="array" ref="G79">IF(OR(D79="",E79&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E79=3,1,E79)),"$",""))&amp;D79+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E79)&amp;IF(E79=3," "&amp;D79,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H79" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H79" ca="1">IF(OR(D79="",E79&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E79),"$",""))&amp;D79+1,
+        <f t="array" ref="H79">IF(OR(D79="",E79&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E79),"$",""))&amp;D79+1,
 IFERROR(INDEX(TablaDatos[],D79,E79),"")))</f>
         <v/>
       </c>
@@ -11511,28 +11510,28 @@
     </row>
     <row r="80" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C80" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>72</v>
+        <f t="shared" si="28"/>
+        <v>78</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E80" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>73</v>
+        <f t="shared" si="29"/>
+        <v>78</v>
       </c>
       <c r="F80" s="1" cm="1">
-        <f t="array" aca="1" ref="F80" ca="1">IF(OR(D80="",G80=""),0,LEFT(G80)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D80,2)),2))</f>
+        <f t="array" ref="F80">IF(OR(D80="",G80=""),0,LEFT(G80)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D80,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G80" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G80" ca="1">IF(OR(D80="",E80&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E80=3,1,E80)),"$",""))&amp;D80+1,
+        <f t="array" ref="G80">IF(OR(D80="",E80&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E80=3,1,E80)),"$",""))&amp;D80+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E80)&amp;IF(E80=3," "&amp;D80,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H80" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H80" ca="1">IF(OR(D80="",E80&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E80),"$",""))&amp;D80+1,
+        <f t="array" ref="H80">IF(OR(D80="",E80&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E80),"$",""))&amp;D80+1,
 IFERROR(INDEX(TablaDatos[],D80,E80),"")))</f>
         <v/>
       </c>
@@ -11643,28 +11642,28 @@
     </row>
     <row r="81" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C81" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>73</v>
+        <f t="shared" si="28"/>
+        <v>79</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E81" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>74</v>
+        <f t="shared" si="29"/>
+        <v>79</v>
       </c>
       <c r="F81" s="1" cm="1">
-        <f t="array" aca="1" ref="F81" ca="1">IF(OR(D81="",G81=""),0,LEFT(G81)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D81,2)),2))</f>
+        <f t="array" ref="F81">IF(OR(D81="",G81=""),0,LEFT(G81)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D81,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G81" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G81" ca="1">IF(OR(D81="",E81&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E81=3,1,E81)),"$",""))&amp;D81+1,
+        <f t="array" ref="G81">IF(OR(D81="",E81&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E81=3,1,E81)),"$",""))&amp;D81+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E81)&amp;IF(E81=3," "&amp;D81,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H81" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H81" ca="1">IF(OR(D81="",E81&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E81),"$",""))&amp;D81+1,
+        <f t="array" ref="H81">IF(OR(D81="",E81&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E81),"$",""))&amp;D81+1,
 IFERROR(INDEX(TablaDatos[],D81,E81),"")))</f>
         <v/>
       </c>
@@ -11775,28 +11774,28 @@
     </row>
     <row r="82" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C82" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>74</v>
+        <f t="shared" si="28"/>
+        <v>80</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E82" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>75</v>
+        <f t="shared" si="29"/>
+        <v>80</v>
       </c>
       <c r="F82" s="1" cm="1">
-        <f t="array" aca="1" ref="F82" ca="1">IF(OR(D82="",G82=""),0,LEFT(G82)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D82,2)),2))</f>
+        <f t="array" ref="F82">IF(OR(D82="",G82=""),0,LEFT(G82)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D82,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G82" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G82" ca="1">IF(OR(D82="",E82&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E82=3,1,E82)),"$",""))&amp;D82+1,
+        <f t="array" ref="G82">IF(OR(D82="",E82&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E82=3,1,E82)),"$",""))&amp;D82+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E82)&amp;IF(E82=3," "&amp;D82,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H82" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H82" ca="1">IF(OR(D82="",E82&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E82),"$",""))&amp;D82+1,
+        <f t="array" ref="H82">IF(OR(D82="",E82&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E82),"$",""))&amp;D82+1,
 IFERROR(INDEX(TablaDatos[],D82,E82),"")))</f>
         <v/>
       </c>
@@ -11907,28 +11906,28 @@
     </row>
     <row r="83" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C83" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>75</v>
+        <f t="shared" si="28"/>
+        <v>81</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E83" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>76</v>
+        <f t="shared" si="29"/>
+        <v>81</v>
       </c>
       <c r="F83" s="1" cm="1">
-        <f t="array" aca="1" ref="F83" ca="1">IF(OR(D83="",G83=""),0,LEFT(G83)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D83,2)),2))</f>
+        <f t="array" ref="F83">IF(OR(D83="",G83=""),0,LEFT(G83)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D83,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G83" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G83" ca="1">IF(OR(D83="",E83&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E83=3,1,E83)),"$",""))&amp;D83+1,
+        <f t="array" ref="G83">IF(OR(D83="",E83&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E83=3,1,E83)),"$",""))&amp;D83+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E83)&amp;IF(E83=3," "&amp;D83,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H83" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H83" ca="1">IF(OR(D83="",E83&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E83),"$",""))&amp;D83+1,
+        <f t="array" ref="H83">IF(OR(D83="",E83&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E83),"$",""))&amp;D83+1,
 IFERROR(INDEX(TablaDatos[],D83,E83),"")))</f>
         <v/>
       </c>
@@ -12039,28 +12038,28 @@
     </row>
     <row r="84" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C84" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>76</v>
+        <f t="shared" si="28"/>
+        <v>82</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E84" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>77</v>
+        <f t="shared" si="29"/>
+        <v>82</v>
       </c>
       <c r="F84" s="1" cm="1">
-        <f t="array" aca="1" ref="F84" ca="1">IF(OR(D84="",G84=""),0,LEFT(G84)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D84,2)),2))</f>
+        <f t="array" ref="F84">IF(OR(D84="",G84=""),0,LEFT(G84)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D84,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G84" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G84" ca="1">IF(OR(D84="",E84&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E84=3,1,E84)),"$",""))&amp;D84+1,
+        <f t="array" ref="G84">IF(OR(D84="",E84&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E84=3,1,E84)),"$",""))&amp;D84+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E84)&amp;IF(E84=3," "&amp;D84,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H84" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H84" ca="1">IF(OR(D84="",E84&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E84),"$",""))&amp;D84+1,
+        <f t="array" ref="H84">IF(OR(D84="",E84&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E84),"$",""))&amp;D84+1,
 IFERROR(INDEX(TablaDatos[],D84,E84),"")))</f>
         <v/>
       </c>
@@ -12171,28 +12170,28 @@
     </row>
     <row r="85" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C85" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>77</v>
+        <f t="shared" si="28"/>
+        <v>83</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E85" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>78</v>
+        <f t="shared" si="29"/>
+        <v>83</v>
       </c>
       <c r="F85" s="1" cm="1">
-        <f t="array" aca="1" ref="F85" ca="1">IF(OR(D85="",G85=""),0,LEFT(G85)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D85,2)),2))</f>
+        <f t="array" ref="F85">IF(OR(D85="",G85=""),0,LEFT(G85)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D85,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G85" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G85" ca="1">IF(OR(D85="",E85&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E85=3,1,E85)),"$",""))&amp;D85+1,
+        <f t="array" ref="G85">IF(OR(D85="",E85&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E85=3,1,E85)),"$",""))&amp;D85+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E85)&amp;IF(E85=3," "&amp;D85,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H85" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H85" ca="1">IF(OR(D85="",E85&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E85),"$",""))&amp;D85+1,
+        <f t="array" ref="H85">IF(OR(D85="",E85&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E85),"$",""))&amp;D85+1,
 IFERROR(INDEX(TablaDatos[],D85,E85),"")))</f>
         <v/>
       </c>
@@ -12303,28 +12302,28 @@
     </row>
     <row r="86" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C86" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>78</v>
+        <f t="shared" si="28"/>
+        <v>84</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E86" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>79</v>
+        <f t="shared" si="29"/>
+        <v>84</v>
       </c>
       <c r="F86" s="1" cm="1">
-        <f t="array" aca="1" ref="F86" ca="1">IF(OR(D86="",G86=""),0,LEFT(G86)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D86,2)),2))</f>
+        <f t="array" ref="F86">IF(OR(D86="",G86=""),0,LEFT(G86)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D86,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G86" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G86" ca="1">IF(OR(D86="",E86&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E86=3,1,E86)),"$",""))&amp;D86+1,
+        <f t="array" ref="G86">IF(OR(D86="",E86&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E86=3,1,E86)),"$",""))&amp;D86+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E86)&amp;IF(E86=3," "&amp;D86,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H86" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H86" ca="1">IF(OR(D86="",E86&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E86),"$",""))&amp;D86+1,
+        <f t="array" ref="H86">IF(OR(D86="",E86&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E86),"$",""))&amp;D86+1,
 IFERROR(INDEX(TablaDatos[],D86,E86),"")))</f>
         <v/>
       </c>
@@ -12435,28 +12434,28 @@
     </row>
     <row r="87" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C87" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>79</v>
+        <f t="shared" si="28"/>
+        <v>85</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E87" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>80</v>
+        <f t="shared" si="29"/>
+        <v>85</v>
       </c>
       <c r="F87" s="1" cm="1">
-        <f t="array" aca="1" ref="F87" ca="1">IF(OR(D87="",G87=""),0,LEFT(G87)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D87,2)),2))</f>
+        <f t="array" ref="F87">IF(OR(D87="",G87=""),0,LEFT(G87)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D87,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G87" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G87" ca="1">IF(OR(D87="",E87&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E87=3,1,E87)),"$",""))&amp;D87+1,
+        <f t="array" ref="G87">IF(OR(D87="",E87&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E87=3,1,E87)),"$",""))&amp;D87+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E87)&amp;IF(E87=3," "&amp;D87,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H87" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H87" ca="1">IF(OR(D87="",E87&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E87),"$",""))&amp;D87+1,
+        <f t="array" ref="H87">IF(OR(D87="",E87&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E87),"$",""))&amp;D87+1,
 IFERROR(INDEX(TablaDatos[],D87,E87),"")))</f>
         <v/>
       </c>
@@ -12567,28 +12566,28 @@
     </row>
     <row r="88" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C88" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>80</v>
+        <f t="shared" si="28"/>
+        <v>86</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E88" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>81</v>
+        <f t="shared" si="29"/>
+        <v>86</v>
       </c>
       <c r="F88" s="1" cm="1">
-        <f t="array" aca="1" ref="F88" ca="1">IF(OR(D88="",G88=""),0,LEFT(G88)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D88,2)),2))</f>
+        <f t="array" ref="F88">IF(OR(D88="",G88=""),0,LEFT(G88)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D88,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G88" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G88" ca="1">IF(OR(D88="",E88&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E88=3,1,E88)),"$",""))&amp;D88+1,
+        <f t="array" ref="G88">IF(OR(D88="",E88&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E88=3,1,E88)),"$",""))&amp;D88+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E88)&amp;IF(E88=3," "&amp;D88,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H88" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H88" ca="1">IF(OR(D88="",E88&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E88),"$",""))&amp;D88+1,
+        <f t="array" ref="H88">IF(OR(D88="",E88&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E88),"$",""))&amp;D88+1,
 IFERROR(INDEX(TablaDatos[],D88,E88),"")))</f>
         <v/>
       </c>
@@ -12699,28 +12698,28 @@
     </row>
     <row r="89" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C89" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>81</v>
+        <f t="shared" si="28"/>
+        <v>87</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E89" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>82</v>
+        <f t="shared" si="29"/>
+        <v>87</v>
       </c>
       <c r="F89" s="1" cm="1">
-        <f t="array" aca="1" ref="F89" ca="1">IF(OR(D89="",G89=""),0,LEFT(G89)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D89,2)),2))</f>
+        <f t="array" ref="F89">IF(OR(D89="",G89=""),0,LEFT(G89)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D89,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G89" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G89" ca="1">IF(OR(D89="",E89&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E89=3,1,E89)),"$",""))&amp;D89+1,
+        <f t="array" ref="G89">IF(OR(D89="",E89&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E89=3,1,E89)),"$",""))&amp;D89+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E89)&amp;IF(E89=3," "&amp;D89,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H89" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H89" ca="1">IF(OR(D89="",E89&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E89),"$",""))&amp;D89+1,
+        <f t="array" ref="H89">IF(OR(D89="",E89&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E89),"$",""))&amp;D89+1,
 IFERROR(INDEX(TablaDatos[],D89,E89),"")))</f>
         <v/>
       </c>
@@ -12831,28 +12830,28 @@
     </row>
     <row r="90" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C90" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>82</v>
+        <f t="shared" si="28"/>
+        <v>88</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E90" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>83</v>
+        <f t="shared" si="29"/>
+        <v>88</v>
       </c>
       <c r="F90" s="1" cm="1">
-        <f t="array" aca="1" ref="F90" ca="1">IF(OR(D90="",G90=""),0,LEFT(G90)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D90,2)),2))</f>
+        <f t="array" ref="F90">IF(OR(D90="",G90=""),0,LEFT(G90)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D90,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G90" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G90" ca="1">IF(OR(D90="",E90&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E90=3,1,E90)),"$",""))&amp;D90+1,
+        <f t="array" ref="G90">IF(OR(D90="",E90&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E90=3,1,E90)),"$",""))&amp;D90+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E90)&amp;IF(E90=3," "&amp;D90,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H90" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H90" ca="1">IF(OR(D90="",E90&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E90),"$",""))&amp;D90+1,
+        <f t="array" ref="H90">IF(OR(D90="",E90&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E90),"$",""))&amp;D90+1,
 IFERROR(INDEX(TablaDatos[],D90,E90),"")))</f>
         <v/>
       </c>
@@ -12963,28 +12962,28 @@
     </row>
     <row r="91" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C91" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>83</v>
+        <f t="shared" si="28"/>
+        <v>89</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E91" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>84</v>
+        <f t="shared" si="29"/>
+        <v>89</v>
       </c>
       <c r="F91" s="1" cm="1">
-        <f t="array" aca="1" ref="F91" ca="1">IF(OR(D91="",G91=""),0,LEFT(G91)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D91,2)),2))</f>
+        <f t="array" ref="F91">IF(OR(D91="",G91=""),0,LEFT(G91)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D91,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G91" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G91" ca="1">IF(OR(D91="",E91&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E91=3,1,E91)),"$",""))&amp;D91+1,
+        <f t="array" ref="G91">IF(OR(D91="",E91&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E91=3,1,E91)),"$",""))&amp;D91+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E91)&amp;IF(E91=3," "&amp;D91,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H91" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H91" ca="1">IF(OR(D91="",E91&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E91),"$",""))&amp;D91+1,
+        <f t="array" ref="H91">IF(OR(D91="",E91&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E91),"$",""))&amp;D91+1,
 IFERROR(INDEX(TablaDatos[],D91,E91),"")))</f>
         <v/>
       </c>
@@ -13095,28 +13094,28 @@
     </row>
     <row r="92" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C92" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>84</v>
+        <f t="shared" si="28"/>
+        <v>90</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E92" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>85</v>
+        <f t="shared" si="29"/>
+        <v>90</v>
       </c>
       <c r="F92" s="1" cm="1">
-        <f t="array" aca="1" ref="F92" ca="1">IF(OR(D92="",G92=""),0,LEFT(G92)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D92,2)),2))</f>
+        <f t="array" ref="F92">IF(OR(D92="",G92=""),0,LEFT(G92)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D92,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G92" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G92" ca="1">IF(OR(D92="",E92&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E92=3,1,E92)),"$",""))&amp;D92+1,
+        <f t="array" ref="G92">IF(OR(D92="",E92&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E92=3,1,E92)),"$",""))&amp;D92+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E92)&amp;IF(E92=3," "&amp;D92,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H92" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H92" ca="1">IF(OR(D92="",E92&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E92),"$",""))&amp;D92+1,
+        <f t="array" ref="H92">IF(OR(D92="",E92&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E92),"$",""))&amp;D92+1,
 IFERROR(INDEX(TablaDatos[],D92,E92),"")))</f>
         <v/>
       </c>
@@ -13227,28 +13226,28 @@
     </row>
     <row r="93" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C93" s="1">
-        <f t="shared" ref="C93:C99" ca="1" si="43">C92--(G92="")</f>
-        <v>85</v>
+        <f t="shared" ref="C93:C99" si="43">C92--(G92="")</f>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E93" s="1">
-        <f t="shared" ref="E93:E99" ca="1" si="44">IF(D93&lt;&gt;D92,3,E92+1)</f>
-        <v>86</v>
+        <f t="shared" ref="E93:E99" si="44">IF(D93&lt;&gt;D92,3,E92+1)</f>
+        <v>91</v>
       </c>
       <c r="F93" s="1" cm="1">
-        <f t="array" aca="1" ref="F93" ca="1">IF(OR(D93="",G93=""),0,LEFT(G93)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D93,2)),2))</f>
+        <f t="array" ref="F93">IF(OR(D93="",G93=""),0,LEFT(G93)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D93,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G93" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G93" ca="1">IF(OR(D93="",E93&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E93=3,1,E93)),"$",""))&amp;D93+1,
+        <f t="array" ref="G93">IF(OR(D93="",E93&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E93=3,1,E93)),"$",""))&amp;D93+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E93)&amp;IF(E93=3," "&amp;D93,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H93" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H93" ca="1">IF(OR(D93="",E93&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E93),"$",""))&amp;D93+1,
+        <f t="array" ref="H93">IF(OR(D93="",E93&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E93),"$",""))&amp;D93+1,
 IFERROR(INDEX(TablaDatos[],D93,E93),"")))</f>
         <v/>
       </c>
@@ -13359,28 +13358,28 @@
     </row>
     <row r="94" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C94" s="1">
-        <f t="shared" ca="1" si="43"/>
-        <v>86</v>
+        <f t="shared" si="43"/>
+        <v>92</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E94" s="1">
-        <f t="shared" ca="1" si="44"/>
-        <v>87</v>
+        <f t="shared" si="44"/>
+        <v>92</v>
       </c>
       <c r="F94" s="1" cm="1">
-        <f t="array" aca="1" ref="F94" ca="1">IF(OR(D94="",G94=""),0,LEFT(G94)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D94,2)),2))</f>
+        <f t="array" ref="F94">IF(OR(D94="",G94=""),0,LEFT(G94)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D94,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G94" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G94" ca="1">IF(OR(D94="",E94&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E94=3,1,E94)),"$",""))&amp;D94+1,
+        <f t="array" ref="G94">IF(OR(D94="",E94&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E94=3,1,E94)),"$",""))&amp;D94+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E94)&amp;IF(E94=3," "&amp;D94,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H94" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H94" ca="1">IF(OR(D94="",E94&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E94),"$",""))&amp;D94+1,
+        <f t="array" ref="H94">IF(OR(D94="",E94&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E94),"$",""))&amp;D94+1,
 IFERROR(INDEX(TablaDatos[],D94,E94),"")))</f>
         <v/>
       </c>
@@ -13491,28 +13490,28 @@
     </row>
     <row r="95" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C95" s="1">
-        <f t="shared" ca="1" si="43"/>
-        <v>87</v>
+        <f t="shared" si="43"/>
+        <v>93</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E95" s="1">
-        <f t="shared" ca="1" si="44"/>
-        <v>88</v>
+        <f t="shared" si="44"/>
+        <v>93</v>
       </c>
       <c r="F95" s="1" cm="1">
-        <f t="array" aca="1" ref="F95" ca="1">IF(OR(D95="",G95=""),0,LEFT(G95)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D95,2)),2))</f>
+        <f t="array" ref="F95">IF(OR(D95="",G95=""),0,LEFT(G95)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D95,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G95" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G95" ca="1">IF(OR(D95="",E95&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E95=3,1,E95)),"$",""))&amp;D95+1,
+        <f t="array" ref="G95">IF(OR(D95="",E95&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E95=3,1,E95)),"$",""))&amp;D95+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E95)&amp;IF(E95=3," "&amp;D95,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H95" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H95" ca="1">IF(OR(D95="",E95&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E95),"$",""))&amp;D95+1,
+        <f t="array" ref="H95">IF(OR(D95="",E95&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E95),"$",""))&amp;D95+1,
 IFERROR(INDEX(TablaDatos[],D95,E95),"")))</f>
         <v/>
       </c>
@@ -13623,28 +13622,28 @@
     </row>
     <row r="96" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C96" s="1">
-        <f t="shared" ca="1" si="43"/>
-        <v>88</v>
+        <f t="shared" si="43"/>
+        <v>94</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E96" s="1">
-        <f t="shared" ca="1" si="44"/>
-        <v>89</v>
+        <f t="shared" si="44"/>
+        <v>94</v>
       </c>
       <c r="F96" s="1" cm="1">
-        <f t="array" aca="1" ref="F96" ca="1">IF(OR(D96="",G96=""),0,LEFT(G96)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D96,2)),2))</f>
+        <f t="array" ref="F96">IF(OR(D96="",G96=""),0,LEFT(G96)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D96,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G96" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G96" ca="1">IF(OR(D96="",E96&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E96=3,1,E96)),"$",""))&amp;D96+1,
+        <f t="array" ref="G96">IF(OR(D96="",E96&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E96=3,1,E96)),"$",""))&amp;D96+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E96)&amp;IF(E96=3," "&amp;D96,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H96" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H96" ca="1">IF(OR(D96="",E96&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E96),"$",""))&amp;D96+1,
+        <f t="array" ref="H96">IF(OR(D96="",E96&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E96),"$",""))&amp;D96+1,
 IFERROR(INDEX(TablaDatos[],D96,E96),"")))</f>
         <v/>
       </c>
@@ -13755,28 +13754,28 @@
     </row>
     <row r="97" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C97" s="1">
-        <f t="shared" ca="1" si="43"/>
-        <v>89</v>
+        <f t="shared" si="43"/>
+        <v>95</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E97" s="1">
-        <f t="shared" ca="1" si="44"/>
-        <v>90</v>
+        <f t="shared" si="44"/>
+        <v>95</v>
       </c>
       <c r="F97" s="1" cm="1">
-        <f t="array" aca="1" ref="F97" ca="1">IF(OR(D97="",G97=""),0,LEFT(G97)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D97,2)),2))</f>
+        <f t="array" ref="F97">IF(OR(D97="",G97=""),0,LEFT(G97)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D97,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G97" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G97" ca="1">IF(OR(D97="",E97&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E97=3,1,E97)),"$",""))&amp;D97+1,
+        <f t="array" ref="G97">IF(OR(D97="",E97&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E97=3,1,E97)),"$",""))&amp;D97+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E97)&amp;IF(E97=3," "&amp;D97,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H97" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H97" ca="1">IF(OR(D97="",E97&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E97),"$",""))&amp;D97+1,
+        <f t="array" ref="H97">IF(OR(D97="",E97&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E97),"$",""))&amp;D97+1,
 IFERROR(INDEX(TablaDatos[],D97,E97),"")))</f>
         <v/>
       </c>
@@ -13887,28 +13886,28 @@
     </row>
     <row r="98" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C98" s="1">
-        <f t="shared" ca="1" si="43"/>
-        <v>90</v>
+        <f t="shared" si="43"/>
+        <v>96</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E98" s="1">
-        <f t="shared" ca="1" si="44"/>
-        <v>91</v>
+        <f t="shared" si="44"/>
+        <v>96</v>
       </c>
       <c r="F98" s="1" cm="1">
-        <f t="array" aca="1" ref="F98" ca="1">IF(OR(D98="",G98=""),0,LEFT(G98)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D98,2)),2))</f>
+        <f t="array" ref="F98">IF(OR(D98="",G98=""),0,LEFT(G98)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D98,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G98" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G98" ca="1">IF(OR(D98="",E98&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E98=3,1,E98)),"$",""))&amp;D98+1,
+        <f t="array" ref="G98">IF(OR(D98="",E98&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E98=3,1,E98)),"$",""))&amp;D98+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E98)&amp;IF(E98=3," "&amp;D98,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H98" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H98" ca="1">IF(OR(D98="",E98&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E98),"$",""))&amp;D98+1,
+        <f t="array" ref="H98">IF(OR(D98="",E98&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E98),"$",""))&amp;D98+1,
 IFERROR(INDEX(TablaDatos[],D98,E98),"")))</f>
         <v/>
       </c>
@@ -14019,28 +14018,28 @@
     </row>
     <row r="99" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C99" s="1">
-        <f t="shared" ca="1" si="43"/>
-        <v>91</v>
+        <f t="shared" si="43"/>
+        <v>97</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E99" s="1">
-        <f t="shared" ca="1" si="44"/>
-        <v>92</v>
+        <f t="shared" si="44"/>
+        <v>97</v>
       </c>
       <c r="F99" s="1" cm="1">
-        <f t="array" aca="1" ref="F99" ca="1">IF(OR(D99="",G99=""),0,LEFT(G99)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D99,2)),2))</f>
+        <f t="array" ref="F99">IF(OR(D99="",G99=""),0,LEFT(G99)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D99,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G99" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="G99" ca="1">IF(OR(D99="",E99&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E99=3,1,E99)),"$",""))&amp;D99+1,
+        <f t="array" ref="G99">IF(OR(D99="",E99&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E99=3,1,E99)),"$",""))&amp;D99+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E99)&amp;IF(E99=3," "&amp;D99,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H99" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="H99" ca="1">IF(OR(D99="",E99&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E99),"$",""))&amp;D99+1,
+        <f t="array" ref="H99">IF(OR(D99="",E99&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E99),"$",""))&amp;D99+1,
 IFERROR(INDEX(TablaDatos[],D99,E99),"")))</f>
         <v/>
       </c>
@@ -14205,29 +14204,29 @@
     </row>
     <row r="102" spans="2:41" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="str" cm="1">
-        <f t="array" ref="C102:C152">IF(TablaDatos[Estado]=G$1,ROW(TablaDatos[Estado])-1,"")</f>
+        <f t="array" ref="C102:C151">IF(TablaDatos[Estado]=G$1,ROW(TablaDatos[Estado])-1,"")</f>
         <v/>
       </c>
       <c r="K102" s="1" cm="1">
-        <f t="array" ref="K102:K152">IF(TablaDatos[Estado]=O$1,ROW(TablaDatos[Estado])-1,"")</f>
+        <f t="array" ref="K102:K151">IF(TablaDatos[Estado]=O$1,ROW(TablaDatos[Estado])-1,"")</f>
         <v>1</v>
       </c>
       <c r="S102" s="1" t="str" cm="1">
-        <f t="array" ref="S102:S152">IF(TablaDatos[Estado]=W$1,ROW(TablaDatos[Estado])-1,"")</f>
+        <f t="array" ref="S102:S151">IF(TablaDatos[Estado]=W$1,ROW(TablaDatos[Estado])-1,"")</f>
         <v/>
       </c>
       <c r="AA102" s="1" t="str" cm="1">
-        <f t="array" ref="AA102:AA152">IF(TablaDatos[Estado]=AE$1,ROW(TablaDatos[Estado])-1,"")</f>
+        <f t="array" ref="AA102:AA151">IF(TablaDatos[Estado]=AE$1,ROW(TablaDatos[Estado])-1,"")</f>
         <v/>
       </c>
       <c r="AI102" s="1" t="str" cm="1">
-        <f t="array" ref="AI102:AI152">IF(TablaDatos[Estado]=AM$1,ROW(TablaDatos[Estado])-1,"")</f>
+        <f t="array" ref="AI102:AI151">IF(TablaDatos[Estado]=AM$1,ROW(TablaDatos[Estado])-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="2:41" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="1">
-        <v>2</v>
+      <c r="C103" s="1" t="str">
+        <v/>
       </c>
       <c r="K103" s="1" t="str">
         <v/>
@@ -15055,23 +15054,6 @@
         <v/>
       </c>
       <c r="AI151" s="1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="3:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="1" t="str">
-        <v/>
-      </c>
-      <c r="K152" s="1" t="str">
-        <v/>
-      </c>
-      <c r="S152" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AA152" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AI152" s="1" t="str">
         <v/>
       </c>
     </row>
@@ -15117,9 +15099,9 @@
   </sheetPr>
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -15200,25 +15182,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F2" s="7">
-        <v>45100</v>
-      </c>
-      <c r="G2" s="7">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I2" s="34" t="str" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">HYPERLINK("["&amp;Archivo_Nombre&amp;"]KANBAN!"&amp;INDEX(Datos!$Q$2:$Q$100,ROW()-1),IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1))</f>
@@ -15229,7 +15208,7 @@
         <v>Tarea 1</v>
       </c>
       <c r="K2" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J2&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J2&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L2" s="26" t="str">
@@ -15260,22 +15239,22 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="E3" s="7">
         <v>45099</v>
       </c>
       <c r="F3" s="7">
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="G3" s="7">
         <v>45101</v>
@@ -15292,8 +15271,8 @@
         <v>Tarea 2</v>
       </c>
       <c r="K3" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J3&amp;":",KANBAN!G:G,0),"")</f>
-        <v>G-3</v>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J3&amp;":",KANBAN!G:G,0),"")</f>
+        <v/>
       </c>
       <c r="L3" s="29" t="str">
         <f ca="1">IFERROR("O-"&amp;MATCH(Datos!$J3&amp;":",KANBAN!O:O,0),"")</f>
@@ -15313,25 +15292,46 @@
       </c>
       <c r="P3" s="29" t="str">
         <f ca="1">Datos!$K3&amp;Datos!$L3&amp;Datos!$M3&amp;Datos!$N3&amp;Datos!$O3</f>
-        <v>G-3</v>
+        <v/>
       </c>
       <c r="Q3" s="30" t="str">
         <f ca="1">IFERROR(LEFT(Datos!$P3,FIND("-",Datos!$P3)-1) &amp; SUBSTITUTE(Datos!$P3,LEFT(Datos!$P3,FIND("-",Datos!$P3)-1) &amp;"-","") &amp; ":" &amp;
 LEFT(Datos!$P3,FIND("-",Datos!$P3)-1) &amp; SUBSTITUTE(Datos!$P3,LEFT(Datos!$P3,FIND("-",Datos!$P3)-1) &amp;"-","")+5,"")</f>
-        <v>G3:G8</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45099</v>
+      </c>
+      <c r="F4" s="7">
+        <v>45104</v>
+      </c>
+      <c r="G4" s="7">
+        <v>45101</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="I4" s="34" t="str" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">HYPERLINK("["&amp;Archivo_Nombre&amp;"]KANBAN!"&amp;INDEX(Datos!$Q$2:$Q$100,ROW()-1),IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1))</f>
-        <v/>
+        <v>Tarea 3</v>
       </c>
       <c r="J4" s="25" t="str">
         <f>IFERROR(IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1),"")</f>
-        <v/>
+        <v>Tarea 3</v>
       </c>
       <c r="K4" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J4&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J4&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L4" s="26" t="str">
@@ -15370,7 +15370,7 @@
         <v/>
       </c>
       <c r="K5" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J5&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J5&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L5" s="29" t="str">
@@ -15409,7 +15409,7 @@
         <v/>
       </c>
       <c r="K6" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J6&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J6&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L6" s="26" t="str">
@@ -15448,7 +15448,7 @@
         <v/>
       </c>
       <c r="K7" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J7&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J7&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L7" s="29" t="str">
@@ -15487,7 +15487,7 @@
         <v/>
       </c>
       <c r="K8" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J8&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J8&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L8" s="26" t="str">
@@ -15526,7 +15526,7 @@
         <v/>
       </c>
       <c r="K9" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J9&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J9&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L9" s="29" t="str">
@@ -15565,7 +15565,7 @@
         <v/>
       </c>
       <c r="K10" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J10&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J10&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L10" s="26" t="str">
@@ -15612,7 +15612,7 @@
         <v/>
       </c>
       <c r="K11" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J11&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J11&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L11" s="29" t="str">
@@ -15659,7 +15659,7 @@
         <v/>
       </c>
       <c r="K12" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J12&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J12&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L12" s="26" t="str">
@@ -15706,7 +15706,7 @@
         <v/>
       </c>
       <c r="K13" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J13&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J13&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L13" s="29" t="str">
@@ -15753,7 +15753,7 @@
         <v/>
       </c>
       <c r="K14" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J14&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J14&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L14" s="26" t="str">
@@ -15800,7 +15800,7 @@
         <v/>
       </c>
       <c r="K15" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J15&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J15&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L15" s="26" t="str">
@@ -15847,7 +15847,7 @@
         <v/>
       </c>
       <c r="K16" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J16&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J16&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L16" s="29" t="str">
@@ -15894,7 +15894,7 @@
         <v/>
       </c>
       <c r="K17" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J17&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J17&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L17" s="26" t="str">
@@ -15941,7 +15941,7 @@
         <v/>
       </c>
       <c r="K18" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J18&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J18&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L18" s="29" t="str">
@@ -15988,7 +15988,7 @@
         <v/>
       </c>
       <c r="K19" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J19&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J19&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L19" s="26" t="str">
@@ -16035,7 +16035,7 @@
         <v/>
       </c>
       <c r="K20" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J20&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J20&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L20" s="29" t="str">
@@ -16082,7 +16082,7 @@
         <v/>
       </c>
       <c r="K21" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J21&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J21&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L21" s="26" t="str">
@@ -16129,7 +16129,7 @@
         <v/>
       </c>
       <c r="K22" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J22&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J22&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L22" s="29" t="str">
@@ -16176,7 +16176,7 @@
         <v/>
       </c>
       <c r="K23" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J23&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J23&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L23" s="26" t="str">
@@ -16223,7 +16223,7 @@
         <v/>
       </c>
       <c r="K24" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J24&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J24&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L24" s="29" t="str">
@@ -16270,7 +16270,7 @@
         <v/>
       </c>
       <c r="K25" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J25&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J25&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L25" s="26" t="str">
@@ -16317,7 +16317,7 @@
         <v/>
       </c>
       <c r="K26" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J26&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J26&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L26" s="29" t="str">
@@ -16364,7 +16364,7 @@
         <v/>
       </c>
       <c r="K27" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J27&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J27&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L27" s="26" t="str">
@@ -16411,7 +16411,7 @@
         <v/>
       </c>
       <c r="K28" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J28&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J28&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L28" s="29" t="str">
@@ -16458,7 +16458,7 @@
         <v/>
       </c>
       <c r="K29" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J29&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J29&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L29" s="26" t="str">
@@ -16505,7 +16505,7 @@
         <v/>
       </c>
       <c r="K30" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J30&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J30&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L30" s="29" t="str">
@@ -16552,7 +16552,7 @@
         <v/>
       </c>
       <c r="K31" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J31&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J31&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L31" s="26" t="str">
@@ -16599,7 +16599,7 @@
         <v/>
       </c>
       <c r="K32" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J32&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J32&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L32" s="29" t="str">
@@ -16646,7 +16646,7 @@
         <v/>
       </c>
       <c r="K33" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J33&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J33&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L33" s="26" t="str">
@@ -16693,7 +16693,7 @@
         <v/>
       </c>
       <c r="K34" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J34&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J34&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L34" s="29" t="str">
@@ -16740,7 +16740,7 @@
         <v/>
       </c>
       <c r="K35" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J35&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J35&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L35" s="26" t="str">
@@ -16787,7 +16787,7 @@
         <v/>
       </c>
       <c r="K36" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J36&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J36&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L36" s="29" t="str">
@@ -16834,7 +16834,7 @@
         <v/>
       </c>
       <c r="K37" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J37&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J37&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L37" s="26" t="str">
@@ -16881,7 +16881,7 @@
         <v/>
       </c>
       <c r="K38" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J38&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J38&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L38" s="29" t="str">
@@ -16928,7 +16928,7 @@
         <v/>
       </c>
       <c r="K39" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J39&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J39&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L39" s="26" t="str">
@@ -16975,7 +16975,7 @@
         <v/>
       </c>
       <c r="K40" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J40&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J40&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L40" s="29" t="str">
@@ -17022,7 +17022,7 @@
         <v/>
       </c>
       <c r="K41" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J41&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J41&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L41" s="26" t="str">
@@ -17069,7 +17069,7 @@
         <v/>
       </c>
       <c r="K42" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J42&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J42&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L42" s="29" t="str">
@@ -17116,7 +17116,7 @@
         <v/>
       </c>
       <c r="K43" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J43&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J43&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L43" s="26" t="str">
@@ -17163,7 +17163,7 @@
         <v/>
       </c>
       <c r="K44" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J44&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J44&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L44" s="29" t="str">
@@ -17210,7 +17210,7 @@
         <v/>
       </c>
       <c r="K45" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J45&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J45&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L45" s="26" t="str">
@@ -17257,7 +17257,7 @@
         <v/>
       </c>
       <c r="K46" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J46&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J46&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L46" s="29" t="str">
@@ -17304,7 +17304,7 @@
         <v/>
       </c>
       <c r="K47" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J47&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J47&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L47" s="26" t="str">
@@ -17351,7 +17351,7 @@
         <v/>
       </c>
       <c r="K48" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J48&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J48&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L48" s="29" t="str">
@@ -17398,7 +17398,7 @@
         <v/>
       </c>
       <c r="K49" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J49&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J49&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L49" s="26" t="str">
@@ -17445,7 +17445,7 @@
         <v/>
       </c>
       <c r="K50" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J50&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J50&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L50" s="29" t="str">
@@ -17492,7 +17492,7 @@
         <v/>
       </c>
       <c r="K51" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J51&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J51&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L51" s="26" t="str">
@@ -17530,16 +17530,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="34" t="str" cm="1">
-        <f t="array" aca="1" ref="I52" ca="1">HYPERLINK("["&amp;Archivo_Nombre&amp;"]KANBAN!"&amp;INDEX(Datos!$Q$2:$Q$100,ROW()-1),IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1))</f>
-        <v/>
-      </c>
+      <c r="I52" s="6"/>
       <c r="J52" s="28" t="str">
         <f>IFERROR(IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1),"")</f>
         <v/>
       </c>
       <c r="K52" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J52&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J52&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L52" s="29" t="str">
@@ -17583,7 +17580,7 @@
         <v/>
       </c>
       <c r="K53" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J53&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J53&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L53" s="26" t="str">
@@ -17627,7 +17624,7 @@
         <v/>
       </c>
       <c r="K54" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J54&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J54&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L54" s="29" t="str">
@@ -17671,7 +17668,7 @@
         <v/>
       </c>
       <c r="K55" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J55&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J55&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L55" s="26" t="str">
@@ -17715,7 +17712,7 @@
         <v/>
       </c>
       <c r="K56" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J56&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J56&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L56" s="29" t="str">
@@ -17759,7 +17756,7 @@
         <v/>
       </c>
       <c r="K57" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J57&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J57&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L57" s="26" t="str">
@@ -17803,7 +17800,7 @@
         <v/>
       </c>
       <c r="K58" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J58&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J58&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L58" s="29" t="str">
@@ -17847,7 +17844,7 @@
         <v/>
       </c>
       <c r="K59" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J59&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J59&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L59" s="26" t="str">
@@ -17891,7 +17888,7 @@
         <v/>
       </c>
       <c r="K60" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J60&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J60&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L60" s="29" t="str">
@@ -17935,7 +17932,7 @@
         <v/>
       </c>
       <c r="K61" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J61&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J61&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L61" s="26" t="str">
@@ -17979,7 +17976,7 @@
         <v/>
       </c>
       <c r="K62" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J62&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J62&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L62" s="29" t="str">
@@ -18023,7 +18020,7 @@
         <v/>
       </c>
       <c r="K63" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J63&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J63&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L63" s="26" t="str">
@@ -18067,7 +18064,7 @@
         <v/>
       </c>
       <c r="K64" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J64&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J64&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L64" s="29" t="str">
@@ -18111,7 +18108,7 @@
         <v/>
       </c>
       <c r="K65" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J65&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J65&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L65" s="26" t="str">
@@ -18155,7 +18152,7 @@
         <v/>
       </c>
       <c r="K66" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J66&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J66&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L66" s="29" t="str">
@@ -18199,7 +18196,7 @@
         <v/>
       </c>
       <c r="K67" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J67&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J67&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L67" s="26" t="str">
@@ -18243,7 +18240,7 @@
         <v/>
       </c>
       <c r="K68" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J68&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J68&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L68" s="29" t="str">
@@ -18287,7 +18284,7 @@
         <v/>
       </c>
       <c r="K69" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J69&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J69&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L69" s="26" t="str">
@@ -18331,7 +18328,7 @@
         <v/>
       </c>
       <c r="K70" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J70&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J70&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L70" s="29" t="str">
@@ -18375,7 +18372,7 @@
         <v/>
       </c>
       <c r="K71" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J71&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J71&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L71" s="26" t="str">
@@ -18419,7 +18416,7 @@
         <v/>
       </c>
       <c r="K72" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J72&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J72&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L72" s="29" t="str">
@@ -18463,7 +18460,7 @@
         <v/>
       </c>
       <c r="K73" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J73&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J73&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L73" s="26" t="str">
@@ -18507,7 +18504,7 @@
         <v/>
       </c>
       <c r="K74" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J74&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J74&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L74" s="29" t="str">
@@ -18551,7 +18548,7 @@
         <v/>
       </c>
       <c r="K75" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J75&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J75&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L75" s="26" t="str">
@@ -18595,7 +18592,7 @@
         <v/>
       </c>
       <c r="K76" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J76&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J76&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L76" s="29" t="str">
@@ -18639,7 +18636,7 @@
         <v/>
       </c>
       <c r="K77" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J77&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J77&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L77" s="26" t="str">
@@ -18683,7 +18680,7 @@
         <v/>
       </c>
       <c r="K78" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J78&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J78&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L78" s="29" t="str">
@@ -18727,7 +18724,7 @@
         <v/>
       </c>
       <c r="K79" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J79&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J79&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L79" s="26" t="str">
@@ -18771,7 +18768,7 @@
         <v/>
       </c>
       <c r="K80" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J80&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J80&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L80" s="29" t="str">
@@ -18815,7 +18812,7 @@
         <v/>
       </c>
       <c r="K81" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J81&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J81&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L81" s="26" t="str">
@@ -18859,7 +18856,7 @@
         <v/>
       </c>
       <c r="K82" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J82&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J82&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L82" s="29" t="str">
@@ -18903,7 +18900,7 @@
         <v/>
       </c>
       <c r="K83" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J83&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J83&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L83" s="26" t="str">
@@ -18947,7 +18944,7 @@
         <v/>
       </c>
       <c r="K84" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J84&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J84&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L84" s="29" t="str">
@@ -18991,7 +18988,7 @@
         <v/>
       </c>
       <c r="K85" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J85&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J85&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L85" s="26" t="str">
@@ -19035,7 +19032,7 @@
         <v/>
       </c>
       <c r="K86" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J86&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J86&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L86" s="29" t="str">
@@ -19079,7 +19076,7 @@
         <v/>
       </c>
       <c r="K87" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J87&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J87&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L87" s="26" t="str">
@@ -19123,7 +19120,7 @@
         <v/>
       </c>
       <c r="K88" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J88&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J88&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L88" s="29" t="str">
@@ -19167,7 +19164,7 @@
         <v/>
       </c>
       <c r="K89" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J89&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J89&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L89" s="26" t="str">
@@ -19211,7 +19208,7 @@
         <v/>
       </c>
       <c r="K90" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J90&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J90&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L90" s="29" t="str">
@@ -19255,7 +19252,7 @@
         <v/>
       </c>
       <c r="K91" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J91&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J91&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L91" s="26" t="str">
@@ -19299,7 +19296,7 @@
         <v/>
       </c>
       <c r="K92" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J92&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J92&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L92" s="29" t="str">
@@ -19343,7 +19340,7 @@
         <v/>
       </c>
       <c r="K93" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J93&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J93&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L93" s="26" t="str">
@@ -19387,7 +19384,7 @@
         <v/>
       </c>
       <c r="K94" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J94&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J94&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L94" s="29" t="str">
@@ -19431,7 +19428,7 @@
         <v/>
       </c>
       <c r="K95" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J95&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J95&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L95" s="26" t="str">
@@ -19475,7 +19472,7 @@
         <v/>
       </c>
       <c r="K96" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J96&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J96&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L96" s="29" t="str">
@@ -19519,7 +19516,7 @@
         <v/>
       </c>
       <c r="K97" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J97&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J97&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L97" s="26" t="str">
@@ -19563,7 +19560,7 @@
         <v/>
       </c>
       <c r="K98" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J98&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J98&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L98" s="29" t="str">
@@ -19607,7 +19604,7 @@
         <v/>
       </c>
       <c r="K99" s="26" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J99&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J99&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L99" s="26" t="str">
@@ -19651,7 +19648,7 @@
         <v/>
       </c>
       <c r="K100" s="29" t="str">
-        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J100&amp;":",KANBAN!G:G,0),"")</f>
+        <f>IFERROR("G-"&amp;MATCH(Datos!$J100&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L100" s="29" t="str">
@@ -19685,13 +19682,13 @@
   <sheetProtection autoFilter="0"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A52" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A51" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>ListaEstados</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B52" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>ListaCriticidad</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H52" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H51" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>ListaUsuarios</formula1>
     </dataValidation>
   </dataValidations>
@@ -19712,7 +19709,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -19803,7 +19800,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -19825,11 +19822,14 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -19846,7 +19846,7 @@
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="33"/>

--- a/documentacion/tablero_kanban_web_asm.xlsx
+++ b/documentacion/tablero_kanban_web_asm.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FPA\OneDrive - NexTReT\proyectos Nube\tfm_ism\06-web\tfm-ism\documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nextretoffice365-my.sharepoint.com/personal/fpa_nextret_net/Documents/proyectos Nube/tfm_ism/06-web/tfm-ism/documentacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9AC0F9-672B-4340-A5DD-12D659DA4C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{FE9AC0F9-672B-4340-A5DD-12D659DA4C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4EEC8E4-6944-492F-8952-525D61402742}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-2205" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KANBAN" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>POR HACER</t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>Jupyterlab</t>
+  </si>
+  <si>
+    <t>Sincronizar con usuarios</t>
+  </si>
+  <si>
+    <t>Roles, permisos, grupo</t>
+  </si>
+  <si>
+    <t>Mock listado tours con Elastic</t>
+  </si>
+  <si>
+    <t>Comprobar que podemos leer de Elastic</t>
+  </si>
+  <si>
+    <t>31/06/2023</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1257,8 @@
   <dimension ref="A1:AP151"/>
   <sheetViews>
     <sheetView showGridLines="0" showOutlineSymbols="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1353,27 +1368,27 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="1">
         <f>IF(C3&gt;C2,IFERROR(SMALL(C$102:C$201,C3),""),D2)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
         <f>IF(D3&lt;&gt;D2,3,E2+1)</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" cm="1">
-        <f t="array" ref="F3">IF(OR(D3="",G3=""),0,LEFT(G3)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D3,2)),2))</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">IF(OR(D3="",G3=""),0,LEFT(G3)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D3,2)),2))</f>
+        <v>TI</v>
       </c>
       <c r="G3" s="5" t="str" cm="1">
-        <f t="array" ref="G3">IF(OR(D3="",E3&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E3=3,1,E3)),"$",""))&amp;D3+1,
+        <f t="array" aca="1" ref="G3" ca="1">IF(OR(D3="",E3&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E3=3,1,E3)),"$",""))&amp;D3+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E3)&amp;IF(E3=3," "&amp;D3,"")&amp;":","")))</f>
-        <v/>
+        <v>Tarea 4:</v>
       </c>
       <c r="H3" s="4" t="str" cm="1">
-        <f t="array" ref="H3">IF(OR(D3="",E3&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E3),"$",""))&amp;D3+1,
+        <f t="array" aca="1" ref="H3" ca="1">IF(OR(D3="",E3&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E3),"$",""))&amp;D3+1,
 IFERROR(INDEX(TablaDatos[],D3,E3),"")))</f>
-        <v/>
+        <v>Sincronizar con usuarios</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -1478,30 +1493,30 @@
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
-        <f>C3--(G3="")</f>
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" ref="D4:D67" si="0">IF(C4&gt;C3,IFERROR(SMALL(C$102:C$201,C4),""),D3)</f>
-        <v/>
+        <f ca="1">C3--(G3="")</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D67" ca="1" si="0">IF(C4&gt;C3,IFERROR(SMALL(C$102:C$201,C4),""),D3)</f>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E26" si="1">IF(D4&lt;&gt;D3,3,E3+1)</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" cm="1">
-        <f t="array" ref="F4">IF(OR(D4="",G4=""),0,LEFT(G4)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D4,2)),2))</f>
-        <v>0</v>
+        <f t="shared" ref="E4:E26" ca="1" si="1">IF(D4&lt;&gt;D3,3,E3+1)</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">IF(OR(D4="",G4=""),0,LEFT(G4)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D4,2)),2))</f>
+        <v>DI</v>
       </c>
       <c r="G4" s="5" t="str" cm="1">
-        <f t="array" ref="G4">IF(OR(D4="",E4&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E4=3,1,E4)),"$",""))&amp;D4+1,
+        <f t="array" aca="1" ref="G4" ca="1">IF(OR(D4="",E4&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E4=3,1,E4)),"$",""))&amp;D4+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E4)&amp;IF(E4=3," "&amp;D4,"")&amp;":","")))</f>
-        <v/>
+        <v>Descripción:</v>
       </c>
       <c r="H4" s="4" t="str" cm="1">
-        <f t="array" ref="H4">IF(OR(D4="",E4&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E4),"$",""))&amp;D4+1,
+        <f t="array" aca="1" ref="H4" ca="1">IF(OR(D4="",E4&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E4),"$",""))&amp;D4+1,
 IFERROR(INDEX(TablaDatos[],D4,E4),"")))</f>
-        <v/>
+        <v>Roles, permisos, grupo</v>
       </c>
       <c r="K4" s="1">
         <f ca="1">K3--(O3="")</f>
@@ -1610,30 +1625,30 @@
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C18" si="13">C4--(G4="")</f>
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ref="C5:C18" ca="1" si="13">C4--(G4="")</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" cm="1">
-        <f t="array" ref="F5">IF(OR(D5="",G5=""),0,LEFT(G5)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D5,2)),2))</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">IF(OR(D5="",G5=""),0,LEFT(G5)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D5,2)),2))</f>
+        <v>II</v>
       </c>
       <c r="G5" s="5" t="str" cm="1">
-        <f t="array" ref="G5">IF(OR(D5="",E5&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E5=3,1,E5)),"$",""))&amp;D5+1,
+        <f t="array" aca="1" ref="G5" ca="1">IF(OR(D5="",E5&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E5=3,1,E5)),"$",""))&amp;D5+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E5)&amp;IF(E5=3," "&amp;D5,"")&amp;":","")))</f>
-        <v/>
-      </c>
-      <c r="H5" s="4" t="str" cm="1">
-        <f t="array" ref="H5">IF(OR(D5="",E5&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E5),"$",""))&amp;D5+1,
+        <v>Inicio:</v>
+      </c>
+      <c r="H5" s="4" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">IF(OR(D5="",E5&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E5),"$",""))&amp;D5+1,
 IFERROR(INDEX(TablaDatos[],D5,E5),"")))</f>
-        <v/>
+        <v>45105</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5:K9" ca="1" si="14">K4--(O4="")</f>
@@ -1742,30 +1757,30 @@
     </row>
     <row r="6" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" cm="1">
-        <f t="array" ref="F6">IF(OR(D6="",G6=""),0,LEFT(G6)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D6,2)),2))</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">IF(OR(D6="",G6=""),0,LEFT(G6)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D6,2)),2))</f>
+        <v>PI</v>
       </c>
       <c r="G6" s="5" t="str" cm="1">
-        <f t="array" ref="G6">IF(OR(D6="",E6&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E6=3,1,E6)),"$",""))&amp;D6+1,
+        <f t="array" aca="1" ref="G6" ca="1">IF(OR(D6="",E6&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E6=3,1,E6)),"$",""))&amp;D6+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E6)&amp;IF(E6=3," "&amp;D6,"")&amp;":","")))</f>
-        <v/>
-      </c>
-      <c r="H6" s="4" t="str" cm="1">
-        <f t="array" ref="H6">IF(OR(D6="",E6&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E6),"$",""))&amp;D6+1,
+        <v>Previsto:</v>
+      </c>
+      <c r="H6" s="4" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">IF(OR(D6="",E6&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E6),"$",""))&amp;D6+1,
 IFERROR(INDEX(TablaDatos[],D6,E6),"")))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -1874,30 +1889,30 @@
     </row>
     <row r="7" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" cm="1">
-        <f t="array" ref="F7">IF(OR(D7="",G7=""),0,LEFT(G7)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D7,2)),2))</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">IF(OR(D7="",G7=""),0,LEFT(G7)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D7,2)),2))</f>
+        <v>FI</v>
       </c>
       <c r="G7" s="5" t="str" cm="1">
-        <f t="array" ref="G7">IF(OR(D7="",E7&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E7=3,1,E7)),"$",""))&amp;D7+1,
+        <f t="array" aca="1" ref="G7" ca="1">IF(OR(D7="",E7&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E7=3,1,E7)),"$",""))&amp;D7+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E7)&amp;IF(E7=3," "&amp;D7,"")&amp;":","")))</f>
-        <v/>
-      </c>
-      <c r="H7" s="4" t="str" cm="1">
-        <f t="array" ref="H7">IF(OR(D7="",E7&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E7),"$",""))&amp;D7+1,
+        <v>Final:</v>
+      </c>
+      <c r="H7" s="4" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">IF(OR(D7="",E7&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E7),"$",""))&amp;D7+1,
 IFERROR(INDEX(TablaDatos[],D7,E7),"")))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -2006,30 +2021,30 @@
     </row>
     <row r="8" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" cm="1">
-        <f t="array" ref="F8">IF(OR(D8="",G8=""),0,LEFT(G8)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D8,2)),2))</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">IF(OR(D8="",G8=""),0,LEFT(G8)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D8,2)),2))</f>
+        <v>AI</v>
       </c>
       <c r="G8" s="5" t="str" cm="1">
-        <f t="array" ref="G8">IF(OR(D8="",E8&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E8=3,1,E8)),"$",""))&amp;D8+1,
+        <f t="array" aca="1" ref="G8" ca="1">IF(OR(D8="",E8&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E8=3,1,E8)),"$",""))&amp;D8+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E8)&amp;IF(E8=3," "&amp;D8,"")&amp;":","")))</f>
-        <v/>
+        <v>Asignado:</v>
       </c>
       <c r="H8" s="4" t="str" cm="1">
-        <f t="array" ref="H8">IF(OR(D8="",E8&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E8),"$",""))&amp;D8+1,
+        <f t="array" aca="1" ref="H8" ca="1">IF(OR(D8="",E8&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E8),"$",""))&amp;D8+1,
 IFERROR(INDEX(TablaDatos[],D8,E8),"")))</f>
-        <v/>
+        <v>Ana</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -2138,28 +2153,28 @@
     </row>
     <row r="9" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F9" s="1" cm="1">
-        <f t="array" ref="F9">IF(OR(D9="",G9=""),0,LEFT(G9)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D9,2)),2))</f>
+        <f t="array" aca="1" ref="F9" ca="1">IF(OR(D9="",G9=""),0,LEFT(G9)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D9,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G9" s="5" t="str" cm="1">
-        <f t="array" ref="G9">IF(OR(D9="",E9&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E9=3,1,E9)),"$",""))&amp;D9+1,
+        <f t="array" aca="1" ref="G9" ca="1">IF(OR(D9="",E9&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E9=3,1,E9)),"$",""))&amp;D9+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E9)&amp;IF(E9=3," "&amp;D9,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H9" s="4" t="str" cm="1">
-        <f t="array" ref="H9">IF(OR(D9="",E9&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E9),"$",""))&amp;D9+1,
+        <f t="array" aca="1" ref="H9" ca="1">IF(OR(D9="",E9&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E9),"$",""))&amp;D9+1,
 IFERROR(INDEX(TablaDatos[],D9,E9),"")))</f>
         <v/>
       </c>
@@ -2270,30 +2285,30 @@
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <f>C9--(G9="")</f>
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f ca="1">C9--(G9="")</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" cm="1">
-        <f t="array" ref="F10">IF(OR(D10="",G10=""),0,LEFT(G10)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D10,2)),2))</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="F10" ca="1">IF(OR(D10="",G10=""),0,LEFT(G10)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D10,2)),2))</f>
+        <v>TI</v>
       </c>
       <c r="G10" s="5" t="str" cm="1">
-        <f t="array" ref="G10">IF(OR(D10="",E10&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E10=3,1,E10)),"$",""))&amp;D10+1,
+        <f t="array" aca="1" ref="G10" ca="1">IF(OR(D10="",E10&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E10=3,1,E10)),"$",""))&amp;D10+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E10)&amp;IF(E10=3," "&amp;D10,"")&amp;":","")))</f>
-        <v/>
+        <v>Tarea 5:</v>
       </c>
       <c r="H10" s="4" t="str" cm="1">
-        <f t="array" ref="H10">IF(OR(D10="",E10&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E10),"$",""))&amp;D10+1,
+        <f t="array" aca="1" ref="H10" ca="1">IF(OR(D10="",E10&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E10),"$",""))&amp;D10+1,
 IFERROR(INDEX(TablaDatos[],D10,E10),"")))</f>
-        <v/>
+        <v>Mock listado tours con Elastic</v>
       </c>
       <c r="K10" s="1">
         <f ca="1">K9--(O9="")</f>
@@ -2402,30 +2417,30 @@
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" cm="1">
-        <f t="array" ref="F11">IF(OR(D11="",G11=""),0,LEFT(G11)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D11,2)),2))</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="F11" ca="1">IF(OR(D11="",G11=""),0,LEFT(G11)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D11,2)),2))</f>
+        <v>DI</v>
       </c>
       <c r="G11" s="5" t="str" cm="1">
-        <f t="array" ref="G11">IF(OR(D11="",E11&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E11=3,1,E11)),"$",""))&amp;D11+1,
+        <f t="array" aca="1" ref="G11" ca="1">IF(OR(D11="",E11&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E11=3,1,E11)),"$",""))&amp;D11+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E11)&amp;IF(E11=3," "&amp;D11,"")&amp;":","")))</f>
-        <v/>
+        <v>Descripción:</v>
       </c>
       <c r="H11" s="4" t="str" cm="1">
-        <f t="array" ref="H11">IF(OR(D11="",E11&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E11),"$",""))&amp;D11+1,
+        <f t="array" aca="1" ref="H11" ca="1">IF(OR(D11="",E11&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E11),"$",""))&amp;D11+1,
 IFERROR(INDEX(TablaDatos[],D11,E11),"")))</f>
-        <v/>
+        <v>Comprobar que podemos leer de Elastic</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ref="K11:K18" ca="1" si="15">K10--(O10="")</f>
@@ -2534,30 +2549,30 @@
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" cm="1">
-        <f t="array" ref="F12">IF(OR(D12="",G12=""),0,LEFT(G12)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D12,2)),2))</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="F12" ca="1">IF(OR(D12="",G12=""),0,LEFT(G12)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D12,2)),2))</f>
+        <v>II</v>
       </c>
       <c r="G12" s="5" t="str" cm="1">
-        <f t="array" ref="G12">IF(OR(D12="",E12&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E12=3,1,E12)),"$",""))&amp;D12+1,
+        <f t="array" aca="1" ref="G12" ca="1">IF(OR(D12="",E12&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E12=3,1,E12)),"$",""))&amp;D12+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E12)&amp;IF(E12=3," "&amp;D12,"")&amp;":","")))</f>
-        <v/>
+        <v>Inicio:</v>
       </c>
       <c r="H12" s="4" t="str" cm="1">
-        <f t="array" ref="H12">IF(OR(D12="",E12&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E12),"$",""))&amp;D12+1,
+        <f t="array" aca="1" ref="H12" ca="1">IF(OR(D12="",E12&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E12),"$",""))&amp;D12+1,
 IFERROR(INDEX(TablaDatos[],D12,E12),"")))</f>
-        <v/>
+        <v>31/06/2023</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="15"/>
@@ -2666,30 +2681,30 @@
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" cm="1">
-        <f t="array" ref="F13">IF(OR(D13="",G13=""),0,LEFT(G13)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D13,2)),2))</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="F13" ca="1">IF(OR(D13="",G13=""),0,LEFT(G13)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D13,2)),2))</f>
+        <v>PI</v>
       </c>
       <c r="G13" s="5" t="str" cm="1">
-        <f t="array" ref="G13">IF(OR(D13="",E13&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E13=3,1,E13)),"$",""))&amp;D13+1,
+        <f t="array" aca="1" ref="G13" ca="1">IF(OR(D13="",E13&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E13=3,1,E13)),"$",""))&amp;D13+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E13)&amp;IF(E13=3," "&amp;D13,"")&amp;":","")))</f>
-        <v/>
-      </c>
-      <c r="H13" s="4" t="str" cm="1">
-        <f t="array" ref="H13">IF(OR(D13="",E13&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E13),"$",""))&amp;D13+1,
+        <v>Previsto:</v>
+      </c>
+      <c r="H13" s="4" cm="1">
+        <f t="array" aca="1" ref="H13" ca="1">IF(OR(D13="",E13&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E13),"$",""))&amp;D13+1,
 IFERROR(INDEX(TablaDatos[],D13,E13),"")))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="15"/>
@@ -2798,30 +2813,30 @@
     </row>
     <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" cm="1">
-        <f t="array" ref="F14">IF(OR(D14="",G14=""),0,LEFT(G14)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D14,2)),2))</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="F14" ca="1">IF(OR(D14="",G14=""),0,LEFT(G14)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D14,2)),2))</f>
+        <v>FI</v>
       </c>
       <c r="G14" s="5" t="str" cm="1">
-        <f t="array" ref="G14">IF(OR(D14="",E14&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E14=3,1,E14)),"$",""))&amp;D14+1,
+        <f t="array" aca="1" ref="G14" ca="1">IF(OR(D14="",E14&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E14=3,1,E14)),"$",""))&amp;D14+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E14)&amp;IF(E14=3," "&amp;D14,"")&amp;":","")))</f>
-        <v/>
-      </c>
-      <c r="H14" s="4" t="str" cm="1">
-        <f t="array" ref="H14">IF(OR(D14="",E14&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E14),"$",""))&amp;D14+1,
+        <v>Final:</v>
+      </c>
+      <c r="H14" s="4" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">IF(OR(D14="",E14&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E14),"$",""))&amp;D14+1,
 IFERROR(INDEX(TablaDatos[],D14,E14),"")))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="15"/>
@@ -2930,30 +2945,30 @@
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" cm="1">
-        <f t="array" ref="F15">IF(OR(D15="",G15=""),0,LEFT(G15)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D15,2)),2))</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="F15" ca="1">IF(OR(D15="",G15=""),0,LEFT(G15)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D15,2)),2))</f>
+        <v>AI</v>
       </c>
       <c r="G15" s="5" t="str" cm="1">
-        <f t="array" ref="G15">IF(OR(D15="",E15&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E15=3,1,E15)),"$",""))&amp;D15+1,
+        <f t="array" aca="1" ref="G15" ca="1">IF(OR(D15="",E15&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E15=3,1,E15)),"$",""))&amp;D15+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E15)&amp;IF(E15=3," "&amp;D15,"")&amp;":","")))</f>
-        <v/>
+        <v>Asignado:</v>
       </c>
       <c r="H15" s="4" t="str" cm="1">
-        <f t="array" ref="H15">IF(OR(D15="",E15&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E15),"$",""))&amp;D15+1,
+        <f t="array" aca="1" ref="H15" ca="1">IF(OR(D15="",E15&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E15),"$",""))&amp;D15+1,
 IFERROR(INDEX(TablaDatos[],D15,E15),"")))</f>
-        <v/>
+        <v>Ana</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="15"/>
@@ -3062,28 +3077,28 @@
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F16" s="1" cm="1">
-        <f t="array" ref="F16">IF(OR(D16="",G16=""),0,LEFT(G16)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D16,2)),2))</f>
+        <f t="array" aca="1" ref="F16" ca="1">IF(OR(D16="",G16=""),0,LEFT(G16)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D16,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G16" s="5" t="str" cm="1">
-        <f t="array" ref="G16">IF(OR(D16="",E16&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E16=3,1,E16)),"$",""))&amp;D16+1,
+        <f t="array" aca="1" ref="G16" ca="1">IF(OR(D16="",E16&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E16=3,1,E16)),"$",""))&amp;D16+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E16)&amp;IF(E16=3," "&amp;D16,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H16" s="4" t="str" cm="1">
-        <f t="array" ref="H16">IF(OR(D16="",E16&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E16),"$",""))&amp;D16+1,
+        <f t="array" aca="1" ref="H16" ca="1">IF(OR(D16="",E16&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E16),"$",""))&amp;D16+1,
 IFERROR(INDEX(TablaDatos[],D16,E16),"")))</f>
         <v/>
       </c>
@@ -3194,28 +3209,28 @@
     </row>
     <row r="17" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F17" s="1" cm="1">
-        <f t="array" ref="F17">IF(OR(D17="",G17=""),0,LEFT(G17)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D17,2)),2))</f>
+        <f t="array" aca="1" ref="F17" ca="1">IF(OR(D17="",G17=""),0,LEFT(G17)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D17,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G17" s="5" t="str" cm="1">
-        <f t="array" ref="G17">IF(OR(D17="",E17&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E17=3,1,E17)),"$",""))&amp;D17+1,
+        <f t="array" aca="1" ref="G17" ca="1">IF(OR(D17="",E17&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E17=3,1,E17)),"$",""))&amp;D17+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E17)&amp;IF(E17=3," "&amp;D17,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H17" s="4" t="str" cm="1">
-        <f t="array" ref="H17">IF(OR(D17="",E17&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E17),"$",""))&amp;D17+1,
+        <f t="array" aca="1" ref="H17" ca="1">IF(OR(D17="",E17&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E17),"$",""))&amp;D17+1,
 IFERROR(INDEX(TablaDatos[],D17,E17),"")))</f>
         <v/>
       </c>
@@ -3326,28 +3341,28 @@
     </row>
     <row r="18" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F18" s="1" cm="1">
-        <f t="array" ref="F18">IF(OR(D18="",G18=""),0,LEFT(G18)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D18,2)),2))</f>
+        <f t="array" aca="1" ref="F18" ca="1">IF(OR(D18="",G18=""),0,LEFT(G18)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D18,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G18" s="5" t="str" cm="1">
-        <f t="array" ref="G18">IF(OR(D18="",E18&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E18=3,1,E18)),"$",""))&amp;D18+1,
+        <f t="array" aca="1" ref="G18" ca="1">IF(OR(D18="",E18&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E18=3,1,E18)),"$",""))&amp;D18+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E18)&amp;IF(E18=3," "&amp;D18,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H18" s="4" t="str" cm="1">
-        <f t="array" ref="H18">IF(OR(D18="",E18&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E18),"$",""))&amp;D18+1,
+        <f t="array" aca="1" ref="H18" ca="1">IF(OR(D18="",E18&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E18),"$",""))&amp;D18+1,
 IFERROR(INDEX(TablaDatos[],D18,E18),"")))</f>
         <v/>
       </c>
@@ -3458,28 +3473,28 @@
     </row>
     <row r="19" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
-        <f t="shared" ref="C19:C21" si="17">C18--(G18="")</f>
-        <v>17</v>
+        <f t="shared" ref="C19:C21" ca="1" si="17">C18--(G18="")</f>
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="F19" s="1" cm="1">
-        <f t="array" ref="F19">IF(OR(D19="",G19=""),0,LEFT(G19)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D19,2)),2))</f>
+        <f t="array" aca="1" ref="F19" ca="1">IF(OR(D19="",G19=""),0,LEFT(G19)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D19,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G19" s="5" t="str" cm="1">
-        <f t="array" ref="G19">IF(OR(D19="",E19&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E19=3,1,E19)),"$",""))&amp;D19+1,
+        <f t="array" aca="1" ref="G19" ca="1">IF(OR(D19="",E19&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E19=3,1,E19)),"$",""))&amp;D19+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E19)&amp;IF(E19=3," "&amp;D19,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H19" s="4" t="str" cm="1">
-        <f t="array" ref="H19">IF(OR(D19="",E19&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E19),"$",""))&amp;D19+1,
+        <f t="array" aca="1" ref="H19" ca="1">IF(OR(D19="",E19&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E19),"$",""))&amp;D19+1,
 IFERROR(INDEX(TablaDatos[],D19,E19),"")))</f>
         <v/>
       </c>
@@ -3590,28 +3605,28 @@
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
-        <f t="shared" si="17"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="F20" s="1" cm="1">
-        <f t="array" ref="F20">IF(OR(D20="",G20=""),0,LEFT(G20)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D20,2)),2))</f>
+        <f t="array" aca="1" ref="F20" ca="1">IF(OR(D20="",G20=""),0,LEFT(G20)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D20,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G20" s="5" t="str" cm="1">
-        <f t="array" ref="G20">IF(OR(D20="",E20&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E20=3,1,E20)),"$",""))&amp;D20+1,
+        <f t="array" aca="1" ref="G20" ca="1">IF(OR(D20="",E20&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E20=3,1,E20)),"$",""))&amp;D20+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E20)&amp;IF(E20=3," "&amp;D20,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H20" s="4" t="str" cm="1">
-        <f t="array" ref="H20">IF(OR(D20="",E20&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E20),"$",""))&amp;D20+1,
+        <f t="array" aca="1" ref="H20" ca="1">IF(OR(D20="",E20&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E20),"$",""))&amp;D20+1,
 IFERROR(INDEX(TablaDatos[],D20,E20),"")))</f>
         <v/>
       </c>
@@ -3722,28 +3737,28 @@
     </row>
     <row r="21" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
-        <f t="shared" si="17"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F21" s="1" cm="1">
-        <f t="array" ref="F21">IF(OR(D21="",G21=""),0,LEFT(G21)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D21,2)),2))</f>
+        <f t="array" aca="1" ref="F21" ca="1">IF(OR(D21="",G21=""),0,LEFT(G21)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D21,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G21" s="5" t="str" cm="1">
-        <f t="array" ref="G21">IF(OR(D21="",E21&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E21=3,1,E21)),"$",""))&amp;D21+1,
+        <f t="array" aca="1" ref="G21" ca="1">IF(OR(D21="",E21&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E21=3,1,E21)),"$",""))&amp;D21+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E21)&amp;IF(E21=3," "&amp;D21,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H21" s="4" t="str" cm="1">
-        <f t="array" ref="H21">IF(OR(D21="",E21&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E21),"$",""))&amp;D21+1,
+        <f t="array" aca="1" ref="H21" ca="1">IF(OR(D21="",E21&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E21),"$",""))&amp;D21+1,
 IFERROR(INDEX(TablaDatos[],D21,E21),"")))</f>
         <v/>
       </c>
@@ -3854,28 +3869,28 @@
     </row>
     <row r="22" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
-        <f t="shared" ref="C22:C26" si="19">C21--(G21="")</f>
-        <v>20</v>
+        <f t="shared" ref="C22:C26" ca="1" si="19">C21--(G21="")</f>
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="F22" s="1" cm="1">
-        <f t="array" ref="F22">IF(OR(D22="",G22=""),0,LEFT(G22)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D22,2)),2))</f>
+        <f t="array" aca="1" ref="F22" ca="1">IF(OR(D22="",G22=""),0,LEFT(G22)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D22,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G22" s="5" t="str" cm="1">
-        <f t="array" ref="G22">IF(OR(D22="",E22&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E22=3,1,E22)),"$",""))&amp;D22+1,
+        <f t="array" aca="1" ref="G22" ca="1">IF(OR(D22="",E22&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E22=3,1,E22)),"$",""))&amp;D22+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E22)&amp;IF(E22=3," "&amp;D22,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H22" s="4" t="str" cm="1">
-        <f t="array" ref="H22">IF(OR(D22="",E22&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E22),"$",""))&amp;D22+1,
+        <f t="array" aca="1" ref="H22" ca="1">IF(OR(D22="",E22&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E22),"$",""))&amp;D22+1,
 IFERROR(INDEX(TablaDatos[],D22,E22),"")))</f>
         <v/>
       </c>
@@ -3986,28 +4001,28 @@
     </row>
     <row r="23" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
-        <f t="shared" si="19"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>9</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F23" s="1" cm="1">
-        <f t="array" ref="F23">IF(OR(D23="",G23=""),0,LEFT(G23)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D23,2)),2))</f>
+        <f t="array" aca="1" ref="F23" ca="1">IF(OR(D23="",G23=""),0,LEFT(G23)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D23,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G23" s="5" t="str" cm="1">
-        <f t="array" ref="G23">IF(OR(D23="",E23&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E23=3,1,E23)),"$",""))&amp;D23+1,
+        <f t="array" aca="1" ref="G23" ca="1">IF(OR(D23="",E23&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E23=3,1,E23)),"$",""))&amp;D23+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E23)&amp;IF(E23=3," "&amp;D23,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H23" s="4" t="str" cm="1">
-        <f t="array" ref="H23">IF(OR(D23="",E23&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E23),"$",""))&amp;D23+1,
+        <f t="array" aca="1" ref="H23" ca="1">IF(OR(D23="",E23&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E23),"$",""))&amp;D23+1,
 IFERROR(INDEX(TablaDatos[],D23,E23),"")))</f>
         <v/>
       </c>
@@ -4118,28 +4133,28 @@
     </row>
     <row r="24" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
-        <f t="shared" si="19"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>10</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="F24" s="1" cm="1">
-        <f t="array" ref="F24">IF(OR(D24="",G24=""),0,LEFT(G24)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D24,2)),2))</f>
+        <f t="array" aca="1" ref="F24" ca="1">IF(OR(D24="",G24=""),0,LEFT(G24)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D24,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G24" s="5" t="str" cm="1">
-        <f t="array" ref="G24">IF(OR(D24="",E24&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E24=3,1,E24)),"$",""))&amp;D24+1,
+        <f t="array" aca="1" ref="G24" ca="1">IF(OR(D24="",E24&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E24=3,1,E24)),"$",""))&amp;D24+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E24)&amp;IF(E24=3," "&amp;D24,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H24" s="4" t="str" cm="1">
-        <f t="array" ref="H24">IF(OR(D24="",E24&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E24),"$",""))&amp;D24+1,
+        <f t="array" aca="1" ref="H24" ca="1">IF(OR(D24="",E24&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E24),"$",""))&amp;D24+1,
 IFERROR(INDEX(TablaDatos[],D24,E24),"")))</f>
         <v/>
       </c>
@@ -4250,28 +4265,28 @@
     </row>
     <row r="25" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
-        <f t="shared" si="19"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>11</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="F25" s="1" cm="1">
-        <f t="array" ref="F25">IF(OR(D25="",G25=""),0,LEFT(G25)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D25,2)),2))</f>
+        <f t="array" aca="1" ref="F25" ca="1">IF(OR(D25="",G25=""),0,LEFT(G25)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D25,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G25" s="5" t="str" cm="1">
-        <f t="array" ref="G25">IF(OR(D25="",E25&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E25=3,1,E25)),"$",""))&amp;D25+1,
+        <f t="array" aca="1" ref="G25" ca="1">IF(OR(D25="",E25&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E25=3,1,E25)),"$",""))&amp;D25+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E25)&amp;IF(E25=3," "&amp;D25,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H25" s="4" t="str" cm="1">
-        <f t="array" ref="H25">IF(OR(D25="",E25&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E25),"$",""))&amp;D25+1,
+        <f t="array" aca="1" ref="H25" ca="1">IF(OR(D25="",E25&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E25),"$",""))&amp;D25+1,
 IFERROR(INDEX(TablaDatos[],D25,E25),"")))</f>
         <v/>
       </c>
@@ -4382,28 +4397,28 @@
     </row>
     <row r="26" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
-        <f t="shared" si="19"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
       </c>
       <c r="F26" s="1" cm="1">
-        <f t="array" ref="F26">IF(OR(D26="",G26=""),0,LEFT(G26)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D26,2)),2))</f>
+        <f t="array" aca="1" ref="F26" ca="1">IF(OR(D26="",G26=""),0,LEFT(G26)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D26,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G26" s="5" t="str" cm="1">
-        <f t="array" ref="G26">IF(OR(D26="",E26&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E26=3,1,E26)),"$",""))&amp;D26+1,
+        <f t="array" aca="1" ref="G26" ca="1">IF(OR(D26="",E26&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E26=3,1,E26)),"$",""))&amp;D26+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E26)&amp;IF(E26=3," "&amp;D26,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H26" s="4" t="str" cm="1">
-        <f t="array" ref="H26">IF(OR(D26="",E26&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E26),"$",""))&amp;D26+1,
+        <f t="array" aca="1" ref="H26" ca="1">IF(OR(D26="",E26&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E26),"$",""))&amp;D26+1,
 IFERROR(INDEX(TablaDatos[],D26,E26),"")))</f>
         <v/>
       </c>
@@ -4514,28 +4529,28 @@
     </row>
     <row r="27" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
-        <f t="shared" ref="C27:C28" si="20">C26--(G26="")</f>
-        <v>25</v>
+        <f t="shared" ref="C27:C28" ca="1" si="20">C26--(G26="")</f>
+        <v>13</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ref="E27:E28" si="21">IF(D27&lt;&gt;D26,3,E26+1)</f>
-        <v>25</v>
+        <f t="shared" ref="E27:E28" ca="1" si="21">IF(D27&lt;&gt;D26,3,E26+1)</f>
+        <v>13</v>
       </c>
       <c r="F27" s="1" cm="1">
-        <f t="array" ref="F27">IF(OR(D27="",G27=""),0,LEFT(G27)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D27,2)),2))</f>
+        <f t="array" aca="1" ref="F27" ca="1">IF(OR(D27="",G27=""),0,LEFT(G27)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D27,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G27" s="5" t="str" cm="1">
-        <f t="array" ref="G27">IF(OR(D27="",E27&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E27=3,1,E27)),"$",""))&amp;D27+1,
+        <f t="array" aca="1" ref="G27" ca="1">IF(OR(D27="",E27&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E27=3,1,E27)),"$",""))&amp;D27+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E27)&amp;IF(E27=3," "&amp;D27,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H27" s="4" t="str" cm="1">
-        <f t="array" ref="H27">IF(OR(D27="",E27&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E27),"$",""))&amp;D27+1,
+        <f t="array" aca="1" ref="H27" ca="1">IF(OR(D27="",E27&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E27),"$",""))&amp;D27+1,
 IFERROR(INDEX(TablaDatos[],D27,E27),"")))</f>
         <v/>
       </c>
@@ -4646,28 +4661,28 @@
     </row>
     <row r="28" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
-        <f t="shared" si="20"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="21"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>14</v>
       </c>
       <c r="F28" s="1" cm="1">
-        <f t="array" ref="F28">IF(OR(D28="",G28=""),0,LEFT(G28)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D28,2)),2))</f>
+        <f t="array" aca="1" ref="F28" ca="1">IF(OR(D28="",G28=""),0,LEFT(G28)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D28,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G28" s="5" t="str" cm="1">
-        <f t="array" ref="G28">IF(OR(D28="",E28&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E28=3,1,E28)),"$",""))&amp;D28+1,
+        <f t="array" aca="1" ref="G28" ca="1">IF(OR(D28="",E28&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E28=3,1,E28)),"$",""))&amp;D28+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E28)&amp;IF(E28=3," "&amp;D28,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H28" s="4" t="str" cm="1">
-        <f t="array" ref="H28">IF(OR(D28="",E28&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E28),"$",""))&amp;D28+1,
+        <f t="array" aca="1" ref="H28" ca="1">IF(OR(D28="",E28&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E28),"$",""))&amp;D28+1,
 IFERROR(INDEX(TablaDatos[],D28,E28),"")))</f>
         <v/>
       </c>
@@ -4778,28 +4793,28 @@
     </row>
     <row r="29" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
-        <f t="shared" ref="C29:C92" si="28">C28--(G28="")</f>
-        <v>27</v>
+        <f t="shared" ref="C29:C92" ca="1" si="28">C28--(G28="")</f>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ref="E29:E92" si="29">IF(D29&lt;&gt;D28,3,E28+1)</f>
-        <v>27</v>
+        <f t="shared" ref="E29:E92" ca="1" si="29">IF(D29&lt;&gt;D28,3,E28+1)</f>
+        <v>15</v>
       </c>
       <c r="F29" s="1" cm="1">
-        <f t="array" ref="F29">IF(OR(D29="",G29=""),0,LEFT(G29)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D29,2)),2))</f>
+        <f t="array" aca="1" ref="F29" ca="1">IF(OR(D29="",G29=""),0,LEFT(G29)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D29,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G29" s="5" t="str" cm="1">
-        <f t="array" ref="G29">IF(OR(D29="",E29&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E29=3,1,E29)),"$",""))&amp;D29+1,
+        <f t="array" aca="1" ref="G29" ca="1">IF(OR(D29="",E29&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E29=3,1,E29)),"$",""))&amp;D29+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E29)&amp;IF(E29=3," "&amp;D29,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H29" s="4" t="str" cm="1">
-        <f t="array" ref="H29">IF(OR(D29="",E29&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E29),"$",""))&amp;D29+1,
+        <f t="array" aca="1" ref="H29" ca="1">IF(OR(D29="",E29&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E29),"$",""))&amp;D29+1,
 IFERROR(INDEX(TablaDatos[],D29,E29),"")))</f>
         <v/>
       </c>
@@ -4910,28 +4925,28 @@
     </row>
     <row r="30" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
-        <f t="shared" si="28"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="29"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>16</v>
       </c>
       <c r="F30" s="1" cm="1">
-        <f t="array" ref="F30">IF(OR(D30="",G30=""),0,LEFT(G30)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D30,2)),2))</f>
+        <f t="array" aca="1" ref="F30" ca="1">IF(OR(D30="",G30=""),0,LEFT(G30)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D30,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G30" s="5" t="str" cm="1">
-        <f t="array" ref="G30">IF(OR(D30="",E30&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E30=3,1,E30)),"$",""))&amp;D30+1,
+        <f t="array" aca="1" ref="G30" ca="1">IF(OR(D30="",E30&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E30=3,1,E30)),"$",""))&amp;D30+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E30)&amp;IF(E30=3," "&amp;D30,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H30" s="4" t="str" cm="1">
-        <f t="array" ref="H30">IF(OR(D30="",E30&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E30),"$",""))&amp;D30+1,
+        <f t="array" aca="1" ref="H30" ca="1">IF(OR(D30="",E30&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E30),"$",""))&amp;D30+1,
 IFERROR(INDEX(TablaDatos[],D30,E30),"")))</f>
         <v/>
       </c>
@@ -5042,28 +5057,28 @@
     </row>
     <row r="31" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
-        <f t="shared" si="28"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>17</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="29"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>17</v>
       </c>
       <c r="F31" s="1" cm="1">
-        <f t="array" ref="F31">IF(OR(D31="",G31=""),0,LEFT(G31)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D31,2)),2))</f>
+        <f t="array" aca="1" ref="F31" ca="1">IF(OR(D31="",G31=""),0,LEFT(G31)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D31,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G31" s="5" t="str" cm="1">
-        <f t="array" ref="G31">IF(OR(D31="",E31&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E31=3,1,E31)),"$",""))&amp;D31+1,
+        <f t="array" aca="1" ref="G31" ca="1">IF(OR(D31="",E31&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E31=3,1,E31)),"$",""))&amp;D31+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E31)&amp;IF(E31=3," "&amp;D31,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H31" s="4" t="str" cm="1">
-        <f t="array" ref="H31">IF(OR(D31="",E31&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E31),"$",""))&amp;D31+1,
+        <f t="array" aca="1" ref="H31" ca="1">IF(OR(D31="",E31&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E31),"$",""))&amp;D31+1,
 IFERROR(INDEX(TablaDatos[],D31,E31),"")))</f>
         <v/>
       </c>
@@ -5174,28 +5189,28 @@
     </row>
     <row r="32" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
-        <f t="shared" si="28"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>18</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="29"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>18</v>
       </c>
       <c r="F32" s="1" cm="1">
-        <f t="array" ref="F32">IF(OR(D32="",G32=""),0,LEFT(G32)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D32,2)),2))</f>
+        <f t="array" aca="1" ref="F32" ca="1">IF(OR(D32="",G32=""),0,LEFT(G32)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D32,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G32" s="5" t="str" cm="1">
-        <f t="array" ref="G32">IF(OR(D32="",E32&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E32=3,1,E32)),"$",""))&amp;D32+1,
+        <f t="array" aca="1" ref="G32" ca="1">IF(OR(D32="",E32&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E32=3,1,E32)),"$",""))&amp;D32+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E32)&amp;IF(E32=3," "&amp;D32,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H32" s="4" t="str" cm="1">
-        <f t="array" ref="H32">IF(OR(D32="",E32&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E32),"$",""))&amp;D32+1,
+        <f t="array" aca="1" ref="H32" ca="1">IF(OR(D32="",E32&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E32),"$",""))&amp;D32+1,
 IFERROR(INDEX(TablaDatos[],D32,E32),"")))</f>
         <v/>
       </c>
@@ -5306,28 +5321,28 @@
     </row>
     <row r="33" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
-        <f t="shared" si="28"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>19</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="29"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>19</v>
       </c>
       <c r="F33" s="1" cm="1">
-        <f t="array" ref="F33">IF(OR(D33="",G33=""),0,LEFT(G33)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D33,2)),2))</f>
+        <f t="array" aca="1" ref="F33" ca="1">IF(OR(D33="",G33=""),0,LEFT(G33)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D33,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G33" s="5" t="str" cm="1">
-        <f t="array" ref="G33">IF(OR(D33="",E33&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E33=3,1,E33)),"$",""))&amp;D33+1,
+        <f t="array" aca="1" ref="G33" ca="1">IF(OR(D33="",E33&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E33=3,1,E33)),"$",""))&amp;D33+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E33)&amp;IF(E33=3," "&amp;D33,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H33" s="4" t="str" cm="1">
-        <f t="array" ref="H33">IF(OR(D33="",E33&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E33),"$",""))&amp;D33+1,
+        <f t="array" aca="1" ref="H33" ca="1">IF(OR(D33="",E33&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E33),"$",""))&amp;D33+1,
 IFERROR(INDEX(TablaDatos[],D33,E33),"")))</f>
         <v/>
       </c>
@@ -5438,28 +5453,28 @@
     </row>
     <row r="34" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
-        <f t="shared" si="28"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>20</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="29"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>20</v>
       </c>
       <c r="F34" s="1" cm="1">
-        <f t="array" ref="F34">IF(OR(D34="",G34=""),0,LEFT(G34)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D34,2)),2))</f>
+        <f t="array" aca="1" ref="F34" ca="1">IF(OR(D34="",G34=""),0,LEFT(G34)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D34,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G34" s="5" t="str" cm="1">
-        <f t="array" ref="G34">IF(OR(D34="",E34&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E34=3,1,E34)),"$",""))&amp;D34+1,
+        <f t="array" aca="1" ref="G34" ca="1">IF(OR(D34="",E34&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E34=3,1,E34)),"$",""))&amp;D34+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E34)&amp;IF(E34=3," "&amp;D34,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H34" s="4" t="str" cm="1">
-        <f t="array" ref="H34">IF(OR(D34="",E34&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E34),"$",""))&amp;D34+1,
+        <f t="array" aca="1" ref="H34" ca="1">IF(OR(D34="",E34&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E34),"$",""))&amp;D34+1,
 IFERROR(INDEX(TablaDatos[],D34,E34),"")))</f>
         <v/>
       </c>
@@ -5570,28 +5585,28 @@
     </row>
     <row r="35" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
-        <f t="shared" si="28"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="29"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>21</v>
       </c>
       <c r="F35" s="1" cm="1">
-        <f t="array" ref="F35">IF(OR(D35="",G35=""),0,LEFT(G35)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D35,2)),2))</f>
+        <f t="array" aca="1" ref="F35" ca="1">IF(OR(D35="",G35=""),0,LEFT(G35)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D35,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G35" s="5" t="str" cm="1">
-        <f t="array" ref="G35">IF(OR(D35="",E35&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E35=3,1,E35)),"$",""))&amp;D35+1,
+        <f t="array" aca="1" ref="G35" ca="1">IF(OR(D35="",E35&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E35=3,1,E35)),"$",""))&amp;D35+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E35)&amp;IF(E35=3," "&amp;D35,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H35" s="4" t="str" cm="1">
-        <f t="array" ref="H35">IF(OR(D35="",E35&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E35),"$",""))&amp;D35+1,
+        <f t="array" aca="1" ref="H35" ca="1">IF(OR(D35="",E35&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E35),"$",""))&amp;D35+1,
 IFERROR(INDEX(TablaDatos[],D35,E35),"")))</f>
         <v/>
       </c>
@@ -5702,28 +5717,28 @@
     </row>
     <row r="36" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
-        <f t="shared" si="28"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>22</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="29"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>22</v>
       </c>
       <c r="F36" s="1" cm="1">
-        <f t="array" ref="F36">IF(OR(D36="",G36=""),0,LEFT(G36)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D36,2)),2))</f>
+        <f t="array" aca="1" ref="F36" ca="1">IF(OR(D36="",G36=""),0,LEFT(G36)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D36,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G36" s="5" t="str" cm="1">
-        <f t="array" ref="G36">IF(OR(D36="",E36&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E36=3,1,E36)),"$",""))&amp;D36+1,
+        <f t="array" aca="1" ref="G36" ca="1">IF(OR(D36="",E36&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E36=3,1,E36)),"$",""))&amp;D36+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E36)&amp;IF(E36=3," "&amp;D36,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H36" s="4" t="str" cm="1">
-        <f t="array" ref="H36">IF(OR(D36="",E36&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E36),"$",""))&amp;D36+1,
+        <f t="array" aca="1" ref="H36" ca="1">IF(OR(D36="",E36&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E36),"$",""))&amp;D36+1,
 IFERROR(INDEX(TablaDatos[],D36,E36),"")))</f>
         <v/>
       </c>
@@ -5834,28 +5849,28 @@
     </row>
     <row r="37" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
-        <f t="shared" si="28"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>23</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="29"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>23</v>
       </c>
       <c r="F37" s="1" cm="1">
-        <f t="array" ref="F37">IF(OR(D37="",G37=""),0,LEFT(G37)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D37,2)),2))</f>
+        <f t="array" aca="1" ref="F37" ca="1">IF(OR(D37="",G37=""),0,LEFT(G37)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D37,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G37" s="5" t="str" cm="1">
-        <f t="array" ref="G37">IF(OR(D37="",E37&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E37=3,1,E37)),"$",""))&amp;D37+1,
+        <f t="array" aca="1" ref="G37" ca="1">IF(OR(D37="",E37&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E37=3,1,E37)),"$",""))&amp;D37+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E37)&amp;IF(E37=3," "&amp;D37,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H37" s="4" t="str" cm="1">
-        <f t="array" ref="H37">IF(OR(D37="",E37&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E37),"$",""))&amp;D37+1,
+        <f t="array" aca="1" ref="H37" ca="1">IF(OR(D37="",E37&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E37),"$",""))&amp;D37+1,
 IFERROR(INDEX(TablaDatos[],D37,E37),"")))</f>
         <v/>
       </c>
@@ -5966,28 +5981,28 @@
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
-        <f t="shared" si="28"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>24</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="29"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>24</v>
       </c>
       <c r="F38" s="1" cm="1">
-        <f t="array" ref="F38">IF(OR(D38="",G38=""),0,LEFT(G38)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D38,2)),2))</f>
+        <f t="array" aca="1" ref="F38" ca="1">IF(OR(D38="",G38=""),0,LEFT(G38)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D38,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G38" s="5" t="str" cm="1">
-        <f t="array" ref="G38">IF(OR(D38="",E38&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E38=3,1,E38)),"$",""))&amp;D38+1,
+        <f t="array" aca="1" ref="G38" ca="1">IF(OR(D38="",E38&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E38=3,1,E38)),"$",""))&amp;D38+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E38)&amp;IF(E38=3," "&amp;D38,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H38" s="4" t="str" cm="1">
-        <f t="array" ref="H38">IF(OR(D38="",E38&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E38),"$",""))&amp;D38+1,
+        <f t="array" aca="1" ref="H38" ca="1">IF(OR(D38="",E38&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E38),"$",""))&amp;D38+1,
 IFERROR(INDEX(TablaDatos[],D38,E38),"")))</f>
         <v/>
       </c>
@@ -6098,28 +6113,28 @@
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
-        <f t="shared" si="28"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>25</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="29"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>25</v>
       </c>
       <c r="F39" s="1" cm="1">
-        <f t="array" ref="F39">IF(OR(D39="",G39=""),0,LEFT(G39)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D39,2)),2))</f>
+        <f t="array" aca="1" ref="F39" ca="1">IF(OR(D39="",G39=""),0,LEFT(G39)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D39,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G39" s="5" t="str" cm="1">
-        <f t="array" ref="G39">IF(OR(D39="",E39&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E39=3,1,E39)),"$",""))&amp;D39+1,
+        <f t="array" aca="1" ref="G39" ca="1">IF(OR(D39="",E39&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E39=3,1,E39)),"$",""))&amp;D39+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E39)&amp;IF(E39=3," "&amp;D39,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H39" s="4" t="str" cm="1">
-        <f t="array" ref="H39">IF(OR(D39="",E39&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E39),"$",""))&amp;D39+1,
+        <f t="array" aca="1" ref="H39" ca="1">IF(OR(D39="",E39&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E39),"$",""))&amp;D39+1,
 IFERROR(INDEX(TablaDatos[],D39,E39),"")))</f>
         <v/>
       </c>
@@ -6230,28 +6245,28 @@
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
-        <f t="shared" si="28"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>26</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="29"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>26</v>
       </c>
       <c r="F40" s="1" cm="1">
-        <f t="array" ref="F40">IF(OR(D40="",G40=""),0,LEFT(G40)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D40,2)),2))</f>
+        <f t="array" aca="1" ref="F40" ca="1">IF(OR(D40="",G40=""),0,LEFT(G40)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D40,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G40" s="5" t="str" cm="1">
-        <f t="array" ref="G40">IF(OR(D40="",E40&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E40=3,1,E40)),"$",""))&amp;D40+1,
+        <f t="array" aca="1" ref="G40" ca="1">IF(OR(D40="",E40&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E40=3,1,E40)),"$",""))&amp;D40+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E40)&amp;IF(E40=3," "&amp;D40,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H40" s="4" t="str" cm="1">
-        <f t="array" ref="H40">IF(OR(D40="",E40&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E40),"$",""))&amp;D40+1,
+        <f t="array" aca="1" ref="H40" ca="1">IF(OR(D40="",E40&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E40),"$",""))&amp;D40+1,
 IFERROR(INDEX(TablaDatos[],D40,E40),"")))</f>
         <v/>
       </c>
@@ -6362,28 +6377,28 @@
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
-        <f t="shared" si="28"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>27</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="29"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>27</v>
       </c>
       <c r="F41" s="1" cm="1">
-        <f t="array" ref="F41">IF(OR(D41="",G41=""),0,LEFT(G41)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D41,2)),2))</f>
+        <f t="array" aca="1" ref="F41" ca="1">IF(OR(D41="",G41=""),0,LEFT(G41)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D41,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G41" s="5" t="str" cm="1">
-        <f t="array" ref="G41">IF(OR(D41="",E41&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E41=3,1,E41)),"$",""))&amp;D41+1,
+        <f t="array" aca="1" ref="G41" ca="1">IF(OR(D41="",E41&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E41=3,1,E41)),"$",""))&amp;D41+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E41)&amp;IF(E41=3," "&amp;D41,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H41" s="4" t="str" cm="1">
-        <f t="array" ref="H41">IF(OR(D41="",E41&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E41),"$",""))&amp;D41+1,
+        <f t="array" aca="1" ref="H41" ca="1">IF(OR(D41="",E41&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E41),"$",""))&amp;D41+1,
 IFERROR(INDEX(TablaDatos[],D41,E41),"")))</f>
         <v/>
       </c>
@@ -6494,28 +6509,28 @@
     </row>
     <row r="42" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
-        <f t="shared" si="28"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>28</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="29"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>28</v>
       </c>
       <c r="F42" s="1" cm="1">
-        <f t="array" ref="F42">IF(OR(D42="",G42=""),0,LEFT(G42)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D42,2)),2))</f>
+        <f t="array" aca="1" ref="F42" ca="1">IF(OR(D42="",G42=""),0,LEFT(G42)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D42,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G42" s="5" t="str" cm="1">
-        <f t="array" ref="G42">IF(OR(D42="",E42&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E42=3,1,E42)),"$",""))&amp;D42+1,
+        <f t="array" aca="1" ref="G42" ca="1">IF(OR(D42="",E42&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E42=3,1,E42)),"$",""))&amp;D42+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E42)&amp;IF(E42=3," "&amp;D42,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H42" s="4" t="str" cm="1">
-        <f t="array" ref="H42">IF(OR(D42="",E42&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E42),"$",""))&amp;D42+1,
+        <f t="array" aca="1" ref="H42" ca="1">IF(OR(D42="",E42&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E42),"$",""))&amp;D42+1,
 IFERROR(INDEX(TablaDatos[],D42,E42),"")))</f>
         <v/>
       </c>
@@ -6626,28 +6641,28 @@
     </row>
     <row r="43" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
-        <f t="shared" si="28"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>29</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="29"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>29</v>
       </c>
       <c r="F43" s="1" cm="1">
-        <f t="array" ref="F43">IF(OR(D43="",G43=""),0,LEFT(G43)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D43,2)),2))</f>
+        <f t="array" aca="1" ref="F43" ca="1">IF(OR(D43="",G43=""),0,LEFT(G43)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D43,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G43" s="5" t="str" cm="1">
-        <f t="array" ref="G43">IF(OR(D43="",E43&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E43=3,1,E43)),"$",""))&amp;D43+1,
+        <f t="array" aca="1" ref="G43" ca="1">IF(OR(D43="",E43&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E43=3,1,E43)),"$",""))&amp;D43+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E43)&amp;IF(E43=3," "&amp;D43,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H43" s="4" t="str" cm="1">
-        <f t="array" ref="H43">IF(OR(D43="",E43&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E43),"$",""))&amp;D43+1,
+        <f t="array" aca="1" ref="H43" ca="1">IF(OR(D43="",E43&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E43),"$",""))&amp;D43+1,
 IFERROR(INDEX(TablaDatos[],D43,E43),"")))</f>
         <v/>
       </c>
@@ -6758,28 +6773,28 @@
     </row>
     <row r="44" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
-        <f t="shared" si="28"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>30</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="29"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>30</v>
       </c>
       <c r="F44" s="1" cm="1">
-        <f t="array" ref="F44">IF(OR(D44="",G44=""),0,LEFT(G44)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D44,2)),2))</f>
+        <f t="array" aca="1" ref="F44" ca="1">IF(OR(D44="",G44=""),0,LEFT(G44)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D44,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G44" s="5" t="str" cm="1">
-        <f t="array" ref="G44">IF(OR(D44="",E44&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E44=3,1,E44)),"$",""))&amp;D44+1,
+        <f t="array" aca="1" ref="G44" ca="1">IF(OR(D44="",E44&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E44=3,1,E44)),"$",""))&amp;D44+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E44)&amp;IF(E44=3," "&amp;D44,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H44" s="4" t="str" cm="1">
-        <f t="array" ref="H44">IF(OR(D44="",E44&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E44),"$",""))&amp;D44+1,
+        <f t="array" aca="1" ref="H44" ca="1">IF(OR(D44="",E44&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E44),"$",""))&amp;D44+1,
 IFERROR(INDEX(TablaDatos[],D44,E44),"")))</f>
         <v/>
       </c>
@@ -6890,28 +6905,28 @@
     </row>
     <row r="45" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
-        <f t="shared" si="28"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>31</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="29"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>31</v>
       </c>
       <c r="F45" s="1" cm="1">
-        <f t="array" ref="F45">IF(OR(D45="",G45=""),0,LEFT(G45)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D45,2)),2))</f>
+        <f t="array" aca="1" ref="F45" ca="1">IF(OR(D45="",G45=""),0,LEFT(G45)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D45,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G45" s="5" t="str" cm="1">
-        <f t="array" ref="G45">IF(OR(D45="",E45&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E45=3,1,E45)),"$",""))&amp;D45+1,
+        <f t="array" aca="1" ref="G45" ca="1">IF(OR(D45="",E45&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E45=3,1,E45)),"$",""))&amp;D45+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E45)&amp;IF(E45=3," "&amp;D45,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H45" s="4" t="str" cm="1">
-        <f t="array" ref="H45">IF(OR(D45="",E45&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E45),"$",""))&amp;D45+1,
+        <f t="array" aca="1" ref="H45" ca="1">IF(OR(D45="",E45&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E45),"$",""))&amp;D45+1,
 IFERROR(INDEX(TablaDatos[],D45,E45),"")))</f>
         <v/>
       </c>
@@ -7022,28 +7037,28 @@
     </row>
     <row r="46" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
-        <f t="shared" si="28"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>32</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="29"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>32</v>
       </c>
       <c r="F46" s="1" cm="1">
-        <f t="array" ref="F46">IF(OR(D46="",G46=""),0,LEFT(G46)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D46,2)),2))</f>
+        <f t="array" aca="1" ref="F46" ca="1">IF(OR(D46="",G46=""),0,LEFT(G46)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D46,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G46" s="5" t="str" cm="1">
-        <f t="array" ref="G46">IF(OR(D46="",E46&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E46=3,1,E46)),"$",""))&amp;D46+1,
+        <f t="array" aca="1" ref="G46" ca="1">IF(OR(D46="",E46&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E46=3,1,E46)),"$",""))&amp;D46+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E46)&amp;IF(E46=3," "&amp;D46,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H46" s="4" t="str" cm="1">
-        <f t="array" ref="H46">IF(OR(D46="",E46&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E46),"$",""))&amp;D46+1,
+        <f t="array" aca="1" ref="H46" ca="1">IF(OR(D46="",E46&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E46),"$",""))&amp;D46+1,
 IFERROR(INDEX(TablaDatos[],D46,E46),"")))</f>
         <v/>
       </c>
@@ -7154,28 +7169,28 @@
     </row>
     <row r="47" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
-        <f t="shared" si="28"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>33</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="29"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>33</v>
       </c>
       <c r="F47" s="1" cm="1">
-        <f t="array" ref="F47">IF(OR(D47="",G47=""),0,LEFT(G47)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D47,2)),2))</f>
+        <f t="array" aca="1" ref="F47" ca="1">IF(OR(D47="",G47=""),0,LEFT(G47)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D47,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G47" s="5" t="str" cm="1">
-        <f t="array" ref="G47">IF(OR(D47="",E47&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E47=3,1,E47)),"$",""))&amp;D47+1,
+        <f t="array" aca="1" ref="G47" ca="1">IF(OR(D47="",E47&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E47=3,1,E47)),"$",""))&amp;D47+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E47)&amp;IF(E47=3," "&amp;D47,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H47" s="4" t="str" cm="1">
-        <f t="array" ref="H47">IF(OR(D47="",E47&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E47),"$",""))&amp;D47+1,
+        <f t="array" aca="1" ref="H47" ca="1">IF(OR(D47="",E47&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E47),"$",""))&amp;D47+1,
 IFERROR(INDEX(TablaDatos[],D47,E47),"")))</f>
         <v/>
       </c>
@@ -7286,28 +7301,28 @@
     </row>
     <row r="48" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
-        <f t="shared" si="28"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>34</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="29"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>34</v>
       </c>
       <c r="F48" s="1" cm="1">
-        <f t="array" ref="F48">IF(OR(D48="",G48=""),0,LEFT(G48)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D48,2)),2))</f>
+        <f t="array" aca="1" ref="F48" ca="1">IF(OR(D48="",G48=""),0,LEFT(G48)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D48,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G48" s="5" t="str" cm="1">
-        <f t="array" ref="G48">IF(OR(D48="",E48&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E48=3,1,E48)),"$",""))&amp;D48+1,
+        <f t="array" aca="1" ref="G48" ca="1">IF(OR(D48="",E48&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E48=3,1,E48)),"$",""))&amp;D48+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E48)&amp;IF(E48=3," "&amp;D48,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H48" s="4" t="str" cm="1">
-        <f t="array" ref="H48">IF(OR(D48="",E48&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E48),"$",""))&amp;D48+1,
+        <f t="array" aca="1" ref="H48" ca="1">IF(OR(D48="",E48&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E48),"$",""))&amp;D48+1,
 IFERROR(INDEX(TablaDatos[],D48,E48),"")))</f>
         <v/>
       </c>
@@ -7418,28 +7433,28 @@
     </row>
     <row r="49" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
-        <f t="shared" si="28"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>35</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="29"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>35</v>
       </c>
       <c r="F49" s="1" cm="1">
-        <f t="array" ref="F49">IF(OR(D49="",G49=""),0,LEFT(G49)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D49,2)),2))</f>
+        <f t="array" aca="1" ref="F49" ca="1">IF(OR(D49="",G49=""),0,LEFT(G49)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D49,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G49" s="5" t="str" cm="1">
-        <f t="array" ref="G49">IF(OR(D49="",E49&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E49=3,1,E49)),"$",""))&amp;D49+1,
+        <f t="array" aca="1" ref="G49" ca="1">IF(OR(D49="",E49&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E49=3,1,E49)),"$",""))&amp;D49+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E49)&amp;IF(E49=3," "&amp;D49,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H49" s="4" t="str" cm="1">
-        <f t="array" ref="H49">IF(OR(D49="",E49&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E49),"$",""))&amp;D49+1,
+        <f t="array" aca="1" ref="H49" ca="1">IF(OR(D49="",E49&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E49),"$",""))&amp;D49+1,
 IFERROR(INDEX(TablaDatos[],D49,E49),"")))</f>
         <v/>
       </c>
@@ -7550,28 +7565,28 @@
     </row>
     <row r="50" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
-        <f t="shared" si="28"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>36</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="29"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>36</v>
       </c>
       <c r="F50" s="1" cm="1">
-        <f t="array" ref="F50">IF(OR(D50="",G50=""),0,LEFT(G50)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D50,2)),2))</f>
+        <f t="array" aca="1" ref="F50" ca="1">IF(OR(D50="",G50=""),0,LEFT(G50)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D50,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G50" s="5" t="str" cm="1">
-        <f t="array" ref="G50">IF(OR(D50="",E50&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E50=3,1,E50)),"$",""))&amp;D50+1,
+        <f t="array" aca="1" ref="G50" ca="1">IF(OR(D50="",E50&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E50=3,1,E50)),"$",""))&amp;D50+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E50)&amp;IF(E50=3," "&amp;D50,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H50" s="4" t="str" cm="1">
-        <f t="array" ref="H50">IF(OR(D50="",E50&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E50),"$",""))&amp;D50+1,
+        <f t="array" aca="1" ref="H50" ca="1">IF(OR(D50="",E50&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E50),"$",""))&amp;D50+1,
 IFERROR(INDEX(TablaDatos[],D50,E50),"")))</f>
         <v/>
       </c>
@@ -7682,28 +7697,28 @@
     </row>
     <row r="51" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
-        <f t="shared" si="28"/>
-        <v>49</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>37</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="29"/>
-        <v>49</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>37</v>
       </c>
       <c r="F51" s="1" cm="1">
-        <f t="array" ref="F51">IF(OR(D51="",G51=""),0,LEFT(G51)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D51,2)),2))</f>
+        <f t="array" aca="1" ref="F51" ca="1">IF(OR(D51="",G51=""),0,LEFT(G51)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D51,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G51" s="5" t="str" cm="1">
-        <f t="array" ref="G51">IF(OR(D51="",E51&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E51=3,1,E51)),"$",""))&amp;D51+1,
+        <f t="array" aca="1" ref="G51" ca="1">IF(OR(D51="",E51&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E51=3,1,E51)),"$",""))&amp;D51+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E51)&amp;IF(E51=3," "&amp;D51,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H51" s="4" t="str" cm="1">
-        <f t="array" ref="H51">IF(OR(D51="",E51&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E51),"$",""))&amp;D51+1,
+        <f t="array" aca="1" ref="H51" ca="1">IF(OR(D51="",E51&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E51),"$",""))&amp;D51+1,
 IFERROR(INDEX(TablaDatos[],D51,E51),"")))</f>
         <v/>
       </c>
@@ -7814,28 +7829,28 @@
     </row>
     <row r="52" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
-        <f t="shared" si="28"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>38</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="29"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>38</v>
       </c>
       <c r="F52" s="1" cm="1">
-        <f t="array" ref="F52">IF(OR(D52="",G52=""),0,LEFT(G52)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D52,2)),2))</f>
+        <f t="array" aca="1" ref="F52" ca="1">IF(OR(D52="",G52=""),0,LEFT(G52)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D52,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G52" s="5" t="str" cm="1">
-        <f t="array" ref="G52">IF(OR(D52="",E52&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E52=3,1,E52)),"$",""))&amp;D52+1,
+        <f t="array" aca="1" ref="G52" ca="1">IF(OR(D52="",E52&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E52=3,1,E52)),"$",""))&amp;D52+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E52)&amp;IF(E52=3," "&amp;D52,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H52" s="4" t="str" cm="1">
-        <f t="array" ref="H52">IF(OR(D52="",E52&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E52),"$",""))&amp;D52+1,
+        <f t="array" aca="1" ref="H52" ca="1">IF(OR(D52="",E52&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E52),"$",""))&amp;D52+1,
 IFERROR(INDEX(TablaDatos[],D52,E52),"")))</f>
         <v/>
       </c>
@@ -7946,28 +7961,28 @@
     </row>
     <row r="53" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
-        <f t="shared" si="28"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>39</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="29"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>39</v>
       </c>
       <c r="F53" s="1" cm="1">
-        <f t="array" ref="F53">IF(OR(D53="",G53=""),0,LEFT(G53)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D53,2)),2))</f>
+        <f t="array" aca="1" ref="F53" ca="1">IF(OR(D53="",G53=""),0,LEFT(G53)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D53,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G53" s="5" t="str" cm="1">
-        <f t="array" ref="G53">IF(OR(D53="",E53&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E53=3,1,E53)),"$",""))&amp;D53+1,
+        <f t="array" aca="1" ref="G53" ca="1">IF(OR(D53="",E53&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E53=3,1,E53)),"$",""))&amp;D53+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E53)&amp;IF(E53=3," "&amp;D53,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H53" s="4" t="str" cm="1">
-        <f t="array" ref="H53">IF(OR(D53="",E53&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E53),"$",""))&amp;D53+1,
+        <f t="array" aca="1" ref="H53" ca="1">IF(OR(D53="",E53&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E53),"$",""))&amp;D53+1,
 IFERROR(INDEX(TablaDatos[],D53,E53),"")))</f>
         <v/>
       </c>
@@ -8078,28 +8093,28 @@
     </row>
     <row r="54" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
-        <f t="shared" si="28"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>40</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="29"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>40</v>
       </c>
       <c r="F54" s="1" cm="1">
-        <f t="array" ref="F54">IF(OR(D54="",G54=""),0,LEFT(G54)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D54,2)),2))</f>
+        <f t="array" aca="1" ref="F54" ca="1">IF(OR(D54="",G54=""),0,LEFT(G54)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D54,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G54" s="5" t="str" cm="1">
-        <f t="array" ref="G54">IF(OR(D54="",E54&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E54=3,1,E54)),"$",""))&amp;D54+1,
+        <f t="array" aca="1" ref="G54" ca="1">IF(OR(D54="",E54&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E54=3,1,E54)),"$",""))&amp;D54+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E54)&amp;IF(E54=3," "&amp;D54,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H54" s="4" t="str" cm="1">
-        <f t="array" ref="H54">IF(OR(D54="",E54&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E54),"$",""))&amp;D54+1,
+        <f t="array" aca="1" ref="H54" ca="1">IF(OR(D54="",E54&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E54),"$",""))&amp;D54+1,
 IFERROR(INDEX(TablaDatos[],D54,E54),"")))</f>
         <v/>
       </c>
@@ -8210,28 +8225,28 @@
     </row>
     <row r="55" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
-        <f t="shared" si="28"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>41</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="29"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>41</v>
       </c>
       <c r="F55" s="1" cm="1">
-        <f t="array" ref="F55">IF(OR(D55="",G55=""),0,LEFT(G55)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D55,2)),2))</f>
+        <f t="array" aca="1" ref="F55" ca="1">IF(OR(D55="",G55=""),0,LEFT(G55)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D55,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G55" s="5" t="str" cm="1">
-        <f t="array" ref="G55">IF(OR(D55="",E55&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E55=3,1,E55)),"$",""))&amp;D55+1,
+        <f t="array" aca="1" ref="G55" ca="1">IF(OR(D55="",E55&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E55=3,1,E55)),"$",""))&amp;D55+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E55)&amp;IF(E55=3," "&amp;D55,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H55" s="4" t="str" cm="1">
-        <f t="array" ref="H55">IF(OR(D55="",E55&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E55),"$",""))&amp;D55+1,
+        <f t="array" aca="1" ref="H55" ca="1">IF(OR(D55="",E55&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E55),"$",""))&amp;D55+1,
 IFERROR(INDEX(TablaDatos[],D55,E55),"")))</f>
         <v/>
       </c>
@@ -8342,28 +8357,28 @@
     </row>
     <row r="56" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
-        <f t="shared" si="28"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>42</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="29"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>42</v>
       </c>
       <c r="F56" s="1" cm="1">
-        <f t="array" ref="F56">IF(OR(D56="",G56=""),0,LEFT(G56)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D56,2)),2))</f>
+        <f t="array" aca="1" ref="F56" ca="1">IF(OR(D56="",G56=""),0,LEFT(G56)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D56,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G56" s="5" t="str" cm="1">
-        <f t="array" ref="G56">IF(OR(D56="",E56&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E56=3,1,E56)),"$",""))&amp;D56+1,
+        <f t="array" aca="1" ref="G56" ca="1">IF(OR(D56="",E56&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E56=3,1,E56)),"$",""))&amp;D56+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E56)&amp;IF(E56=3," "&amp;D56,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H56" s="4" t="str" cm="1">
-        <f t="array" ref="H56">IF(OR(D56="",E56&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E56),"$",""))&amp;D56+1,
+        <f t="array" aca="1" ref="H56" ca="1">IF(OR(D56="",E56&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E56),"$",""))&amp;D56+1,
 IFERROR(INDEX(TablaDatos[],D56,E56),"")))</f>
         <v/>
       </c>
@@ -8474,28 +8489,28 @@
     </row>
     <row r="57" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
-        <f t="shared" si="28"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>43</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="29"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>43</v>
       </c>
       <c r="F57" s="1" cm="1">
-        <f t="array" ref="F57">IF(OR(D57="",G57=""),0,LEFT(G57)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D57,2)),2))</f>
+        <f t="array" aca="1" ref="F57" ca="1">IF(OR(D57="",G57=""),0,LEFT(G57)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D57,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G57" s="5" t="str" cm="1">
-        <f t="array" ref="G57">IF(OR(D57="",E57&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E57=3,1,E57)),"$",""))&amp;D57+1,
+        <f t="array" aca="1" ref="G57" ca="1">IF(OR(D57="",E57&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E57=3,1,E57)),"$",""))&amp;D57+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E57)&amp;IF(E57=3," "&amp;D57,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H57" s="4" t="str" cm="1">
-        <f t="array" ref="H57">IF(OR(D57="",E57&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E57),"$",""))&amp;D57+1,
+        <f t="array" aca="1" ref="H57" ca="1">IF(OR(D57="",E57&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E57),"$",""))&amp;D57+1,
 IFERROR(INDEX(TablaDatos[],D57,E57),"")))</f>
         <v/>
       </c>
@@ -8606,28 +8621,28 @@
     </row>
     <row r="58" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
-        <f t="shared" si="28"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>44</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="29"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
       </c>
       <c r="F58" s="1" cm="1">
-        <f t="array" ref="F58">IF(OR(D58="",G58=""),0,LEFT(G58)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D58,2)),2))</f>
+        <f t="array" aca="1" ref="F58" ca="1">IF(OR(D58="",G58=""),0,LEFT(G58)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D58,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G58" s="5" t="str" cm="1">
-        <f t="array" ref="G58">IF(OR(D58="",E58&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E58=3,1,E58)),"$",""))&amp;D58+1,
+        <f t="array" aca="1" ref="G58" ca="1">IF(OR(D58="",E58&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E58=3,1,E58)),"$",""))&amp;D58+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E58)&amp;IF(E58=3," "&amp;D58,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H58" s="4" t="str" cm="1">
-        <f t="array" ref="H58">IF(OR(D58="",E58&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E58),"$",""))&amp;D58+1,
+        <f t="array" aca="1" ref="H58" ca="1">IF(OR(D58="",E58&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E58),"$",""))&amp;D58+1,
 IFERROR(INDEX(TablaDatos[],D58,E58),"")))</f>
         <v/>
       </c>
@@ -8738,28 +8753,28 @@
     </row>
     <row r="59" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C59" s="1">
-        <f t="shared" si="28"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="29"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
       </c>
       <c r="F59" s="1" cm="1">
-        <f t="array" ref="F59">IF(OR(D59="",G59=""),0,LEFT(G59)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D59,2)),2))</f>
+        <f t="array" aca="1" ref="F59" ca="1">IF(OR(D59="",G59=""),0,LEFT(G59)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D59,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G59" s="5" t="str" cm="1">
-        <f t="array" ref="G59">IF(OR(D59="",E59&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E59=3,1,E59)),"$",""))&amp;D59+1,
+        <f t="array" aca="1" ref="G59" ca="1">IF(OR(D59="",E59&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E59=3,1,E59)),"$",""))&amp;D59+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E59)&amp;IF(E59=3," "&amp;D59,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H59" s="4" t="str" cm="1">
-        <f t="array" ref="H59">IF(OR(D59="",E59&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E59),"$",""))&amp;D59+1,
+        <f t="array" aca="1" ref="H59" ca="1">IF(OR(D59="",E59&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E59),"$",""))&amp;D59+1,
 IFERROR(INDEX(TablaDatos[],D59,E59),"")))</f>
         <v/>
       </c>
@@ -8870,28 +8885,28 @@
     </row>
     <row r="60" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C60" s="1">
-        <f t="shared" si="28"/>
-        <v>58</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="29"/>
-        <v>58</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>46</v>
       </c>
       <c r="F60" s="1" cm="1">
-        <f t="array" ref="F60">IF(OR(D60="",G60=""),0,LEFT(G60)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D60,2)),2))</f>
+        <f t="array" aca="1" ref="F60" ca="1">IF(OR(D60="",G60=""),0,LEFT(G60)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D60,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G60" s="5" t="str" cm="1">
-        <f t="array" ref="G60">IF(OR(D60="",E60&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E60=3,1,E60)),"$",""))&amp;D60+1,
+        <f t="array" aca="1" ref="G60" ca="1">IF(OR(D60="",E60&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E60=3,1,E60)),"$",""))&amp;D60+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E60)&amp;IF(E60=3," "&amp;D60,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H60" s="4" t="str" cm="1">
-        <f t="array" ref="H60">IF(OR(D60="",E60&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E60),"$",""))&amp;D60+1,
+        <f t="array" aca="1" ref="H60" ca="1">IF(OR(D60="",E60&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E60),"$",""))&amp;D60+1,
 IFERROR(INDEX(TablaDatos[],D60,E60),"")))</f>
         <v/>
       </c>
@@ -9002,28 +9017,28 @@
     </row>
     <row r="61" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C61" s="1">
-        <f t="shared" si="28"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="29"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>47</v>
       </c>
       <c r="F61" s="1" cm="1">
-        <f t="array" ref="F61">IF(OR(D61="",G61=""),0,LEFT(G61)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D61,2)),2))</f>
+        <f t="array" aca="1" ref="F61" ca="1">IF(OR(D61="",G61=""),0,LEFT(G61)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D61,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G61" s="5" t="str" cm="1">
-        <f t="array" ref="G61">IF(OR(D61="",E61&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E61=3,1,E61)),"$",""))&amp;D61+1,
+        <f t="array" aca="1" ref="G61" ca="1">IF(OR(D61="",E61&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E61=3,1,E61)),"$",""))&amp;D61+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E61)&amp;IF(E61=3," "&amp;D61,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H61" s="4" t="str" cm="1">
-        <f t="array" ref="H61">IF(OR(D61="",E61&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E61),"$",""))&amp;D61+1,
+        <f t="array" aca="1" ref="H61" ca="1">IF(OR(D61="",E61&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E61),"$",""))&amp;D61+1,
 IFERROR(INDEX(TablaDatos[],D61,E61),"")))</f>
         <v/>
       </c>
@@ -9134,28 +9149,28 @@
     </row>
     <row r="62" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C62" s="1">
-        <f t="shared" si="28"/>
-        <v>60</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>48</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="29"/>
-        <v>60</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>48</v>
       </c>
       <c r="F62" s="1" cm="1">
-        <f t="array" ref="F62">IF(OR(D62="",G62=""),0,LEFT(G62)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D62,2)),2))</f>
+        <f t="array" aca="1" ref="F62" ca="1">IF(OR(D62="",G62=""),0,LEFT(G62)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D62,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G62" s="5" t="str" cm="1">
-        <f t="array" ref="G62">IF(OR(D62="",E62&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E62=3,1,E62)),"$",""))&amp;D62+1,
+        <f t="array" aca="1" ref="G62" ca="1">IF(OR(D62="",E62&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E62=3,1,E62)),"$",""))&amp;D62+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E62)&amp;IF(E62=3," "&amp;D62,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H62" s="4" t="str" cm="1">
-        <f t="array" ref="H62">IF(OR(D62="",E62&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E62),"$",""))&amp;D62+1,
+        <f t="array" aca="1" ref="H62" ca="1">IF(OR(D62="",E62&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E62),"$",""))&amp;D62+1,
 IFERROR(INDEX(TablaDatos[],D62,E62),"")))</f>
         <v/>
       </c>
@@ -9266,28 +9281,28 @@
     </row>
     <row r="63" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C63" s="1">
-        <f t="shared" si="28"/>
-        <v>61</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>49</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="29"/>
-        <v>61</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>49</v>
       </c>
       <c r="F63" s="1" cm="1">
-        <f t="array" ref="F63">IF(OR(D63="",G63=""),0,LEFT(G63)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D63,2)),2))</f>
+        <f t="array" aca="1" ref="F63" ca="1">IF(OR(D63="",G63=""),0,LEFT(G63)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D63,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G63" s="5" t="str" cm="1">
-        <f t="array" ref="G63">IF(OR(D63="",E63&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E63=3,1,E63)),"$",""))&amp;D63+1,
+        <f t="array" aca="1" ref="G63" ca="1">IF(OR(D63="",E63&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E63=3,1,E63)),"$",""))&amp;D63+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E63)&amp;IF(E63=3," "&amp;D63,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H63" s="4" t="str" cm="1">
-        <f t="array" ref="H63">IF(OR(D63="",E63&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E63),"$",""))&amp;D63+1,
+        <f t="array" aca="1" ref="H63" ca="1">IF(OR(D63="",E63&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E63),"$",""))&amp;D63+1,
 IFERROR(INDEX(TablaDatos[],D63,E63),"")))</f>
         <v/>
       </c>
@@ -9398,28 +9413,28 @@
     </row>
     <row r="64" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C64" s="1">
-        <f t="shared" si="28"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>50</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="29"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>50</v>
       </c>
       <c r="F64" s="1" cm="1">
-        <f t="array" ref="F64">IF(OR(D64="",G64=""),0,LEFT(G64)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D64,2)),2))</f>
+        <f t="array" aca="1" ref="F64" ca="1">IF(OR(D64="",G64=""),0,LEFT(G64)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D64,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G64" s="5" t="str" cm="1">
-        <f t="array" ref="G64">IF(OR(D64="",E64&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E64=3,1,E64)),"$",""))&amp;D64+1,
+        <f t="array" aca="1" ref="G64" ca="1">IF(OR(D64="",E64&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E64=3,1,E64)),"$",""))&amp;D64+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E64)&amp;IF(E64=3," "&amp;D64,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H64" s="4" t="str" cm="1">
-        <f t="array" ref="H64">IF(OR(D64="",E64&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E64),"$",""))&amp;D64+1,
+        <f t="array" aca="1" ref="H64" ca="1">IF(OR(D64="",E64&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E64),"$",""))&amp;D64+1,
 IFERROR(INDEX(TablaDatos[],D64,E64),"")))</f>
         <v/>
       </c>
@@ -9530,28 +9545,28 @@
     </row>
     <row r="65" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C65" s="1">
-        <f t="shared" si="28"/>
-        <v>63</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>51</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="29"/>
-        <v>63</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>51</v>
       </c>
       <c r="F65" s="1" cm="1">
-        <f t="array" ref="F65">IF(OR(D65="",G65=""),0,LEFT(G65)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D65,2)),2))</f>
+        <f t="array" aca="1" ref="F65" ca="1">IF(OR(D65="",G65=""),0,LEFT(G65)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D65,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G65" s="5" t="str" cm="1">
-        <f t="array" ref="G65">IF(OR(D65="",E65&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E65=3,1,E65)),"$",""))&amp;D65+1,
+        <f t="array" aca="1" ref="G65" ca="1">IF(OR(D65="",E65&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E65=3,1,E65)),"$",""))&amp;D65+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E65)&amp;IF(E65=3," "&amp;D65,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H65" s="4" t="str" cm="1">
-        <f t="array" ref="H65">IF(OR(D65="",E65&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E65),"$",""))&amp;D65+1,
+        <f t="array" aca="1" ref="H65" ca="1">IF(OR(D65="",E65&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E65),"$",""))&amp;D65+1,
 IFERROR(INDEX(TablaDatos[],D65,E65),"")))</f>
         <v/>
       </c>
@@ -9662,28 +9677,28 @@
     </row>
     <row r="66" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C66" s="1">
-        <f t="shared" si="28"/>
-        <v>64</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>52</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="29"/>
-        <v>64</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>52</v>
       </c>
       <c r="F66" s="1" cm="1">
-        <f t="array" ref="F66">IF(OR(D66="",G66=""),0,LEFT(G66)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D66,2)),2))</f>
+        <f t="array" aca="1" ref="F66" ca="1">IF(OR(D66="",G66=""),0,LEFT(G66)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D66,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G66" s="5" t="str" cm="1">
-        <f t="array" ref="G66">IF(OR(D66="",E66&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E66=3,1,E66)),"$",""))&amp;D66+1,
+        <f t="array" aca="1" ref="G66" ca="1">IF(OR(D66="",E66&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E66=3,1,E66)),"$",""))&amp;D66+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E66)&amp;IF(E66=3," "&amp;D66,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H66" s="4" t="str" cm="1">
-        <f t="array" ref="H66">IF(OR(D66="",E66&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E66),"$",""))&amp;D66+1,
+        <f t="array" aca="1" ref="H66" ca="1">IF(OR(D66="",E66&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E66),"$",""))&amp;D66+1,
 IFERROR(INDEX(TablaDatos[],D66,E66),"")))</f>
         <v/>
       </c>
@@ -9794,28 +9809,28 @@
     </row>
     <row r="67" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C67" s="1">
-        <f t="shared" si="28"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>53</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="29"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>53</v>
       </c>
       <c r="F67" s="1" cm="1">
-        <f t="array" ref="F67">IF(OR(D67="",G67=""),0,LEFT(G67)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D67,2)),2))</f>
+        <f t="array" aca="1" ref="F67" ca="1">IF(OR(D67="",G67=""),0,LEFT(G67)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D67,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G67" s="5" t="str" cm="1">
-        <f t="array" ref="G67">IF(OR(D67="",E67&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E67=3,1,E67)),"$",""))&amp;D67+1,
+        <f t="array" aca="1" ref="G67" ca="1">IF(OR(D67="",E67&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E67=3,1,E67)),"$",""))&amp;D67+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E67)&amp;IF(E67=3," "&amp;D67,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H67" s="4" t="str" cm="1">
-        <f t="array" ref="H67">IF(OR(D67="",E67&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E67),"$",""))&amp;D67+1,
+        <f t="array" aca="1" ref="H67" ca="1">IF(OR(D67="",E67&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E67),"$",""))&amp;D67+1,
 IFERROR(INDEX(TablaDatos[],D67,E67),"")))</f>
         <v/>
       </c>
@@ -9926,28 +9941,28 @@
     </row>
     <row r="68" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C68" s="1">
-        <f t="shared" si="28"/>
-        <v>66</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>54</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f t="shared" ref="D68:D99" si="36">IF(C68&gt;C67,IFERROR(SMALL(C$102:C$201,C68),""),D67)</f>
+        <f t="shared" ref="D68:D99" ca="1" si="36">IF(C68&gt;C67,IFERROR(SMALL(C$102:C$201,C68),""),D67)</f>
         <v/>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="29"/>
-        <v>66</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>54</v>
       </c>
       <c r="F68" s="1" cm="1">
-        <f t="array" ref="F68">IF(OR(D68="",G68=""),0,LEFT(G68)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D68,2)),2))</f>
+        <f t="array" aca="1" ref="F68" ca="1">IF(OR(D68="",G68=""),0,LEFT(G68)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D68,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G68" s="5" t="str" cm="1">
-        <f t="array" ref="G68">IF(OR(D68="",E68&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E68=3,1,E68)),"$",""))&amp;D68+1,
+        <f t="array" aca="1" ref="G68" ca="1">IF(OR(D68="",E68&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E68=3,1,E68)),"$",""))&amp;D68+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E68)&amp;IF(E68=3," "&amp;D68,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H68" s="4" t="str" cm="1">
-        <f t="array" ref="H68">IF(OR(D68="",E68&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E68),"$",""))&amp;D68+1,
+        <f t="array" aca="1" ref="H68" ca="1">IF(OR(D68="",E68&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E68),"$",""))&amp;D68+1,
 IFERROR(INDEX(TablaDatos[],D68,E68),"")))</f>
         <v/>
       </c>
@@ -10058,28 +10073,28 @@
     </row>
     <row r="69" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C69" s="1">
-        <f t="shared" si="28"/>
-        <v>67</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>55</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="29"/>
-        <v>67</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>55</v>
       </c>
       <c r="F69" s="1" cm="1">
-        <f t="array" ref="F69">IF(OR(D69="",G69=""),0,LEFT(G69)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D69,2)),2))</f>
+        <f t="array" aca="1" ref="F69" ca="1">IF(OR(D69="",G69=""),0,LEFT(G69)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D69,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G69" s="5" t="str" cm="1">
-        <f t="array" ref="G69">IF(OR(D69="",E69&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E69=3,1,E69)),"$",""))&amp;D69+1,
+        <f t="array" aca="1" ref="G69" ca="1">IF(OR(D69="",E69&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E69=3,1,E69)),"$",""))&amp;D69+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E69)&amp;IF(E69=3," "&amp;D69,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H69" s="4" t="str" cm="1">
-        <f t="array" ref="H69">IF(OR(D69="",E69&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E69),"$",""))&amp;D69+1,
+        <f t="array" aca="1" ref="H69" ca="1">IF(OR(D69="",E69&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E69),"$",""))&amp;D69+1,
 IFERROR(INDEX(TablaDatos[],D69,E69),"")))</f>
         <v/>
       </c>
@@ -10190,28 +10205,28 @@
     </row>
     <row r="70" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C70" s="1">
-        <f t="shared" si="28"/>
-        <v>68</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>56</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="29"/>
-        <v>68</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>56</v>
       </c>
       <c r="F70" s="1" cm="1">
-        <f t="array" ref="F70">IF(OR(D70="",G70=""),0,LEFT(G70)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D70,2)),2))</f>
+        <f t="array" aca="1" ref="F70" ca="1">IF(OR(D70="",G70=""),0,LEFT(G70)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D70,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G70" s="5" t="str" cm="1">
-        <f t="array" ref="G70">IF(OR(D70="",E70&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E70=3,1,E70)),"$",""))&amp;D70+1,
+        <f t="array" aca="1" ref="G70" ca="1">IF(OR(D70="",E70&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E70=3,1,E70)),"$",""))&amp;D70+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E70)&amp;IF(E70=3," "&amp;D70,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H70" s="4" t="str" cm="1">
-        <f t="array" ref="H70">IF(OR(D70="",E70&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E70),"$",""))&amp;D70+1,
+        <f t="array" aca="1" ref="H70" ca="1">IF(OR(D70="",E70&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E70),"$",""))&amp;D70+1,
 IFERROR(INDEX(TablaDatos[],D70,E70),"")))</f>
         <v/>
       </c>
@@ -10322,28 +10337,28 @@
     </row>
     <row r="71" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C71" s="1">
-        <f t="shared" si="28"/>
-        <v>69</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>57</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="29"/>
-        <v>69</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>57</v>
       </c>
       <c r="F71" s="1" cm="1">
-        <f t="array" ref="F71">IF(OR(D71="",G71=""),0,LEFT(G71)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D71,2)),2))</f>
+        <f t="array" aca="1" ref="F71" ca="1">IF(OR(D71="",G71=""),0,LEFT(G71)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D71,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G71" s="5" t="str" cm="1">
-        <f t="array" ref="G71">IF(OR(D71="",E71&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E71=3,1,E71)),"$",""))&amp;D71+1,
+        <f t="array" aca="1" ref="G71" ca="1">IF(OR(D71="",E71&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E71=3,1,E71)),"$",""))&amp;D71+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E71)&amp;IF(E71=3," "&amp;D71,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H71" s="4" t="str" cm="1">
-        <f t="array" ref="H71">IF(OR(D71="",E71&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E71),"$",""))&amp;D71+1,
+        <f t="array" aca="1" ref="H71" ca="1">IF(OR(D71="",E71&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E71),"$",""))&amp;D71+1,
 IFERROR(INDEX(TablaDatos[],D71,E71),"")))</f>
         <v/>
       </c>
@@ -10454,28 +10469,28 @@
     </row>
     <row r="72" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C72" s="1">
-        <f t="shared" si="28"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>58</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="29"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>58</v>
       </c>
       <c r="F72" s="1" cm="1">
-        <f t="array" ref="F72">IF(OR(D72="",G72=""),0,LEFT(G72)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D72,2)),2))</f>
+        <f t="array" aca="1" ref="F72" ca="1">IF(OR(D72="",G72=""),0,LEFT(G72)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D72,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G72" s="5" t="str" cm="1">
-        <f t="array" ref="G72">IF(OR(D72="",E72&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E72=3,1,E72)),"$",""))&amp;D72+1,
+        <f t="array" aca="1" ref="G72" ca="1">IF(OR(D72="",E72&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E72=3,1,E72)),"$",""))&amp;D72+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E72)&amp;IF(E72=3," "&amp;D72,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H72" s="4" t="str" cm="1">
-        <f t="array" ref="H72">IF(OR(D72="",E72&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E72),"$",""))&amp;D72+1,
+        <f t="array" aca="1" ref="H72" ca="1">IF(OR(D72="",E72&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E72),"$",""))&amp;D72+1,
 IFERROR(INDEX(TablaDatos[],D72,E72),"")))</f>
         <v/>
       </c>
@@ -10586,28 +10601,28 @@
     </row>
     <row r="73" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C73" s="1">
-        <f t="shared" si="28"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>59</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="29"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>59</v>
       </c>
       <c r="F73" s="1" cm="1">
-        <f t="array" ref="F73">IF(OR(D73="",G73=""),0,LEFT(G73)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D73,2)),2))</f>
+        <f t="array" aca="1" ref="F73" ca="1">IF(OR(D73="",G73=""),0,LEFT(G73)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D73,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G73" s="5" t="str" cm="1">
-        <f t="array" ref="G73">IF(OR(D73="",E73&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E73=3,1,E73)),"$",""))&amp;D73+1,
+        <f t="array" aca="1" ref="G73" ca="1">IF(OR(D73="",E73&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E73=3,1,E73)),"$",""))&amp;D73+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E73)&amp;IF(E73=3," "&amp;D73,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H73" s="4" t="str" cm="1">
-        <f t="array" ref="H73">IF(OR(D73="",E73&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E73),"$",""))&amp;D73+1,
+        <f t="array" aca="1" ref="H73" ca="1">IF(OR(D73="",E73&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E73),"$",""))&amp;D73+1,
 IFERROR(INDEX(TablaDatos[],D73,E73),"")))</f>
         <v/>
       </c>
@@ -10718,28 +10733,28 @@
     </row>
     <row r="74" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C74" s="1">
-        <f t="shared" si="28"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>60</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="29"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>60</v>
       </c>
       <c r="F74" s="1" cm="1">
-        <f t="array" ref="F74">IF(OR(D74="",G74=""),0,LEFT(G74)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D74,2)),2))</f>
+        <f t="array" aca="1" ref="F74" ca="1">IF(OR(D74="",G74=""),0,LEFT(G74)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D74,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G74" s="5" t="str" cm="1">
-        <f t="array" ref="G74">IF(OR(D74="",E74&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E74=3,1,E74)),"$",""))&amp;D74+1,
+        <f t="array" aca="1" ref="G74" ca="1">IF(OR(D74="",E74&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E74=3,1,E74)),"$",""))&amp;D74+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E74)&amp;IF(E74=3," "&amp;D74,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H74" s="4" t="str" cm="1">
-        <f t="array" ref="H74">IF(OR(D74="",E74&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E74),"$",""))&amp;D74+1,
+        <f t="array" aca="1" ref="H74" ca="1">IF(OR(D74="",E74&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E74),"$",""))&amp;D74+1,
 IFERROR(INDEX(TablaDatos[],D74,E74),"")))</f>
         <v/>
       </c>
@@ -10850,28 +10865,28 @@
     </row>
     <row r="75" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C75" s="1">
-        <f t="shared" si="28"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>61</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="29"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>61</v>
       </c>
       <c r="F75" s="1" cm="1">
-        <f t="array" ref="F75">IF(OR(D75="",G75=""),0,LEFT(G75)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D75,2)),2))</f>
+        <f t="array" aca="1" ref="F75" ca="1">IF(OR(D75="",G75=""),0,LEFT(G75)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D75,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G75" s="5" t="str" cm="1">
-        <f t="array" ref="G75">IF(OR(D75="",E75&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E75=3,1,E75)),"$",""))&amp;D75+1,
+        <f t="array" aca="1" ref="G75" ca="1">IF(OR(D75="",E75&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E75=3,1,E75)),"$",""))&amp;D75+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E75)&amp;IF(E75=3," "&amp;D75,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H75" s="4" t="str" cm="1">
-        <f t="array" ref="H75">IF(OR(D75="",E75&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E75),"$",""))&amp;D75+1,
+        <f t="array" aca="1" ref="H75" ca="1">IF(OR(D75="",E75&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E75),"$",""))&amp;D75+1,
 IFERROR(INDEX(TablaDatos[],D75,E75),"")))</f>
         <v/>
       </c>
@@ -10982,28 +10997,28 @@
     </row>
     <row r="76" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C76" s="1">
-        <f t="shared" si="28"/>
-        <v>74</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>62</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="29"/>
-        <v>74</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>62</v>
       </c>
       <c r="F76" s="1" cm="1">
-        <f t="array" ref="F76">IF(OR(D76="",G76=""),0,LEFT(G76)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D76,2)),2))</f>
+        <f t="array" aca="1" ref="F76" ca="1">IF(OR(D76="",G76=""),0,LEFT(G76)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D76,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G76" s="5" t="str" cm="1">
-        <f t="array" ref="G76">IF(OR(D76="",E76&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E76=3,1,E76)),"$",""))&amp;D76+1,
+        <f t="array" aca="1" ref="G76" ca="1">IF(OR(D76="",E76&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E76=3,1,E76)),"$",""))&amp;D76+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E76)&amp;IF(E76=3," "&amp;D76,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H76" s="4" t="str" cm="1">
-        <f t="array" ref="H76">IF(OR(D76="",E76&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E76),"$",""))&amp;D76+1,
+        <f t="array" aca="1" ref="H76" ca="1">IF(OR(D76="",E76&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E76),"$",""))&amp;D76+1,
 IFERROR(INDEX(TablaDatos[],D76,E76),"")))</f>
         <v/>
       </c>
@@ -11114,28 +11129,28 @@
     </row>
     <row r="77" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C77" s="1">
-        <f t="shared" si="28"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>63</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="29"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>63</v>
       </c>
       <c r="F77" s="1" cm="1">
-        <f t="array" ref="F77">IF(OR(D77="",G77=""),0,LEFT(G77)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D77,2)),2))</f>
+        <f t="array" aca="1" ref="F77" ca="1">IF(OR(D77="",G77=""),0,LEFT(G77)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D77,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G77" s="5" t="str" cm="1">
-        <f t="array" ref="G77">IF(OR(D77="",E77&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E77=3,1,E77)),"$",""))&amp;D77+1,
+        <f t="array" aca="1" ref="G77" ca="1">IF(OR(D77="",E77&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E77=3,1,E77)),"$",""))&amp;D77+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E77)&amp;IF(E77=3," "&amp;D77,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H77" s="4" t="str" cm="1">
-        <f t="array" ref="H77">IF(OR(D77="",E77&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E77),"$",""))&amp;D77+1,
+        <f t="array" aca="1" ref="H77" ca="1">IF(OR(D77="",E77&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E77),"$",""))&amp;D77+1,
 IFERROR(INDEX(TablaDatos[],D77,E77),"")))</f>
         <v/>
       </c>
@@ -11246,28 +11261,28 @@
     </row>
     <row r="78" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C78" s="1">
-        <f t="shared" si="28"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>64</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="29"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>64</v>
       </c>
       <c r="F78" s="1" cm="1">
-        <f t="array" ref="F78">IF(OR(D78="",G78=""),0,LEFT(G78)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D78,2)),2))</f>
+        <f t="array" aca="1" ref="F78" ca="1">IF(OR(D78="",G78=""),0,LEFT(G78)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D78,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G78" s="5" t="str" cm="1">
-        <f t="array" ref="G78">IF(OR(D78="",E78&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E78=3,1,E78)),"$",""))&amp;D78+1,
+        <f t="array" aca="1" ref="G78" ca="1">IF(OR(D78="",E78&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E78=3,1,E78)),"$",""))&amp;D78+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E78)&amp;IF(E78=3," "&amp;D78,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H78" s="4" t="str" cm="1">
-        <f t="array" ref="H78">IF(OR(D78="",E78&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E78),"$",""))&amp;D78+1,
+        <f t="array" aca="1" ref="H78" ca="1">IF(OR(D78="",E78&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E78),"$",""))&amp;D78+1,
 IFERROR(INDEX(TablaDatos[],D78,E78),"")))</f>
         <v/>
       </c>
@@ -11378,28 +11393,28 @@
     </row>
     <row r="79" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C79" s="1">
-        <f t="shared" si="28"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>65</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="29"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>65</v>
       </c>
       <c r="F79" s="1" cm="1">
-        <f t="array" ref="F79">IF(OR(D79="",G79=""),0,LEFT(G79)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D79,2)),2))</f>
+        <f t="array" aca="1" ref="F79" ca="1">IF(OR(D79="",G79=""),0,LEFT(G79)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D79,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G79" s="5" t="str" cm="1">
-        <f t="array" ref="G79">IF(OR(D79="",E79&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E79=3,1,E79)),"$",""))&amp;D79+1,
+        <f t="array" aca="1" ref="G79" ca="1">IF(OR(D79="",E79&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E79=3,1,E79)),"$",""))&amp;D79+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E79)&amp;IF(E79=3," "&amp;D79,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H79" s="4" t="str" cm="1">
-        <f t="array" ref="H79">IF(OR(D79="",E79&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E79),"$",""))&amp;D79+1,
+        <f t="array" aca="1" ref="H79" ca="1">IF(OR(D79="",E79&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E79),"$",""))&amp;D79+1,
 IFERROR(INDEX(TablaDatos[],D79,E79),"")))</f>
         <v/>
       </c>
@@ -11510,28 +11525,28 @@
     </row>
     <row r="80" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C80" s="1">
-        <f t="shared" si="28"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>66</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="29"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>66</v>
       </c>
       <c r="F80" s="1" cm="1">
-        <f t="array" ref="F80">IF(OR(D80="",G80=""),0,LEFT(G80)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D80,2)),2))</f>
+        <f t="array" aca="1" ref="F80" ca="1">IF(OR(D80="",G80=""),0,LEFT(G80)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D80,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G80" s="5" t="str" cm="1">
-        <f t="array" ref="G80">IF(OR(D80="",E80&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E80=3,1,E80)),"$",""))&amp;D80+1,
+        <f t="array" aca="1" ref="G80" ca="1">IF(OR(D80="",E80&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E80=3,1,E80)),"$",""))&amp;D80+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E80)&amp;IF(E80=3," "&amp;D80,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H80" s="4" t="str" cm="1">
-        <f t="array" ref="H80">IF(OR(D80="",E80&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E80),"$",""))&amp;D80+1,
+        <f t="array" aca="1" ref="H80" ca="1">IF(OR(D80="",E80&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E80),"$",""))&amp;D80+1,
 IFERROR(INDEX(TablaDatos[],D80,E80),"")))</f>
         <v/>
       </c>
@@ -11642,28 +11657,28 @@
     </row>
     <row r="81" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C81" s="1">
-        <f t="shared" si="28"/>
-        <v>79</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>67</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="29"/>
-        <v>79</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>67</v>
       </c>
       <c r="F81" s="1" cm="1">
-        <f t="array" ref="F81">IF(OR(D81="",G81=""),0,LEFT(G81)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D81,2)),2))</f>
+        <f t="array" aca="1" ref="F81" ca="1">IF(OR(D81="",G81=""),0,LEFT(G81)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D81,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G81" s="5" t="str" cm="1">
-        <f t="array" ref="G81">IF(OR(D81="",E81&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E81=3,1,E81)),"$",""))&amp;D81+1,
+        <f t="array" aca="1" ref="G81" ca="1">IF(OR(D81="",E81&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E81=3,1,E81)),"$",""))&amp;D81+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E81)&amp;IF(E81=3," "&amp;D81,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H81" s="4" t="str" cm="1">
-        <f t="array" ref="H81">IF(OR(D81="",E81&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E81),"$",""))&amp;D81+1,
+        <f t="array" aca="1" ref="H81" ca="1">IF(OR(D81="",E81&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E81),"$",""))&amp;D81+1,
 IFERROR(INDEX(TablaDatos[],D81,E81),"")))</f>
         <v/>
       </c>
@@ -11774,28 +11789,28 @@
     </row>
     <row r="82" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C82" s="1">
-        <f t="shared" si="28"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>68</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="29"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>68</v>
       </c>
       <c r="F82" s="1" cm="1">
-        <f t="array" ref="F82">IF(OR(D82="",G82=""),0,LEFT(G82)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D82,2)),2))</f>
+        <f t="array" aca="1" ref="F82" ca="1">IF(OR(D82="",G82=""),0,LEFT(G82)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D82,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G82" s="5" t="str" cm="1">
-        <f t="array" ref="G82">IF(OR(D82="",E82&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E82=3,1,E82)),"$",""))&amp;D82+1,
+        <f t="array" aca="1" ref="G82" ca="1">IF(OR(D82="",E82&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E82=3,1,E82)),"$",""))&amp;D82+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E82)&amp;IF(E82=3," "&amp;D82,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H82" s="4" t="str" cm="1">
-        <f t="array" ref="H82">IF(OR(D82="",E82&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E82),"$",""))&amp;D82+1,
+        <f t="array" aca="1" ref="H82" ca="1">IF(OR(D82="",E82&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E82),"$",""))&amp;D82+1,
 IFERROR(INDEX(TablaDatos[],D82,E82),"")))</f>
         <v/>
       </c>
@@ -11906,28 +11921,28 @@
     </row>
     <row r="83" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C83" s="1">
-        <f t="shared" si="28"/>
-        <v>81</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>69</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="29"/>
-        <v>81</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>69</v>
       </c>
       <c r="F83" s="1" cm="1">
-        <f t="array" ref="F83">IF(OR(D83="",G83=""),0,LEFT(G83)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D83,2)),2))</f>
+        <f t="array" aca="1" ref="F83" ca="1">IF(OR(D83="",G83=""),0,LEFT(G83)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D83,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G83" s="5" t="str" cm="1">
-        <f t="array" ref="G83">IF(OR(D83="",E83&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E83=3,1,E83)),"$",""))&amp;D83+1,
+        <f t="array" aca="1" ref="G83" ca="1">IF(OR(D83="",E83&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E83=3,1,E83)),"$",""))&amp;D83+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E83)&amp;IF(E83=3," "&amp;D83,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H83" s="4" t="str" cm="1">
-        <f t="array" ref="H83">IF(OR(D83="",E83&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E83),"$",""))&amp;D83+1,
+        <f t="array" aca="1" ref="H83" ca="1">IF(OR(D83="",E83&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E83),"$",""))&amp;D83+1,
 IFERROR(INDEX(TablaDatos[],D83,E83),"")))</f>
         <v/>
       </c>
@@ -12038,28 +12053,28 @@
     </row>
     <row r="84" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C84" s="1">
-        <f t="shared" si="28"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>70</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="29"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>70</v>
       </c>
       <c r="F84" s="1" cm="1">
-        <f t="array" ref="F84">IF(OR(D84="",G84=""),0,LEFT(G84)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D84,2)),2))</f>
+        <f t="array" aca="1" ref="F84" ca="1">IF(OR(D84="",G84=""),0,LEFT(G84)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D84,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G84" s="5" t="str" cm="1">
-        <f t="array" ref="G84">IF(OR(D84="",E84&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E84=3,1,E84)),"$",""))&amp;D84+1,
+        <f t="array" aca="1" ref="G84" ca="1">IF(OR(D84="",E84&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E84=3,1,E84)),"$",""))&amp;D84+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E84)&amp;IF(E84=3," "&amp;D84,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H84" s="4" t="str" cm="1">
-        <f t="array" ref="H84">IF(OR(D84="",E84&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E84),"$",""))&amp;D84+1,
+        <f t="array" aca="1" ref="H84" ca="1">IF(OR(D84="",E84&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E84),"$",""))&amp;D84+1,
 IFERROR(INDEX(TablaDatos[],D84,E84),"")))</f>
         <v/>
       </c>
@@ -12170,28 +12185,28 @@
     </row>
     <row r="85" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C85" s="1">
-        <f t="shared" si="28"/>
-        <v>83</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>71</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="29"/>
-        <v>83</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>71</v>
       </c>
       <c r="F85" s="1" cm="1">
-        <f t="array" ref="F85">IF(OR(D85="",G85=""),0,LEFT(G85)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D85,2)),2))</f>
+        <f t="array" aca="1" ref="F85" ca="1">IF(OR(D85="",G85=""),0,LEFT(G85)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D85,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G85" s="5" t="str" cm="1">
-        <f t="array" ref="G85">IF(OR(D85="",E85&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E85=3,1,E85)),"$",""))&amp;D85+1,
+        <f t="array" aca="1" ref="G85" ca="1">IF(OR(D85="",E85&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E85=3,1,E85)),"$",""))&amp;D85+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E85)&amp;IF(E85=3," "&amp;D85,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H85" s="4" t="str" cm="1">
-        <f t="array" ref="H85">IF(OR(D85="",E85&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E85),"$",""))&amp;D85+1,
+        <f t="array" aca="1" ref="H85" ca="1">IF(OR(D85="",E85&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E85),"$",""))&amp;D85+1,
 IFERROR(INDEX(TablaDatos[],D85,E85),"")))</f>
         <v/>
       </c>
@@ -12302,28 +12317,28 @@
     </row>
     <row r="86" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C86" s="1">
-        <f t="shared" si="28"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>72</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="29"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>72</v>
       </c>
       <c r="F86" s="1" cm="1">
-        <f t="array" ref="F86">IF(OR(D86="",G86=""),0,LEFT(G86)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D86,2)),2))</f>
+        <f t="array" aca="1" ref="F86" ca="1">IF(OR(D86="",G86=""),0,LEFT(G86)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D86,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G86" s="5" t="str" cm="1">
-        <f t="array" ref="G86">IF(OR(D86="",E86&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E86=3,1,E86)),"$",""))&amp;D86+1,
+        <f t="array" aca="1" ref="G86" ca="1">IF(OR(D86="",E86&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E86=3,1,E86)),"$",""))&amp;D86+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E86)&amp;IF(E86=3," "&amp;D86,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H86" s="4" t="str" cm="1">
-        <f t="array" ref="H86">IF(OR(D86="",E86&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E86),"$",""))&amp;D86+1,
+        <f t="array" aca="1" ref="H86" ca="1">IF(OR(D86="",E86&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E86),"$",""))&amp;D86+1,
 IFERROR(INDEX(TablaDatos[],D86,E86),"")))</f>
         <v/>
       </c>
@@ -12434,28 +12449,28 @@
     </row>
     <row r="87" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C87" s="1">
-        <f t="shared" si="28"/>
-        <v>85</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>73</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="29"/>
-        <v>85</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>73</v>
       </c>
       <c r="F87" s="1" cm="1">
-        <f t="array" ref="F87">IF(OR(D87="",G87=""),0,LEFT(G87)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D87,2)),2))</f>
+        <f t="array" aca="1" ref="F87" ca="1">IF(OR(D87="",G87=""),0,LEFT(G87)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D87,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G87" s="5" t="str" cm="1">
-        <f t="array" ref="G87">IF(OR(D87="",E87&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E87=3,1,E87)),"$",""))&amp;D87+1,
+        <f t="array" aca="1" ref="G87" ca="1">IF(OR(D87="",E87&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E87=3,1,E87)),"$",""))&amp;D87+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E87)&amp;IF(E87=3," "&amp;D87,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H87" s="4" t="str" cm="1">
-        <f t="array" ref="H87">IF(OR(D87="",E87&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E87),"$",""))&amp;D87+1,
+        <f t="array" aca="1" ref="H87" ca="1">IF(OR(D87="",E87&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E87),"$",""))&amp;D87+1,
 IFERROR(INDEX(TablaDatos[],D87,E87),"")))</f>
         <v/>
       </c>
@@ -12566,28 +12581,28 @@
     </row>
     <row r="88" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C88" s="1">
-        <f t="shared" si="28"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>74</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="29"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>74</v>
       </c>
       <c r="F88" s="1" cm="1">
-        <f t="array" ref="F88">IF(OR(D88="",G88=""),0,LEFT(G88)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D88,2)),2))</f>
+        <f t="array" aca="1" ref="F88" ca="1">IF(OR(D88="",G88=""),0,LEFT(G88)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D88,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G88" s="5" t="str" cm="1">
-        <f t="array" ref="G88">IF(OR(D88="",E88&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E88=3,1,E88)),"$",""))&amp;D88+1,
+        <f t="array" aca="1" ref="G88" ca="1">IF(OR(D88="",E88&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E88=3,1,E88)),"$",""))&amp;D88+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E88)&amp;IF(E88=3," "&amp;D88,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H88" s="4" t="str" cm="1">
-        <f t="array" ref="H88">IF(OR(D88="",E88&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E88),"$",""))&amp;D88+1,
+        <f t="array" aca="1" ref="H88" ca="1">IF(OR(D88="",E88&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E88),"$",""))&amp;D88+1,
 IFERROR(INDEX(TablaDatos[],D88,E88),"")))</f>
         <v/>
       </c>
@@ -12698,28 +12713,28 @@
     </row>
     <row r="89" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C89" s="1">
-        <f t="shared" si="28"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>75</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="29"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>75</v>
       </c>
       <c r="F89" s="1" cm="1">
-        <f t="array" ref="F89">IF(OR(D89="",G89=""),0,LEFT(G89)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D89,2)),2))</f>
+        <f t="array" aca="1" ref="F89" ca="1">IF(OR(D89="",G89=""),0,LEFT(G89)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D89,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G89" s="5" t="str" cm="1">
-        <f t="array" ref="G89">IF(OR(D89="",E89&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E89=3,1,E89)),"$",""))&amp;D89+1,
+        <f t="array" aca="1" ref="G89" ca="1">IF(OR(D89="",E89&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E89=3,1,E89)),"$",""))&amp;D89+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E89)&amp;IF(E89=3," "&amp;D89,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H89" s="4" t="str" cm="1">
-        <f t="array" ref="H89">IF(OR(D89="",E89&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E89),"$",""))&amp;D89+1,
+        <f t="array" aca="1" ref="H89" ca="1">IF(OR(D89="",E89&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E89),"$",""))&amp;D89+1,
 IFERROR(INDEX(TablaDatos[],D89,E89),"")))</f>
         <v/>
       </c>
@@ -12830,28 +12845,28 @@
     </row>
     <row r="90" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C90" s="1">
-        <f t="shared" si="28"/>
-        <v>88</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>76</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="29"/>
-        <v>88</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>76</v>
       </c>
       <c r="F90" s="1" cm="1">
-        <f t="array" ref="F90">IF(OR(D90="",G90=""),0,LEFT(G90)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D90,2)),2))</f>
+        <f t="array" aca="1" ref="F90" ca="1">IF(OR(D90="",G90=""),0,LEFT(G90)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D90,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G90" s="5" t="str" cm="1">
-        <f t="array" ref="G90">IF(OR(D90="",E90&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E90=3,1,E90)),"$",""))&amp;D90+1,
+        <f t="array" aca="1" ref="G90" ca="1">IF(OR(D90="",E90&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E90=3,1,E90)),"$",""))&amp;D90+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E90)&amp;IF(E90=3," "&amp;D90,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H90" s="4" t="str" cm="1">
-        <f t="array" ref="H90">IF(OR(D90="",E90&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E90),"$",""))&amp;D90+1,
+        <f t="array" aca="1" ref="H90" ca="1">IF(OR(D90="",E90&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E90),"$",""))&amp;D90+1,
 IFERROR(INDEX(TablaDatos[],D90,E90),"")))</f>
         <v/>
       </c>
@@ -12962,28 +12977,28 @@
     </row>
     <row r="91" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C91" s="1">
-        <f t="shared" si="28"/>
-        <v>89</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>77</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="29"/>
-        <v>89</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>77</v>
       </c>
       <c r="F91" s="1" cm="1">
-        <f t="array" ref="F91">IF(OR(D91="",G91=""),0,LEFT(G91)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D91,2)),2))</f>
+        <f t="array" aca="1" ref="F91" ca="1">IF(OR(D91="",G91=""),0,LEFT(G91)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D91,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G91" s="5" t="str" cm="1">
-        <f t="array" ref="G91">IF(OR(D91="",E91&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E91=3,1,E91)),"$",""))&amp;D91+1,
+        <f t="array" aca="1" ref="G91" ca="1">IF(OR(D91="",E91&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E91=3,1,E91)),"$",""))&amp;D91+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E91)&amp;IF(E91=3," "&amp;D91,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H91" s="4" t="str" cm="1">
-        <f t="array" ref="H91">IF(OR(D91="",E91&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E91),"$",""))&amp;D91+1,
+        <f t="array" aca="1" ref="H91" ca="1">IF(OR(D91="",E91&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E91),"$",""))&amp;D91+1,
 IFERROR(INDEX(TablaDatos[],D91,E91),"")))</f>
         <v/>
       </c>
@@ -13094,28 +13109,28 @@
     </row>
     <row r="92" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C92" s="1">
-        <f t="shared" si="28"/>
-        <v>90</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>78</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="29"/>
-        <v>90</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>78</v>
       </c>
       <c r="F92" s="1" cm="1">
-        <f t="array" ref="F92">IF(OR(D92="",G92=""),0,LEFT(G92)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D92,2)),2))</f>
+        <f t="array" aca="1" ref="F92" ca="1">IF(OR(D92="",G92=""),0,LEFT(G92)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D92,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G92" s="5" t="str" cm="1">
-        <f t="array" ref="G92">IF(OR(D92="",E92&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E92=3,1,E92)),"$",""))&amp;D92+1,
+        <f t="array" aca="1" ref="G92" ca="1">IF(OR(D92="",E92&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E92=3,1,E92)),"$",""))&amp;D92+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E92)&amp;IF(E92=3," "&amp;D92,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H92" s="4" t="str" cm="1">
-        <f t="array" ref="H92">IF(OR(D92="",E92&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E92),"$",""))&amp;D92+1,
+        <f t="array" aca="1" ref="H92" ca="1">IF(OR(D92="",E92&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E92),"$",""))&amp;D92+1,
 IFERROR(INDEX(TablaDatos[],D92,E92),"")))</f>
         <v/>
       </c>
@@ -13226,28 +13241,28 @@
     </row>
     <row r="93" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C93" s="1">
-        <f t="shared" ref="C93:C99" si="43">C92--(G92="")</f>
-        <v>91</v>
+        <f t="shared" ref="C93:C99" ca="1" si="43">C92--(G92="")</f>
+        <v>79</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E93" s="1">
-        <f t="shared" ref="E93:E99" si="44">IF(D93&lt;&gt;D92,3,E92+1)</f>
-        <v>91</v>
+        <f t="shared" ref="E93:E99" ca="1" si="44">IF(D93&lt;&gt;D92,3,E92+1)</f>
+        <v>79</v>
       </c>
       <c r="F93" s="1" cm="1">
-        <f t="array" ref="F93">IF(OR(D93="",G93=""),0,LEFT(G93)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D93,2)),2))</f>
+        <f t="array" aca="1" ref="F93" ca="1">IF(OR(D93="",G93=""),0,LEFT(G93)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D93,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G93" s="5" t="str" cm="1">
-        <f t="array" ref="G93">IF(OR(D93="",E93&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E93=3,1,E93)),"$",""))&amp;D93+1,
+        <f t="array" aca="1" ref="G93" ca="1">IF(OR(D93="",E93&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E93=3,1,E93)),"$",""))&amp;D93+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E93)&amp;IF(E93=3," "&amp;D93,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H93" s="4" t="str" cm="1">
-        <f t="array" ref="H93">IF(OR(D93="",E93&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E93),"$",""))&amp;D93+1,
+        <f t="array" aca="1" ref="H93" ca="1">IF(OR(D93="",E93&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E93),"$",""))&amp;D93+1,
 IFERROR(INDEX(TablaDatos[],D93,E93),"")))</f>
         <v/>
       </c>
@@ -13358,28 +13373,28 @@
     </row>
     <row r="94" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C94" s="1">
-        <f t="shared" si="43"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>80</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="44"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>80</v>
       </c>
       <c r="F94" s="1" cm="1">
-        <f t="array" ref="F94">IF(OR(D94="",G94=""),0,LEFT(G94)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D94,2)),2))</f>
+        <f t="array" aca="1" ref="F94" ca="1">IF(OR(D94="",G94=""),0,LEFT(G94)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D94,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G94" s="5" t="str" cm="1">
-        <f t="array" ref="G94">IF(OR(D94="",E94&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E94=3,1,E94)),"$",""))&amp;D94+1,
+        <f t="array" aca="1" ref="G94" ca="1">IF(OR(D94="",E94&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E94=3,1,E94)),"$",""))&amp;D94+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E94)&amp;IF(E94=3," "&amp;D94,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H94" s="4" t="str" cm="1">
-        <f t="array" ref="H94">IF(OR(D94="",E94&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E94),"$",""))&amp;D94+1,
+        <f t="array" aca="1" ref="H94" ca="1">IF(OR(D94="",E94&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E94),"$",""))&amp;D94+1,
 IFERROR(INDEX(TablaDatos[],D94,E94),"")))</f>
         <v/>
       </c>
@@ -13490,28 +13505,28 @@
     </row>
     <row r="95" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C95" s="1">
-        <f t="shared" si="43"/>
-        <v>93</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>81</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="44"/>
-        <v>93</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>81</v>
       </c>
       <c r="F95" s="1" cm="1">
-        <f t="array" ref="F95">IF(OR(D95="",G95=""),0,LEFT(G95)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D95,2)),2))</f>
+        <f t="array" aca="1" ref="F95" ca="1">IF(OR(D95="",G95=""),0,LEFT(G95)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D95,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G95" s="5" t="str" cm="1">
-        <f t="array" ref="G95">IF(OR(D95="",E95&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E95=3,1,E95)),"$",""))&amp;D95+1,
+        <f t="array" aca="1" ref="G95" ca="1">IF(OR(D95="",E95&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E95=3,1,E95)),"$",""))&amp;D95+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E95)&amp;IF(E95=3," "&amp;D95,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H95" s="4" t="str" cm="1">
-        <f t="array" ref="H95">IF(OR(D95="",E95&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E95),"$",""))&amp;D95+1,
+        <f t="array" aca="1" ref="H95" ca="1">IF(OR(D95="",E95&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E95),"$",""))&amp;D95+1,
 IFERROR(INDEX(TablaDatos[],D95,E95),"")))</f>
         <v/>
       </c>
@@ -13622,28 +13637,28 @@
     </row>
     <row r="96" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C96" s="1">
-        <f t="shared" si="43"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>82</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="44"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>82</v>
       </c>
       <c r="F96" s="1" cm="1">
-        <f t="array" ref="F96">IF(OR(D96="",G96=""),0,LEFT(G96)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D96,2)),2))</f>
+        <f t="array" aca="1" ref="F96" ca="1">IF(OR(D96="",G96=""),0,LEFT(G96)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D96,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G96" s="5" t="str" cm="1">
-        <f t="array" ref="G96">IF(OR(D96="",E96&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E96=3,1,E96)),"$",""))&amp;D96+1,
+        <f t="array" aca="1" ref="G96" ca="1">IF(OR(D96="",E96&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E96=3,1,E96)),"$",""))&amp;D96+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E96)&amp;IF(E96=3," "&amp;D96,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H96" s="4" t="str" cm="1">
-        <f t="array" ref="H96">IF(OR(D96="",E96&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E96),"$",""))&amp;D96+1,
+        <f t="array" aca="1" ref="H96" ca="1">IF(OR(D96="",E96&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E96),"$",""))&amp;D96+1,
 IFERROR(INDEX(TablaDatos[],D96,E96),"")))</f>
         <v/>
       </c>
@@ -13754,28 +13769,28 @@
     </row>
     <row r="97" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C97" s="1">
-        <f t="shared" si="43"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>83</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="44"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>83</v>
       </c>
       <c r="F97" s="1" cm="1">
-        <f t="array" ref="F97">IF(OR(D97="",G97=""),0,LEFT(G97)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D97,2)),2))</f>
+        <f t="array" aca="1" ref="F97" ca="1">IF(OR(D97="",G97=""),0,LEFT(G97)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D97,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G97" s="5" t="str" cm="1">
-        <f t="array" ref="G97">IF(OR(D97="",E97&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E97=3,1,E97)),"$",""))&amp;D97+1,
+        <f t="array" aca="1" ref="G97" ca="1">IF(OR(D97="",E97&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E97=3,1,E97)),"$",""))&amp;D97+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E97)&amp;IF(E97=3," "&amp;D97,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H97" s="4" t="str" cm="1">
-        <f t="array" ref="H97">IF(OR(D97="",E97&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E97),"$",""))&amp;D97+1,
+        <f t="array" aca="1" ref="H97" ca="1">IF(OR(D97="",E97&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E97),"$",""))&amp;D97+1,
 IFERROR(INDEX(TablaDatos[],D97,E97),"")))</f>
         <v/>
       </c>
@@ -13886,28 +13901,28 @@
     </row>
     <row r="98" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C98" s="1">
-        <f t="shared" si="43"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>84</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="44"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>84</v>
       </c>
       <c r="F98" s="1" cm="1">
-        <f t="array" ref="F98">IF(OR(D98="",G98=""),0,LEFT(G98)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D98,2)),2))</f>
+        <f t="array" aca="1" ref="F98" ca="1">IF(OR(D98="",G98=""),0,LEFT(G98)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D98,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G98" s="5" t="str" cm="1">
-        <f t="array" ref="G98">IF(OR(D98="",E98&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E98=3,1,E98)),"$",""))&amp;D98+1,
+        <f t="array" aca="1" ref="G98" ca="1">IF(OR(D98="",E98&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E98=3,1,E98)),"$",""))&amp;D98+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E98)&amp;IF(E98=3," "&amp;D98,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H98" s="4" t="str" cm="1">
-        <f t="array" ref="H98">IF(OR(D98="",E98&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E98),"$",""))&amp;D98+1,
+        <f t="array" aca="1" ref="H98" ca="1">IF(OR(D98="",E98&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E98),"$",""))&amp;D98+1,
 IFERROR(INDEX(TablaDatos[],D98,E98),"")))</f>
         <v/>
       </c>
@@ -14018,28 +14033,28 @@
     </row>
     <row r="99" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C99" s="1">
-        <f t="shared" si="43"/>
-        <v>97</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>85</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="44"/>
-        <v>97</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>85</v>
       </c>
       <c r="F99" s="1" cm="1">
-        <f t="array" ref="F99">IF(OR(D99="",G99=""),0,LEFT(G99)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D99,2)),2))</f>
+        <f t="array" aca="1" ref="F99" ca="1">IF(OR(D99="",G99=""),0,LEFT(G99)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D99,2)),2))</f>
         <v>0</v>
       </c>
       <c r="G99" s="5" t="str" cm="1">
-        <f t="array" ref="G99">IF(OR(D99="",E99&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E99=3,1,E99)),"$",""))&amp;D99+1,
+        <f t="array" aca="1" ref="G99" ca="1">IF(OR(D99="",E99&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E99=3,1,E99)),"$",""))&amp;D99+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E99)&amp;IF(E99=3," "&amp;D99,"")&amp;":","")))</f>
         <v/>
       </c>
       <c r="H99" s="4" t="str" cm="1">
-        <f t="array" ref="H99">IF(OR(D99="",E99&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E99),"$",""))&amp;D99+1,
+        <f t="array" aca="1" ref="H99" ca="1">IF(OR(D99="",E99&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E99),"$",""))&amp;D99+1,
 IFERROR(INDEX(TablaDatos[],D99,E99),"")))</f>
         <v/>
       </c>
@@ -14259,8 +14274,8 @@
       </c>
     </row>
     <row r="105" spans="2:41" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="1" t="str">
-        <v/>
+      <c r="C105" s="1">
+        <v>4</v>
       </c>
       <c r="K105" s="1" t="str">
         <v/>
@@ -14276,8 +14291,8 @@
       </c>
     </row>
     <row r="106" spans="2:41" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="1" t="str">
-        <v/>
+      <c r="C106" s="1">
+        <v>5</v>
       </c>
       <c r="K106" s="1" t="str">
         <v/>
@@ -15101,7 +15116,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -15208,7 +15223,7 @@
         <v>Tarea 1</v>
       </c>
       <c r="K2" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J2&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J2&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L2" s="26" t="str">
@@ -15271,7 +15286,7 @@
         <v>Tarea 2</v>
       </c>
       <c r="K3" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J3&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J3&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L3" s="29" t="str">
@@ -15331,7 +15346,7 @@
         <v>Tarea 3</v>
       </c>
       <c r="K4" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J4&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J4&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L4" s="26" t="str">
@@ -15361,17 +15376,35 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="7">
+        <v>45105</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="I5" s="34" t="str" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">HYPERLINK("["&amp;Archivo_Nombre&amp;"]KANBAN!"&amp;INDEX(Datos!$Q$2:$Q$100,ROW()-1),IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1))</f>
-        <v/>
+        <v>Tarea 4</v>
       </c>
       <c r="J5" s="28" t="str">
         <f>IFERROR(IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1),"")</f>
-        <v/>
+        <v>Tarea 4</v>
       </c>
       <c r="K5" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J5&amp;":",KANBAN!G:G,0),"")</f>
-        <v/>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J5&amp;":",KANBAN!G:G,0),"")</f>
+        <v>G-3</v>
       </c>
       <c r="L5" s="29" t="str">
         <f ca="1">IFERROR("O-"&amp;MATCH(Datos!$J5&amp;":",KANBAN!O:O,0),"")</f>
@@ -15391,26 +15424,44 @@
       </c>
       <c r="P5" s="29" t="str">
         <f ca="1">Datos!$K5&amp;Datos!$L5&amp;Datos!$M5&amp;Datos!$N5&amp;Datos!$O5</f>
-        <v/>
+        <v>G-3</v>
       </c>
       <c r="Q5" s="30" t="str">
         <f ca="1">IFERROR(LEFT(Datos!$P5,FIND("-",Datos!$P5)-1) &amp; SUBSTITUTE(Datos!$P5,LEFT(Datos!$P5,FIND("-",Datos!$P5)-1) &amp;"-","") &amp; ":" &amp;
 LEFT(Datos!$P5,FIND("-",Datos!$P5)-1) &amp; SUBSTITUTE(Datos!$P5,LEFT(Datos!$P5,FIND("-",Datos!$P5)-1) &amp;"-","")+5,"")</f>
-        <v/>
+        <v>G3:G8</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="I6" s="34" t="str" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">HYPERLINK("["&amp;Archivo_Nombre&amp;"]KANBAN!"&amp;INDEX(Datos!$Q$2:$Q$100,ROW()-1),IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1))</f>
-        <v/>
+        <v>Tarea 5</v>
       </c>
       <c r="J6" s="25" t="str">
         <f>IFERROR(IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1),"")</f>
-        <v/>
+        <v>Tarea 5</v>
       </c>
       <c r="K6" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J6&amp;":",KANBAN!G:G,0),"")</f>
-        <v/>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J6&amp;":",KANBAN!G:G,0),"")</f>
+        <v>G-10</v>
       </c>
       <c r="L6" s="26" t="str">
         <f ca="1">IFERROR("O-"&amp;MATCH(Datos!$J6&amp;":",KANBAN!O:O,0),"")</f>
@@ -15430,12 +15481,12 @@
       </c>
       <c r="P6" s="26" t="str">
         <f ca="1">Datos!$K6&amp;Datos!$L6&amp;Datos!$M6&amp;Datos!$N6&amp;Datos!$O6</f>
-        <v/>
+        <v>G-10</v>
       </c>
       <c r="Q6" s="27" t="str">
         <f ca="1">IFERROR(LEFT(Datos!$P6,FIND("-",Datos!$P6)-1) &amp; SUBSTITUTE(Datos!$P6,LEFT(Datos!$P6,FIND("-",Datos!$P6)-1) &amp;"-","") &amp; ":" &amp;
 LEFT(Datos!$P6,FIND("-",Datos!$P6)-1) &amp; SUBSTITUTE(Datos!$P6,LEFT(Datos!$P6,FIND("-",Datos!$P6)-1) &amp;"-","")+5,"")</f>
-        <v/>
+        <v>G10:G15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -15448,7 +15499,7 @@
         <v/>
       </c>
       <c r="K7" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J7&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J7&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L7" s="29" t="str">
@@ -15487,7 +15538,7 @@
         <v/>
       </c>
       <c r="K8" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J8&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J8&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L8" s="26" t="str">
@@ -15526,7 +15577,7 @@
         <v/>
       </c>
       <c r="K9" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J9&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J9&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L9" s="29" t="str">
@@ -15565,7 +15616,7 @@
         <v/>
       </c>
       <c r="K10" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J10&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J10&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L10" s="26" t="str">
@@ -15612,7 +15663,7 @@
         <v/>
       </c>
       <c r="K11" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J11&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J11&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L11" s="29" t="str">
@@ -15659,7 +15710,7 @@
         <v/>
       </c>
       <c r="K12" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J12&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J12&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L12" s="26" t="str">
@@ -15706,7 +15757,7 @@
         <v/>
       </c>
       <c r="K13" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J13&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J13&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L13" s="29" t="str">
@@ -15753,7 +15804,7 @@
         <v/>
       </c>
       <c r="K14" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J14&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J14&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L14" s="26" t="str">
@@ -15800,7 +15851,7 @@
         <v/>
       </c>
       <c r="K15" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J15&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J15&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L15" s="26" t="str">
@@ -15847,7 +15898,7 @@
         <v/>
       </c>
       <c r="K16" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J16&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J16&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L16" s="29" t="str">
@@ -15894,7 +15945,7 @@
         <v/>
       </c>
       <c r="K17" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J17&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J17&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L17" s="26" t="str">
@@ -15941,7 +15992,7 @@
         <v/>
       </c>
       <c r="K18" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J18&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J18&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L18" s="29" t="str">
@@ -15988,7 +16039,7 @@
         <v/>
       </c>
       <c r="K19" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J19&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J19&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L19" s="26" t="str">
@@ -16035,7 +16086,7 @@
         <v/>
       </c>
       <c r="K20" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J20&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J20&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L20" s="29" t="str">
@@ -16082,7 +16133,7 @@
         <v/>
       </c>
       <c r="K21" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J21&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J21&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L21" s="26" t="str">
@@ -16129,7 +16180,7 @@
         <v/>
       </c>
       <c r="K22" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J22&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J22&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L22" s="29" t="str">
@@ -16176,7 +16227,7 @@
         <v/>
       </c>
       <c r="K23" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J23&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J23&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L23" s="26" t="str">
@@ -16223,7 +16274,7 @@
         <v/>
       </c>
       <c r="K24" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J24&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J24&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L24" s="29" t="str">
@@ -16270,7 +16321,7 @@
         <v/>
       </c>
       <c r="K25" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J25&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J25&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L25" s="26" t="str">
@@ -16317,7 +16368,7 @@
         <v/>
       </c>
       <c r="K26" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J26&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J26&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L26" s="29" t="str">
@@ -16364,7 +16415,7 @@
         <v/>
       </c>
       <c r="K27" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J27&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J27&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L27" s="26" t="str">
@@ -16411,7 +16462,7 @@
         <v/>
       </c>
       <c r="K28" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J28&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J28&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L28" s="29" t="str">
@@ -16458,7 +16509,7 @@
         <v/>
       </c>
       <c r="K29" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J29&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J29&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L29" s="26" t="str">
@@ -16505,7 +16556,7 @@
         <v/>
       </c>
       <c r="K30" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J30&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J30&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L30" s="29" t="str">
@@ -16552,7 +16603,7 @@
         <v/>
       </c>
       <c r="K31" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J31&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J31&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L31" s="26" t="str">
@@ -16599,7 +16650,7 @@
         <v/>
       </c>
       <c r="K32" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J32&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J32&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L32" s="29" t="str">
@@ -16646,7 +16697,7 @@
         <v/>
       </c>
       <c r="K33" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J33&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J33&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L33" s="26" t="str">
@@ -16693,7 +16744,7 @@
         <v/>
       </c>
       <c r="K34" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J34&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J34&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L34" s="29" t="str">
@@ -16740,7 +16791,7 @@
         <v/>
       </c>
       <c r="K35" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J35&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J35&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L35" s="26" t="str">
@@ -16787,7 +16838,7 @@
         <v/>
       </c>
       <c r="K36" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J36&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J36&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L36" s="29" t="str">
@@ -16834,7 +16885,7 @@
         <v/>
       </c>
       <c r="K37" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J37&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J37&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L37" s="26" t="str">
@@ -16881,7 +16932,7 @@
         <v/>
       </c>
       <c r="K38" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J38&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J38&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L38" s="29" t="str">
@@ -16928,7 +16979,7 @@
         <v/>
       </c>
       <c r="K39" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J39&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J39&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L39" s="26" t="str">
@@ -16975,7 +17026,7 @@
         <v/>
       </c>
       <c r="K40" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J40&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J40&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L40" s="29" t="str">
@@ -17022,7 +17073,7 @@
         <v/>
       </c>
       <c r="K41" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J41&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J41&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L41" s="26" t="str">
@@ -17069,7 +17120,7 @@
         <v/>
       </c>
       <c r="K42" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J42&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J42&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L42" s="29" t="str">
@@ -17116,7 +17167,7 @@
         <v/>
       </c>
       <c r="K43" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J43&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J43&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L43" s="26" t="str">
@@ -17163,7 +17214,7 @@
         <v/>
       </c>
       <c r="K44" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J44&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J44&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L44" s="29" t="str">
@@ -17210,7 +17261,7 @@
         <v/>
       </c>
       <c r="K45" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J45&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J45&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L45" s="26" t="str">
@@ -17257,7 +17308,7 @@
         <v/>
       </c>
       <c r="K46" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J46&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J46&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L46" s="29" t="str">
@@ -17304,7 +17355,7 @@
         <v/>
       </c>
       <c r="K47" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J47&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J47&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L47" s="26" t="str">
@@ -17351,7 +17402,7 @@
         <v/>
       </c>
       <c r="K48" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J48&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J48&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L48" s="29" t="str">
@@ -17398,7 +17449,7 @@
         <v/>
       </c>
       <c r="K49" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J49&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J49&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L49" s="26" t="str">
@@ -17445,7 +17496,7 @@
         <v/>
       </c>
       <c r="K50" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J50&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J50&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L50" s="29" t="str">
@@ -17492,7 +17543,7 @@
         <v/>
       </c>
       <c r="K51" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J51&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J51&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L51" s="26" t="str">
@@ -17536,7 +17587,7 @@
         <v/>
       </c>
       <c r="K52" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J52&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J52&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L52" s="29" t="str">
@@ -17580,7 +17631,7 @@
         <v/>
       </c>
       <c r="K53" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J53&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J53&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L53" s="26" t="str">
@@ -17624,7 +17675,7 @@
         <v/>
       </c>
       <c r="K54" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J54&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J54&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L54" s="29" t="str">
@@ -17668,7 +17719,7 @@
         <v/>
       </c>
       <c r="K55" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J55&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J55&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L55" s="26" t="str">
@@ -17712,7 +17763,7 @@
         <v/>
       </c>
       <c r="K56" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J56&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J56&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L56" s="29" t="str">
@@ -17756,7 +17807,7 @@
         <v/>
       </c>
       <c r="K57" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J57&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J57&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L57" s="26" t="str">
@@ -17800,7 +17851,7 @@
         <v/>
       </c>
       <c r="K58" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J58&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J58&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L58" s="29" t="str">
@@ -17844,7 +17895,7 @@
         <v/>
       </c>
       <c r="K59" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J59&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J59&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L59" s="26" t="str">
@@ -17888,7 +17939,7 @@
         <v/>
       </c>
       <c r="K60" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J60&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J60&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L60" s="29" t="str">
@@ -17932,7 +17983,7 @@
         <v/>
       </c>
       <c r="K61" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J61&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J61&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L61" s="26" t="str">
@@ -17976,7 +18027,7 @@
         <v/>
       </c>
       <c r="K62" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J62&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J62&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L62" s="29" t="str">
@@ -18020,7 +18071,7 @@
         <v/>
       </c>
       <c r="K63" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J63&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J63&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L63" s="26" t="str">
@@ -18064,7 +18115,7 @@
         <v/>
       </c>
       <c r="K64" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J64&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J64&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L64" s="29" t="str">
@@ -18108,7 +18159,7 @@
         <v/>
       </c>
       <c r="K65" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J65&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J65&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L65" s="26" t="str">
@@ -18152,7 +18203,7 @@
         <v/>
       </c>
       <c r="K66" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J66&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J66&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L66" s="29" t="str">
@@ -18196,7 +18247,7 @@
         <v/>
       </c>
       <c r="K67" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J67&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J67&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L67" s="26" t="str">
@@ -18240,7 +18291,7 @@
         <v/>
       </c>
       <c r="K68" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J68&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J68&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L68" s="29" t="str">
@@ -18284,7 +18335,7 @@
         <v/>
       </c>
       <c r="K69" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J69&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J69&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L69" s="26" t="str">
@@ -18328,7 +18379,7 @@
         <v/>
       </c>
       <c r="K70" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J70&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J70&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L70" s="29" t="str">
@@ -18372,7 +18423,7 @@
         <v/>
       </c>
       <c r="K71" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J71&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J71&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L71" s="26" t="str">
@@ -18416,7 +18467,7 @@
         <v/>
       </c>
       <c r="K72" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J72&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J72&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L72" s="29" t="str">
@@ -18460,7 +18511,7 @@
         <v/>
       </c>
       <c r="K73" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J73&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J73&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L73" s="26" t="str">
@@ -18504,7 +18555,7 @@
         <v/>
       </c>
       <c r="K74" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J74&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J74&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L74" s="29" t="str">
@@ -18548,7 +18599,7 @@
         <v/>
       </c>
       <c r="K75" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J75&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J75&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L75" s="26" t="str">
@@ -18592,7 +18643,7 @@
         <v/>
       </c>
       <c r="K76" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J76&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J76&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L76" s="29" t="str">
@@ -18636,7 +18687,7 @@
         <v/>
       </c>
       <c r="K77" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J77&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J77&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L77" s="26" t="str">
@@ -18680,7 +18731,7 @@
         <v/>
       </c>
       <c r="K78" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J78&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J78&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L78" s="29" t="str">
@@ -18724,7 +18775,7 @@
         <v/>
       </c>
       <c r="K79" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J79&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J79&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L79" s="26" t="str">
@@ -18768,7 +18819,7 @@
         <v/>
       </c>
       <c r="K80" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J80&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J80&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L80" s="29" t="str">
@@ -18812,7 +18863,7 @@
         <v/>
       </c>
       <c r="K81" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J81&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J81&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L81" s="26" t="str">
@@ -18856,7 +18907,7 @@
         <v/>
       </c>
       <c r="K82" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J82&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J82&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L82" s="29" t="str">
@@ -18900,7 +18951,7 @@
         <v/>
       </c>
       <c r="K83" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J83&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J83&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L83" s="26" t="str">
@@ -18944,7 +18995,7 @@
         <v/>
       </c>
       <c r="K84" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J84&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J84&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L84" s="29" t="str">
@@ -18988,7 +19039,7 @@
         <v/>
       </c>
       <c r="K85" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J85&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J85&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L85" s="26" t="str">
@@ -19032,7 +19083,7 @@
         <v/>
       </c>
       <c r="K86" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J86&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J86&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L86" s="29" t="str">
@@ -19076,7 +19127,7 @@
         <v/>
       </c>
       <c r="K87" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J87&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J87&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L87" s="26" t="str">
@@ -19120,7 +19171,7 @@
         <v/>
       </c>
       <c r="K88" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J88&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J88&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L88" s="29" t="str">
@@ -19164,7 +19215,7 @@
         <v/>
       </c>
       <c r="K89" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J89&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J89&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L89" s="26" t="str">
@@ -19208,7 +19259,7 @@
         <v/>
       </c>
       <c r="K90" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J90&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J90&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L90" s="29" t="str">
@@ -19252,7 +19303,7 @@
         <v/>
       </c>
       <c r="K91" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J91&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J91&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L91" s="26" t="str">
@@ -19296,7 +19347,7 @@
         <v/>
       </c>
       <c r="K92" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J92&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J92&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L92" s="29" t="str">
@@ -19340,7 +19391,7 @@
         <v/>
       </c>
       <c r="K93" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J93&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J93&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L93" s="26" t="str">
@@ -19384,7 +19435,7 @@
         <v/>
       </c>
       <c r="K94" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J94&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J94&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L94" s="29" t="str">
@@ -19428,7 +19479,7 @@
         <v/>
       </c>
       <c r="K95" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J95&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J95&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L95" s="26" t="str">
@@ -19472,7 +19523,7 @@
         <v/>
       </c>
       <c r="K96" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J96&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J96&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L96" s="29" t="str">
@@ -19516,7 +19567,7 @@
         <v/>
       </c>
       <c r="K97" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J97&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J97&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L97" s="26" t="str">
@@ -19560,7 +19611,7 @@
         <v/>
       </c>
       <c r="K98" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J98&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J98&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L98" s="29" t="str">
@@ -19604,7 +19655,7 @@
         <v/>
       </c>
       <c r="K99" s="26" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J99&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J99&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L99" s="26" t="str">
@@ -19648,7 +19699,7 @@
         <v/>
       </c>
       <c r="K100" s="29" t="str">
-        <f>IFERROR("G-"&amp;MATCH(Datos!$J100&amp;":",KANBAN!G:G,0),"")</f>
+        <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J100&amp;":",KANBAN!G:G,0),"")</f>
         <v/>
       </c>
       <c r="L100" s="29" t="str">

--- a/documentacion/tablero_kanban_web_asm.xlsx
+++ b/documentacion/tablero_kanban_web_asm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nextretoffice365-my.sharepoint.com/personal/fpa_nextret_net/Documents/proyectos Nube/tfm_ism/06-web/tfm-ism/documentacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FPA\proyectos\asm-web\tfm-ism\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{FE9AC0F9-672B-4340-A5DD-12D659DA4C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4EEC8E4-6944-492F-8952-525D61402742}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D1DEF3-4214-4575-8418-DBAB2FD013E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2205" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>POR HACER</t>
   </si>
@@ -207,13 +207,43 @@
     <t>Roles, permisos, grupo</t>
   </si>
   <si>
-    <t>Mock listado tours con Elastic</t>
+    <t>* Inicializar proyecto local</t>
   </si>
   <si>
-    <t>Comprobar que podemos leer de Elastic</t>
+    <t>* Definir estructura de la tabla users</t>
   </si>
   <si>
-    <t>31/06/2023</t>
+    <t>* Autenticar y autorizar</t>
+  </si>
+  <si>
+    <t>Gestion de Login</t>
+  </si>
+  <si>
+    <t>*JWT token</t>
+  </si>
+  <si>
+    <t>* Almacenamiento en cookies</t>
+  </si>
+  <si>
+    <t>* Unión con mockup</t>
+  </si>
+  <si>
+    <t>* Conectarse al sql</t>
+  </si>
+  <si>
+    <t>Dejar Nifi en cluster mode</t>
+  </si>
+  <si>
+    <t>Leer y procesar datos</t>
+  </si>
+  <si>
+    <t>* Desplegar Node</t>
+  </si>
+  <si>
+    <t>Copiar Node desde la otra infraestructura</t>
+  </si>
+  <si>
+    <t>* Copiar Flow de nifi</t>
   </si>
 </sst>
 </file>
@@ -223,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +338,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -528,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,6 +688,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1258,7 +1298,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showOutlineSymbols="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1410,7 @@
       </c>
       <c r="D3" s="1">
         <f>IF(C3&gt;C2,IFERROR(SMALL(C$102:C$201,C3),""),D2)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <f>IF(D3&lt;&gt;D2,3,E2+1)</f>
@@ -1378,24 +1418,24 @@
       </c>
       <c r="F3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">IF(OR(D3="",G3=""),0,LEFT(G3)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D3,2)),2))</f>
-        <v>TI</v>
+        <v>TN</v>
       </c>
       <c r="G3" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">IF(OR(D3="",E3&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E3=3,1,E3)),"$",""))&amp;D3+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E3)&amp;IF(E3=3," "&amp;D3,"")&amp;":","")))</f>
-        <v>Tarea 4:</v>
+        <v>Tarea 9:</v>
       </c>
       <c r="H3" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">IF(OR(D3="",E3&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E3),"$",""))&amp;D3+1,
 IFERROR(INDEX(TablaDatos[],D3,E3),"")))</f>
-        <v>Sincronizar con usuarios</v>
+        <v>Gestion de Login</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
       <c r="L3" s="1">
         <f>IF(K3&gt;K2,IFERROR(SMALL(K$102:K$201,K3),""),L2)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3" s="1">
         <f>IF(L3&lt;&gt;L2,3,M2+1)</f>
@@ -1403,17 +1443,17 @@
       </c>
       <c r="N3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">IF(OR(L3="",O3=""),0,LEFT(O3)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L3,2)),2))</f>
-        <v>TI</v>
+        <v>TN</v>
       </c>
       <c r="O3" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">IF(OR(L3="",M3&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M3=3,1,M3)),"$",""))&amp;L3+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,M3)&amp;IF(M3=3," "&amp;L3,"")&amp;":","")))</f>
-        <v>Tarea 1:</v>
+        <v>Tarea 4:</v>
       </c>
       <c r="P3" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">IF(OR(L3="",M3&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M3),"$",""))&amp;L3+1,
 IFERROR(INDEX(TablaDatos[],L3,M3),"")))</f>
-        <v>Desplegar Elastic</v>
+        <v>Sincronizar con usuarios</v>
       </c>
       <c r="S3" s="1">
         <v>1</v>
@@ -1498,7 +1538,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D67" ca="1" si="0">IF(C4&gt;C3,IFERROR(SMALL(C$102:C$201,C4),""),D3)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E26" ca="1" si="1">IF(D4&lt;&gt;D3,3,E3+1)</f>
@@ -1506,17 +1546,17 @@
       </c>
       <c r="F4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">IF(OR(D4="",G4=""),0,LEFT(G4)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D4,2)),2))</f>
-        <v>DI</v>
+        <v>DN</v>
       </c>
       <c r="G4" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">IF(OR(D4="",E4&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E4=3,1,E4)),"$",""))&amp;D4+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E4)&amp;IF(E4=3," "&amp;D4,"")&amp;":","")))</f>
         <v>Descripción:</v>
       </c>
-      <c r="H4" s="4" t="str" cm="1">
+      <c r="H4" s="4" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">IF(OR(D4="",E4&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E4),"$",""))&amp;D4+1,
 IFERROR(INDEX(TablaDatos[],D4,E4),"")))</f>
-        <v>Roles, permisos, grupo</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <f ca="1">K3--(O3="")</f>
@@ -1524,7 +1564,7 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L67" ca="1" si="2">IF(K4&gt;K3,IFERROR(SMALL(K$102:K$201,K4),""),L3)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:M26" ca="1" si="3">IF(L4&lt;&gt;L3,3,M3+1)</f>
@@ -1532,7 +1572,7 @@
       </c>
       <c r="N4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">IF(OR(L4="",O4=""),0,LEFT(O4)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L4,2)),2))</f>
-        <v>DI</v>
+        <v>DN</v>
       </c>
       <c r="O4" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">IF(OR(L4="",M4&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M4=3,1,M4)),"$",""))&amp;L4+1,
@@ -1542,7 +1582,7 @@
       <c r="P4" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">IF(OR(L4="",M4&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M4),"$",""))&amp;L4+1,
 IFERROR(INDEX(TablaDatos[],L4,M4),"")))</f>
-        <v>Certificados</v>
+        <v>Roles, permisos, grupo</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" ref="S4:S16" si="4">S3--(W3="")</f>
@@ -1630,7 +1670,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -1638,7 +1678,7 @@
       </c>
       <c r="F5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">IF(OR(D5="",G5=""),0,LEFT(G5)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D5,2)),2))</f>
-        <v>II</v>
+        <v>IN</v>
       </c>
       <c r="G5" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">IF(OR(D5="",E5&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E5=3,1,E5)),"$",""))&amp;D5+1,
@@ -1656,7 +1696,7 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -1664,7 +1704,7 @@
       </c>
       <c r="N5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">IF(OR(L5="",O5=""),0,LEFT(O5)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L5,2)),2))</f>
-        <v>II</v>
+        <v>IN</v>
       </c>
       <c r="O5" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">IF(OR(L5="",M5&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M5=3,1,M5)),"$",""))&amp;L5+1,
@@ -1674,7 +1714,7 @@
       <c r="P5" s="4" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">IF(OR(L5="",M5&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M5),"$",""))&amp;L5+1,
 IFERROR(INDEX(TablaDatos[],L5,M5),"")))</f>
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="4"/>
@@ -1762,7 +1802,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -1770,7 +1810,7 @@
       </c>
       <c r="F6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">IF(OR(D6="",G6=""),0,LEFT(G6)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D6,2)),2))</f>
-        <v>PI</v>
+        <v>PN</v>
       </c>
       <c r="G6" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">IF(OR(D6="",E6&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E6=3,1,E6)),"$",""))&amp;D6+1,
@@ -1780,7 +1820,7 @@
       <c r="H6" s="4" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">IF(OR(D6="",E6&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E6),"$",""))&amp;D6+1,
 IFERROR(INDEX(TablaDatos[],D6,E6),"")))</f>
-        <v>0</v>
+        <v>45148</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -1788,7 +1828,7 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -1796,7 +1836,7 @@
       </c>
       <c r="N6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">IF(OR(L6="",O6=""),0,LEFT(O6)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L6,2)),2))</f>
-        <v>PI</v>
+        <v>PN</v>
       </c>
       <c r="O6" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">IF(OR(L6="",M6&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M6=3,1,M6)),"$",""))&amp;L6+1,
@@ -1806,7 +1846,7 @@
       <c r="P6" s="4" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">IF(OR(L6="",M6&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M6),"$",""))&amp;L6+1,
 IFERROR(INDEX(TablaDatos[],L6,M6),"")))</f>
-        <v>45104</v>
+        <v>45148</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="4"/>
@@ -1894,7 +1934,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -1902,7 +1942,7 @@
       </c>
       <c r="F7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">IF(OR(D7="",G7=""),0,LEFT(G7)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D7,2)),2))</f>
-        <v>FI</v>
+        <v>FN</v>
       </c>
       <c r="G7" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">IF(OR(D7="",E7&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E7=3,1,E7)),"$",""))&amp;D7+1,
@@ -1920,7 +1960,7 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -1928,7 +1968,7 @@
       </c>
       <c r="N7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">IF(OR(L7="",O7=""),0,LEFT(O7)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L7,2)),2))</f>
-        <v>FI</v>
+        <v>FN</v>
       </c>
       <c r="O7" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">IF(OR(L7="",M7&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M7=3,1,M7)),"$",""))&amp;L7+1,
@@ -2026,7 +2066,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -2034,7 +2074,7 @@
       </c>
       <c r="F8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">IF(OR(D8="",G8=""),0,LEFT(G8)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!D8,2)),2))</f>
-        <v>AI</v>
+        <v>AN</v>
       </c>
       <c r="G8" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">IF(OR(D8="",E8&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E8=3,1,E8)),"$",""))&amp;D8+1,
@@ -2044,7 +2084,7 @@
       <c r="H8" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">IF(OR(D8="",E8&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E8),"$",""))&amp;D8+1,
 IFERROR(INDEX(TablaDatos[],D8,E8),"")))</f>
-        <v>Ana</v>
+        <v>Fio</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -2052,7 +2092,7 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -2060,7 +2100,7 @@
       </c>
       <c r="N8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">IF(OR(L8="",O8=""),0,LEFT(O8)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L8,2)),2))</f>
-        <v>AI</v>
+        <v>AN</v>
       </c>
       <c r="O8" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">IF(OR(L8="",M8&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M8=3,1,M8)),"$",""))&amp;L8+1,
@@ -2070,7 +2110,7 @@
       <c r="P8" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">IF(OR(L8="",M8&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M8),"$",""))&amp;L8+1,
 IFERROR(INDEX(TablaDatos[],L8,M8),"")))</f>
-        <v>Fio</v>
+        <v>Ana</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="4"/>
@@ -2158,7 +2198,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -2184,7 +2224,7 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -2290,7 +2330,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -2303,38 +2343,38 @@
       <c r="G10" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">IF(OR(D10="",E10&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(E10=3,1,E10)),"$",""))&amp;D10+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,E10)&amp;IF(E10=3," "&amp;D10,"")&amp;":","")))</f>
-        <v>Tarea 5:</v>
+        <v>Tarea 14:</v>
       </c>
       <c r="H10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">IF(OR(D10="",E10&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E10),"$",""))&amp;D10+1,
 IFERROR(INDEX(TablaDatos[],D10,E10),"")))</f>
-        <v>Mock listado tours con Elastic</v>
+        <v>Leer y procesar datos</v>
       </c>
       <c r="K10" s="1">
         <f ca="1">K9--(O9="")</f>
         <v>2</v>
       </c>
-      <c r="L10" s="1" t="str">
+      <c r="L10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="N10" s="1" cm="1">
+      <c r="N10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">IF(OR(L10="",O10=""),0,LEFT(O10)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L10,2)),2))</f>
-        <v>0</v>
+        <v>TU</v>
       </c>
       <c r="O10" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">IF(OR(L10="",M10&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M10=3,1,M10)),"$",""))&amp;L10+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,M10)&amp;IF(M10=3," "&amp;L10,"")&amp;":","")))</f>
-        <v/>
+        <v>Tarea 13:</v>
       </c>
       <c r="P10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">IF(OR(L10="",M10&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M10),"$",""))&amp;L10+1,
 IFERROR(INDEX(TablaDatos[],L10,M10),"")))</f>
-        <v/>
+        <v>Dejar Nifi en cluster mode</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="4"/>
@@ -2422,7 +2462,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -2437,36 +2477,36 @@
 IFERROR(INDEX(TablaDatos[#Headers],1,E11)&amp;IF(E11=3," "&amp;D11,"")&amp;":","")))</f>
         <v>Descripción:</v>
       </c>
-      <c r="H11" s="4" t="str" cm="1">
+      <c r="H11" s="4" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">IF(OR(D11="",E11&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E11),"$",""))&amp;D11+1,
 IFERROR(INDEX(TablaDatos[],D11,E11),"")))</f>
-        <v>Comprobar que podemos leer de Elastic</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ref="K11:K18" ca="1" si="15">K10--(O10="")</f>
-        <v>3</v>
-      </c>
-      <c r="L11" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="N11" s="1" cm="1">
+      <c r="N11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">IF(OR(L11="",O11=""),0,LEFT(O11)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L11,2)),2))</f>
-        <v>0</v>
+        <v>DU</v>
       </c>
       <c r="O11" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">IF(OR(L11="",M11&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M11=3,1,M11)),"$",""))&amp;L11+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,M11)&amp;IF(M11=3," "&amp;L11,"")&amp;":","")))</f>
-        <v/>
-      </c>
-      <c r="P11" s="4" t="str" cm="1">
+        <v>Descripción:</v>
+      </c>
+      <c r="P11" s="4" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">IF(OR(L11="",M11&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M11),"$",""))&amp;L11+1,
 IFERROR(INDEX(TablaDatos[],L11,M11),"")))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="4"/>
@@ -2554,7 +2594,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -2569,36 +2609,36 @@
 IFERROR(INDEX(TablaDatos[#Headers],1,E12)&amp;IF(E12=3," "&amp;D12,"")&amp;":","")))</f>
         <v>Inicio:</v>
       </c>
-      <c r="H12" s="4" t="str" cm="1">
+      <c r="H12" s="4" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">IF(OR(D12="",E12&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E12),"$",""))&amp;D12+1,
 IFERROR(INDEX(TablaDatos[],D12,E12),"")))</f>
-        <v>31/06/2023</v>
+        <v>45138</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="L12" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-      <c r="N12" s="1" cm="1">
+      <c r="N12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">IF(OR(L12="",O12=""),0,LEFT(O12)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L12,2)),2))</f>
-        <v>0</v>
+        <v>IU</v>
       </c>
       <c r="O12" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">IF(OR(L12="",M12&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M12=3,1,M12)),"$",""))&amp;L12+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,M12)&amp;IF(M12=3," "&amp;L12,"")&amp;":","")))</f>
-        <v/>
-      </c>
-      <c r="P12" s="4" t="str" cm="1">
+        <v>Inicio:</v>
+      </c>
+      <c r="P12" s="4" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">IF(OR(L12="",M12&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M12),"$",""))&amp;L12+1,
 IFERROR(INDEX(TablaDatos[],L12,M12),"")))</f>
-        <v/>
+        <v>45138</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" si="4"/>
@@ -2686,7 +2726,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -2704,33 +2744,33 @@
       <c r="H13" s="4" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">IF(OR(D13="",E13&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E13),"$",""))&amp;D13+1,
 IFERROR(INDEX(TablaDatos[],D13,E13),"")))</f>
-        <v>0</v>
+        <v>45142</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="L13" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="N13" s="1" cm="1">
+      <c r="N13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">IF(OR(L13="",O13=""),0,LEFT(O13)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L13,2)),2))</f>
-        <v>0</v>
+        <v>PU</v>
       </c>
       <c r="O13" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">IF(OR(L13="",M13&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M13=3,1,M13)),"$",""))&amp;L13+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,M13)&amp;IF(M13=3," "&amp;L13,"")&amp;":","")))</f>
-        <v/>
-      </c>
-      <c r="P13" s="4" t="str" cm="1">
+        <v>Previsto:</v>
+      </c>
+      <c r="P13" s="4" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">IF(OR(L13="",M13&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M13),"$",""))&amp;L13+1,
 IFERROR(INDEX(TablaDatos[],L13,M13),"")))</f>
-        <v/>
+        <v>45139</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="4"/>
@@ -2818,7 +2858,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -2840,29 +2880,29 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="L14" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="N14" s="1" cm="1">
+      <c r="N14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">IF(OR(L14="",O14=""),0,LEFT(O14)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L14,2)),2))</f>
-        <v>0</v>
+        <v>FU</v>
       </c>
       <c r="O14" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">IF(OR(L14="",M14&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M14=3,1,M14)),"$",""))&amp;L14+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,M14)&amp;IF(M14=3," "&amp;L14,"")&amp;":","")))</f>
-        <v/>
-      </c>
-      <c r="P14" s="4" t="str" cm="1">
+        <v>Final:</v>
+      </c>
+      <c r="P14" s="4" cm="1">
         <f t="array" aca="1" ref="P14" ca="1">IF(OR(L14="",M14&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M14),"$",""))&amp;L14+1,
 IFERROR(INDEX(TablaDatos[],L14,M14),"")))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="4"/>
@@ -2950,7 +2990,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -2968,33 +3008,33 @@
       <c r="H15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">IF(OR(D15="",E15&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,E15),"$",""))&amp;D15+1,
 IFERROR(INDEX(TablaDatos[],D15,E15),"")))</f>
-        <v>Ana</v>
+        <v>Fio</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="L15" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
-      <c r="N15" s="1" cm="1">
+      <c r="N15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">IF(OR(L15="",O15=""),0,LEFT(O15)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L15,2)),2))</f>
-        <v>0</v>
+        <v>AU</v>
       </c>
       <c r="O15" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">IF(OR(L15="",M15&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M15=3,1,M15)),"$",""))&amp;L15+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,M15)&amp;IF(M15=3," "&amp;L15,"")&amp;":","")))</f>
-        <v/>
+        <v>Asignado:</v>
       </c>
       <c r="P15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">IF(OR(L15="",M15&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M15),"$",""))&amp;L15+1,
 IFERROR(INDEX(TablaDatos[],L15,M15),"")))</f>
-        <v/>
+        <v>Fio</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="4"/>
@@ -3082,7 +3122,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -3104,11 +3144,11 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="L16" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3236,7 +3276,7 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3244,7 +3284,7 @@
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N17" s="1" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">IF(OR(L17="",O17=""),0,LEFT(O17)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L17,2)),2))</f>
@@ -3368,7 +3408,7 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3376,7 +3416,7 @@
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N18" s="1" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">IF(OR(L18="",O18=""),0,LEFT(O18)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L18,2)),2))</f>
@@ -3500,7 +3540,7 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" ref="K19:K26" ca="1" si="18">K18--(O18="")</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3508,7 +3548,7 @@
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N19" s="1" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">IF(OR(L19="",O19=""),0,LEFT(O19)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L19,2)),2))</f>
@@ -3632,7 +3672,7 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3640,7 +3680,7 @@
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N20" s="1" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">IF(OR(L20="",O20=""),0,LEFT(O20)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L20,2)),2))</f>
@@ -3764,7 +3804,7 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3772,7 +3812,7 @@
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N21" s="1" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">IF(OR(L21="",O21=""),0,LEFT(O21)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L21,2)),2))</f>
@@ -3896,7 +3936,7 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3904,7 +3944,7 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N22" s="1" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">IF(OR(L22="",O22=""),0,LEFT(O22)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L22,2)),2))</f>
@@ -4028,7 +4068,7 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4036,7 +4076,7 @@
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N23" s="1" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">IF(OR(L23="",O23=""),0,LEFT(O23)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L23,2)),2))</f>
@@ -4160,7 +4200,7 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4168,7 +4208,7 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N24" s="1" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">IF(OR(L24="",O24=""),0,LEFT(O24)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L24,2)),2))</f>
@@ -4292,7 +4332,7 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4300,7 +4340,7 @@
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N25" s="1" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">IF(OR(L25="",O25=""),0,LEFT(O25)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L25,2)),2))</f>
@@ -4424,7 +4464,7 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4432,7 +4472,7 @@
       </c>
       <c r="M26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N26" s="1" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">IF(OR(L26="",O26=""),0,LEFT(O26)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L26,2)),2))</f>
@@ -4556,7 +4596,7 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" ref="K27:K28" ca="1" si="22">K26--(O26="")</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4564,7 +4604,7 @@
       </c>
       <c r="M27" s="1">
         <f t="shared" ref="M27:M28" ca="1" si="23">IF(L27&lt;&gt;L26,3,M26+1)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N27" s="1" cm="1">
         <f t="array" aca="1" ref="N27" ca="1">IF(OR(L27="",O27=""),0,LEFT(O27)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L27,2)),2))</f>
@@ -4688,7 +4728,7 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4696,7 +4736,7 @@
       </c>
       <c r="M28" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N28" s="1" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">IF(OR(L28="",O28=""),0,LEFT(O28)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L28,2)),2))</f>
@@ -4820,7 +4860,7 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" ref="K29:K92" ca="1" si="30">K28--(O28="")</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4828,7 +4868,7 @@
       </c>
       <c r="M29" s="1">
         <f t="shared" ref="M29:M92" ca="1" si="31">IF(L29&lt;&gt;L28,3,M28+1)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N29" s="1" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">IF(OR(L29="",O29=""),0,LEFT(O29)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L29,2)),2))</f>
@@ -4952,7 +4992,7 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4960,7 +5000,7 @@
       </c>
       <c r="M30" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N30" s="1" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">IF(OR(L30="",O30=""),0,LEFT(O30)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L30,2)),2))</f>
@@ -5084,7 +5124,7 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5092,7 +5132,7 @@
       </c>
       <c r="M31" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N31" s="1" cm="1">
         <f t="array" aca="1" ref="N31" ca="1">IF(OR(L31="",O31=""),0,LEFT(O31)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L31,2)),2))</f>
@@ -5216,7 +5256,7 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5224,7 +5264,7 @@
       </c>
       <c r="M32" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N32" s="1" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">IF(OR(L32="",O32=""),0,LEFT(O32)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L32,2)),2))</f>
@@ -5348,7 +5388,7 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5356,7 +5396,7 @@
       </c>
       <c r="M33" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N33" s="1" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">IF(OR(L33="",O33=""),0,LEFT(O33)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L33,2)),2))</f>
@@ -5480,7 +5520,7 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5488,7 +5528,7 @@
       </c>
       <c r="M34" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N34" s="1" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">IF(OR(L34="",O34=""),0,LEFT(O34)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L34,2)),2))</f>
@@ -5612,7 +5652,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5620,7 +5660,7 @@
       </c>
       <c r="M35" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N35" s="1" cm="1">
         <f t="array" aca="1" ref="N35" ca="1">IF(OR(L35="",O35=""),0,LEFT(O35)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L35,2)),2))</f>
@@ -5744,7 +5784,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5752,7 +5792,7 @@
       </c>
       <c r="M36" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N36" s="1" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">IF(OR(L36="",O36=""),0,LEFT(O36)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L36,2)),2))</f>
@@ -5876,7 +5916,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5884,7 +5924,7 @@
       </c>
       <c r="M37" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N37" s="1" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">IF(OR(L37="",O37=""),0,LEFT(O37)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L37,2)),2))</f>
@@ -6008,7 +6048,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6016,7 +6056,7 @@
       </c>
       <c r="M38" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N38" s="1" cm="1">
         <f t="array" aca="1" ref="N38" ca="1">IF(OR(L38="",O38=""),0,LEFT(O38)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L38,2)),2))</f>
@@ -6140,7 +6180,7 @@
       </c>
       <c r="K39" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6148,7 +6188,7 @@
       </c>
       <c r="M39" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N39" s="1" cm="1">
         <f t="array" aca="1" ref="N39" ca="1">IF(OR(L39="",O39=""),0,LEFT(O39)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L39,2)),2))</f>
@@ -6272,7 +6312,7 @@
       </c>
       <c r="K40" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6280,7 +6320,7 @@
       </c>
       <c r="M40" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N40" s="1" cm="1">
         <f t="array" aca="1" ref="N40" ca="1">IF(OR(L40="",O40=""),0,LEFT(O40)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L40,2)),2))</f>
@@ -6404,7 +6444,7 @@
       </c>
       <c r="K41" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6412,7 +6452,7 @@
       </c>
       <c r="M41" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N41" s="1" cm="1">
         <f t="array" aca="1" ref="N41" ca="1">IF(OR(L41="",O41=""),0,LEFT(O41)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L41,2)),2))</f>
@@ -6536,7 +6576,7 @@
       </c>
       <c r="K42" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6544,7 +6584,7 @@
       </c>
       <c r="M42" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N42" s="1" cm="1">
         <f t="array" aca="1" ref="N42" ca="1">IF(OR(L42="",O42=""),0,LEFT(O42)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L42,2)),2))</f>
@@ -6668,7 +6708,7 @@
       </c>
       <c r="K43" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6676,7 +6716,7 @@
       </c>
       <c r="M43" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N43" s="1" cm="1">
         <f t="array" aca="1" ref="N43" ca="1">IF(OR(L43="",O43=""),0,LEFT(O43)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L43,2)),2))</f>
@@ -6800,7 +6840,7 @@
       </c>
       <c r="K44" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6808,7 +6848,7 @@
       </c>
       <c r="M44" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N44" s="1" cm="1">
         <f t="array" aca="1" ref="N44" ca="1">IF(OR(L44="",O44=""),0,LEFT(O44)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L44,2)),2))</f>
@@ -6932,7 +6972,7 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6940,7 +6980,7 @@
       </c>
       <c r="M45" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N45" s="1" cm="1">
         <f t="array" aca="1" ref="N45" ca="1">IF(OR(L45="",O45=""),0,LEFT(O45)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L45,2)),2))</f>
@@ -7064,7 +7104,7 @@
       </c>
       <c r="K46" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7072,7 +7112,7 @@
       </c>
       <c r="M46" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N46" s="1" cm="1">
         <f t="array" aca="1" ref="N46" ca="1">IF(OR(L46="",O46=""),0,LEFT(O46)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L46,2)),2))</f>
@@ -7196,7 +7236,7 @@
       </c>
       <c r="K47" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7204,7 +7244,7 @@
       </c>
       <c r="M47" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N47" s="1" cm="1">
         <f t="array" aca="1" ref="N47" ca="1">IF(OR(L47="",O47=""),0,LEFT(O47)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L47,2)),2))</f>
@@ -7328,7 +7368,7 @@
       </c>
       <c r="K48" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7336,7 +7376,7 @@
       </c>
       <c r="M48" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N48" s="1" cm="1">
         <f t="array" aca="1" ref="N48" ca="1">IF(OR(L48="",O48=""),0,LEFT(O48)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L48,2)),2))</f>
@@ -7460,7 +7500,7 @@
       </c>
       <c r="K49" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7468,7 +7508,7 @@
       </c>
       <c r="M49" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N49" s="1" cm="1">
         <f t="array" aca="1" ref="N49" ca="1">IF(OR(L49="",O49=""),0,LEFT(O49)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L49,2)),2))</f>
@@ -7592,7 +7632,7 @@
       </c>
       <c r="K50" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7600,7 +7640,7 @@
       </c>
       <c r="M50" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N50" s="1" cm="1">
         <f t="array" aca="1" ref="N50" ca="1">IF(OR(L50="",O50=""),0,LEFT(O50)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L50,2)),2))</f>
@@ -7724,7 +7764,7 @@
       </c>
       <c r="K51" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7732,7 +7772,7 @@
       </c>
       <c r="M51" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N51" s="1" cm="1">
         <f t="array" aca="1" ref="N51" ca="1">IF(OR(L51="",O51=""),0,LEFT(O51)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L51,2)),2))</f>
@@ -7856,7 +7896,7 @@
       </c>
       <c r="K52" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L52" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7864,7 +7904,7 @@
       </c>
       <c r="M52" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N52" s="1" cm="1">
         <f t="array" aca="1" ref="N52" ca="1">IF(OR(L52="",O52=""),0,LEFT(O52)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L52,2)),2))</f>
@@ -7988,7 +8028,7 @@
       </c>
       <c r="K53" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L53" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7996,7 +8036,7 @@
       </c>
       <c r="M53" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N53" s="1" cm="1">
         <f t="array" aca="1" ref="N53" ca="1">IF(OR(L53="",O53=""),0,LEFT(O53)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L53,2)),2))</f>
@@ -8120,7 +8160,7 @@
       </c>
       <c r="K54" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L54" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8128,7 +8168,7 @@
       </c>
       <c r="M54" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N54" s="1" cm="1">
         <f t="array" aca="1" ref="N54" ca="1">IF(OR(L54="",O54=""),0,LEFT(O54)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L54,2)),2))</f>
@@ -8252,7 +8292,7 @@
       </c>
       <c r="K55" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L55" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8260,7 +8300,7 @@
       </c>
       <c r="M55" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N55" s="1" cm="1">
         <f t="array" aca="1" ref="N55" ca="1">IF(OR(L55="",O55=""),0,LEFT(O55)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L55,2)),2))</f>
@@ -8384,7 +8424,7 @@
       </c>
       <c r="K56" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L56" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8392,7 +8432,7 @@
       </c>
       <c r="M56" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N56" s="1" cm="1">
         <f t="array" aca="1" ref="N56" ca="1">IF(OR(L56="",O56=""),0,LEFT(O56)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L56,2)),2))</f>
@@ -8516,7 +8556,7 @@
       </c>
       <c r="K57" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L57" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8524,7 +8564,7 @@
       </c>
       <c r="M57" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N57" s="1" cm="1">
         <f t="array" aca="1" ref="N57" ca="1">IF(OR(L57="",O57=""),0,LEFT(O57)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L57,2)),2))</f>
@@ -8648,7 +8688,7 @@
       </c>
       <c r="K58" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L58" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8656,7 +8696,7 @@
       </c>
       <c r="M58" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N58" s="1" cm="1">
         <f t="array" aca="1" ref="N58" ca="1">IF(OR(L58="",O58=""),0,LEFT(O58)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L58,2)),2))</f>
@@ -8780,7 +8820,7 @@
       </c>
       <c r="K59" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L59" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8788,7 +8828,7 @@
       </c>
       <c r="M59" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N59" s="1" cm="1">
         <f t="array" aca="1" ref="N59" ca="1">IF(OR(L59="",O59=""),0,LEFT(O59)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L59,2)),2))</f>
@@ -8912,7 +8952,7 @@
       </c>
       <c r="K60" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L60" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8920,7 +8960,7 @@
       </c>
       <c r="M60" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N60" s="1" cm="1">
         <f t="array" aca="1" ref="N60" ca="1">IF(OR(L60="",O60=""),0,LEFT(O60)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L60,2)),2))</f>
@@ -9044,7 +9084,7 @@
       </c>
       <c r="K61" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L61" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9052,7 +9092,7 @@
       </c>
       <c r="M61" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="N61" s="1" cm="1">
         <f t="array" aca="1" ref="N61" ca="1">IF(OR(L61="",O61=""),0,LEFT(O61)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L61,2)),2))</f>
@@ -9176,7 +9216,7 @@
       </c>
       <c r="K62" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L62" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9184,7 +9224,7 @@
       </c>
       <c r="M62" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N62" s="1" cm="1">
         <f t="array" aca="1" ref="N62" ca="1">IF(OR(L62="",O62=""),0,LEFT(O62)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L62,2)),2))</f>
@@ -9308,7 +9348,7 @@
       </c>
       <c r="K63" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L63" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9316,7 +9356,7 @@
       </c>
       <c r="M63" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N63" s="1" cm="1">
         <f t="array" aca="1" ref="N63" ca="1">IF(OR(L63="",O63=""),0,LEFT(O63)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L63,2)),2))</f>
@@ -9440,7 +9480,7 @@
       </c>
       <c r="K64" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L64" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9448,7 +9488,7 @@
       </c>
       <c r="M64" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N64" s="1" cm="1">
         <f t="array" aca="1" ref="N64" ca="1">IF(OR(L64="",O64=""),0,LEFT(O64)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L64,2)),2))</f>
@@ -9572,7 +9612,7 @@
       </c>
       <c r="K65" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L65" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9580,7 +9620,7 @@
       </c>
       <c r="M65" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="N65" s="1" cm="1">
         <f t="array" aca="1" ref="N65" ca="1">IF(OR(L65="",O65=""),0,LEFT(O65)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L65,2)),2))</f>
@@ -9704,7 +9744,7 @@
       </c>
       <c r="K66" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L66" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9712,7 +9752,7 @@
       </c>
       <c r="M66" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N66" s="1" cm="1">
         <f t="array" aca="1" ref="N66" ca="1">IF(OR(L66="",O66=""),0,LEFT(O66)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L66,2)),2))</f>
@@ -9836,7 +9876,7 @@
       </c>
       <c r="K67" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L67" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9844,7 +9884,7 @@
       </c>
       <c r="M67" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N67" s="1" cm="1">
         <f t="array" aca="1" ref="N67" ca="1">IF(OR(L67="",O67=""),0,LEFT(O67)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L67,2)),2))</f>
@@ -9968,7 +10008,7 @@
       </c>
       <c r="K68" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L68" s="1" t="str">
         <f t="shared" ref="L68:L99" ca="1" si="37">IF(K68&gt;K67,IFERROR(SMALL(K$102:K$201,K68),""),L67)</f>
@@ -9976,7 +10016,7 @@
       </c>
       <c r="M68" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N68" s="1" cm="1">
         <f t="array" aca="1" ref="N68" ca="1">IF(OR(L68="",O68=""),0,LEFT(O68)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L68,2)),2))</f>
@@ -10100,7 +10140,7 @@
       </c>
       <c r="K69" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L69" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10108,7 +10148,7 @@
       </c>
       <c r="M69" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N69" s="1" cm="1">
         <f t="array" aca="1" ref="N69" ca="1">IF(OR(L69="",O69=""),0,LEFT(O69)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L69,2)),2))</f>
@@ -10232,7 +10272,7 @@
       </c>
       <c r="K70" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L70" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10240,7 +10280,7 @@
       </c>
       <c r="M70" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N70" s="1" cm="1">
         <f t="array" aca="1" ref="N70" ca="1">IF(OR(L70="",O70=""),0,LEFT(O70)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L70,2)),2))</f>
@@ -10364,7 +10404,7 @@
       </c>
       <c r="K71" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L71" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10372,7 +10412,7 @@
       </c>
       <c r="M71" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N71" s="1" cm="1">
         <f t="array" aca="1" ref="N71" ca="1">IF(OR(L71="",O71=""),0,LEFT(O71)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L71,2)),2))</f>
@@ -10496,7 +10536,7 @@
       </c>
       <c r="K72" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L72" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10504,7 +10544,7 @@
       </c>
       <c r="M72" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N72" s="1" cm="1">
         <f t="array" aca="1" ref="N72" ca="1">IF(OR(L72="",O72=""),0,LEFT(O72)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L72,2)),2))</f>
@@ -10628,7 +10668,7 @@
       </c>
       <c r="K73" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L73" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10636,7 +10676,7 @@
       </c>
       <c r="M73" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N73" s="1" cm="1">
         <f t="array" aca="1" ref="N73" ca="1">IF(OR(L73="",O73=""),0,LEFT(O73)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L73,2)),2))</f>
@@ -10760,7 +10800,7 @@
       </c>
       <c r="K74" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L74" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10768,7 +10808,7 @@
       </c>
       <c r="M74" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N74" s="1" cm="1">
         <f t="array" aca="1" ref="N74" ca="1">IF(OR(L74="",O74=""),0,LEFT(O74)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L74,2)),2))</f>
@@ -10892,7 +10932,7 @@
       </c>
       <c r="K75" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L75" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10900,7 +10940,7 @@
       </c>
       <c r="M75" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="N75" s="1" cm="1">
         <f t="array" aca="1" ref="N75" ca="1">IF(OR(L75="",O75=""),0,LEFT(O75)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L75,2)),2))</f>
@@ -11024,7 +11064,7 @@
       </c>
       <c r="K76" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L76" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11032,7 +11072,7 @@
       </c>
       <c r="M76" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="N76" s="1" cm="1">
         <f t="array" aca="1" ref="N76" ca="1">IF(OR(L76="",O76=""),0,LEFT(O76)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L76,2)),2))</f>
@@ -11156,7 +11196,7 @@
       </c>
       <c r="K77" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L77" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11164,7 +11204,7 @@
       </c>
       <c r="M77" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="N77" s="1" cm="1">
         <f t="array" aca="1" ref="N77" ca="1">IF(OR(L77="",O77=""),0,LEFT(O77)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L77,2)),2))</f>
@@ -11288,7 +11328,7 @@
       </c>
       <c r="K78" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L78" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11296,7 +11336,7 @@
       </c>
       <c r="M78" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N78" s="1" cm="1">
         <f t="array" aca="1" ref="N78" ca="1">IF(OR(L78="",O78=""),0,LEFT(O78)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L78,2)),2))</f>
@@ -11420,7 +11460,7 @@
       </c>
       <c r="K79" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L79" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11428,7 +11468,7 @@
       </c>
       <c r="M79" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N79" s="1" cm="1">
         <f t="array" aca="1" ref="N79" ca="1">IF(OR(L79="",O79=""),0,LEFT(O79)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L79,2)),2))</f>
@@ -11552,7 +11592,7 @@
       </c>
       <c r="K80" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L80" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11560,7 +11600,7 @@
       </c>
       <c r="M80" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N80" s="1" cm="1">
         <f t="array" aca="1" ref="N80" ca="1">IF(OR(L80="",O80=""),0,LEFT(O80)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L80,2)),2))</f>
@@ -11684,7 +11724,7 @@
       </c>
       <c r="K81" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L81" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11692,7 +11732,7 @@
       </c>
       <c r="M81" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N81" s="1" cm="1">
         <f t="array" aca="1" ref="N81" ca="1">IF(OR(L81="",O81=""),0,LEFT(O81)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L81,2)),2))</f>
@@ -11816,7 +11856,7 @@
       </c>
       <c r="K82" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L82" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11824,7 +11864,7 @@
       </c>
       <c r="M82" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N82" s="1" cm="1">
         <f t="array" aca="1" ref="N82" ca="1">IF(OR(L82="",O82=""),0,LEFT(O82)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L82,2)),2))</f>
@@ -11948,7 +11988,7 @@
       </c>
       <c r="K83" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L83" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11956,7 +11996,7 @@
       </c>
       <c r="M83" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N83" s="1" cm="1">
         <f t="array" aca="1" ref="N83" ca="1">IF(OR(L83="",O83=""),0,LEFT(O83)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L83,2)),2))</f>
@@ -12080,7 +12120,7 @@
       </c>
       <c r="K84" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L84" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12088,7 +12128,7 @@
       </c>
       <c r="M84" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="N84" s="1" cm="1">
         <f t="array" aca="1" ref="N84" ca="1">IF(OR(L84="",O84=""),0,LEFT(O84)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L84,2)),2))</f>
@@ -12212,7 +12252,7 @@
       </c>
       <c r="K85" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L85" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12220,7 +12260,7 @@
       </c>
       <c r="M85" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N85" s="1" cm="1">
         <f t="array" aca="1" ref="N85" ca="1">IF(OR(L85="",O85=""),0,LEFT(O85)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L85,2)),2))</f>
@@ -12344,7 +12384,7 @@
       </c>
       <c r="K86" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L86" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12352,7 +12392,7 @@
       </c>
       <c r="M86" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="N86" s="1" cm="1">
         <f t="array" aca="1" ref="N86" ca="1">IF(OR(L86="",O86=""),0,LEFT(O86)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L86,2)),2))</f>
@@ -12476,7 +12516,7 @@
       </c>
       <c r="K87" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L87" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12484,7 +12524,7 @@
       </c>
       <c r="M87" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="N87" s="1" cm="1">
         <f t="array" aca="1" ref="N87" ca="1">IF(OR(L87="",O87=""),0,LEFT(O87)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L87,2)),2))</f>
@@ -12608,7 +12648,7 @@
       </c>
       <c r="K88" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L88" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12616,7 +12656,7 @@
       </c>
       <c r="M88" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N88" s="1" cm="1">
         <f t="array" aca="1" ref="N88" ca="1">IF(OR(L88="",O88=""),0,LEFT(O88)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L88,2)),2))</f>
@@ -12740,7 +12780,7 @@
       </c>
       <c r="K89" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L89" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12748,7 +12788,7 @@
       </c>
       <c r="M89" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N89" s="1" cm="1">
         <f t="array" aca="1" ref="N89" ca="1">IF(OR(L89="",O89=""),0,LEFT(O89)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L89,2)),2))</f>
@@ -12872,7 +12912,7 @@
       </c>
       <c r="K90" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L90" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12880,7 +12920,7 @@
       </c>
       <c r="M90" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N90" s="1" cm="1">
         <f t="array" aca="1" ref="N90" ca="1">IF(OR(L90="",O90=""),0,LEFT(O90)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L90,2)),2))</f>
@@ -13004,7 +13044,7 @@
       </c>
       <c r="K91" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L91" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13012,7 +13052,7 @@
       </c>
       <c r="M91" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N91" s="1" cm="1">
         <f t="array" aca="1" ref="N91" ca="1">IF(OR(L91="",O91=""),0,LEFT(O91)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L91,2)),2))</f>
@@ -13136,7 +13176,7 @@
       </c>
       <c r="K92" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L92" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13144,7 +13184,7 @@
       </c>
       <c r="M92" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N92" s="1" cm="1">
         <f t="array" aca="1" ref="N92" ca="1">IF(OR(L92="",O92=""),0,LEFT(O92)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L92,2)),2))</f>
@@ -13268,7 +13308,7 @@
       </c>
       <c r="K93" s="1">
         <f t="shared" ref="K93:K99" ca="1" si="45">K92--(O92="")</f>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L93" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13276,7 +13316,7 @@
       </c>
       <c r="M93" s="1">
         <f t="shared" ref="M93:M99" ca="1" si="46">IF(L93&lt;&gt;L92,3,M92+1)</f>
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N93" s="1" cm="1">
         <f t="array" aca="1" ref="N93" ca="1">IF(OR(L93="",O93=""),0,LEFT(O93)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L93,2)),2))</f>
@@ -13400,7 +13440,7 @@
       </c>
       <c r="K94" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L94" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13408,7 +13448,7 @@
       </c>
       <c r="M94" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N94" s="1" cm="1">
         <f t="array" aca="1" ref="N94" ca="1">IF(OR(L94="",O94=""),0,LEFT(O94)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L94,2)),2))</f>
@@ -13532,7 +13572,7 @@
       </c>
       <c r="K95" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L95" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13540,7 +13580,7 @@
       </c>
       <c r="M95" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="N95" s="1" cm="1">
         <f t="array" aca="1" ref="N95" ca="1">IF(OR(L95="",O95=""),0,LEFT(O95)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L95,2)),2))</f>
@@ -13664,7 +13704,7 @@
       </c>
       <c r="K96" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L96" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13672,7 +13712,7 @@
       </c>
       <c r="M96" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N96" s="1" cm="1">
         <f t="array" aca="1" ref="N96" ca="1">IF(OR(L96="",O96=""),0,LEFT(O96)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L96,2)),2))</f>
@@ -13796,7 +13836,7 @@
       </c>
       <c r="K97" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L97" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13804,7 +13844,7 @@
       </c>
       <c r="M97" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N97" s="1" cm="1">
         <f t="array" aca="1" ref="N97" ca="1">IF(OR(L97="",O97=""),0,LEFT(O97)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L97,2)),2))</f>
@@ -13928,7 +13968,7 @@
       </c>
       <c r="K98" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L98" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13936,7 +13976,7 @@
       </c>
       <c r="M98" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N98" s="1" cm="1">
         <f t="array" aca="1" ref="N98" ca="1">IF(OR(L98="",O98=""),0,LEFT(O98)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L98,2)),2))</f>
@@ -14060,7 +14100,7 @@
       </c>
       <c r="K99" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L99" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -14068,7 +14108,7 @@
       </c>
       <c r="M99" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N99" s="1" cm="1">
         <f t="array" aca="1" ref="N99" ca="1">IF(OR(L99="",O99=""),0,LEFT(O99)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L99,2)),2))</f>
@@ -14222,9 +14262,9 @@
         <f t="array" ref="C102:C151">IF(TablaDatos[Estado]=G$1,ROW(TablaDatos[Estado])-1,"")</f>
         <v/>
       </c>
-      <c r="K102" s="1" cm="1">
+      <c r="K102" s="1" t="str" cm="1">
         <f t="array" ref="K102:K151">IF(TablaDatos[Estado]=O$1,ROW(TablaDatos[Estado])-1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="S102" s="1" t="str" cm="1">
         <f t="array" ref="S102:S151">IF(TablaDatos[Estado]=W$1,ROW(TablaDatos[Estado])-1,"")</f>
@@ -14274,12 +14314,12 @@
       </c>
     </row>
     <row r="105" spans="2:41" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="1">
+      <c r="C105" s="1" t="str">
+        <v/>
+      </c>
+      <c r="K105" s="1">
         <v>4</v>
       </c>
-      <c r="K105" s="1" t="str">
-        <v/>
-      </c>
       <c r="S105" s="1" t="str">
         <v/>
       </c>
@@ -14291,8 +14331,8 @@
       </c>
     </row>
     <row r="106" spans="2:41" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="1">
-        <v>5</v>
+      <c r="C106" s="1" t="str">
+        <v/>
       </c>
       <c r="K106" s="1" t="str">
         <v/>
@@ -14359,8 +14399,8 @@
       </c>
     </row>
     <row r="110" spans="2:41" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C110" s="1" t="str">
-        <v/>
+      <c r="C110" s="1">
+        <v>9</v>
       </c>
       <c r="K110" s="1" t="str">
         <v/>
@@ -14430,8 +14470,8 @@
       <c r="C114" s="1" t="str">
         <v/>
       </c>
-      <c r="K114" s="1" t="str">
-        <v/>
+      <c r="K114" s="1">
+        <v>13</v>
       </c>
       <c r="S114" s="1" t="str">
         <v/>
@@ -14444,8 +14484,8 @@
       </c>
     </row>
     <row r="115" spans="3:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="1" t="str">
-        <v/>
+      <c r="C115" s="1">
+        <v>14</v>
       </c>
       <c r="K115" s="1" t="str">
         <v/>
@@ -15116,7 +15156,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -15194,7 +15234,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>17</v>
@@ -15209,7 +15249,10 @@
         <v>45099</v>
       </c>
       <c r="F2" s="7">
-        <v>45104</v>
+        <v>45137</v>
+      </c>
+      <c r="G2" s="7">
+        <v>45137</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>28</v>
@@ -15228,7 +15271,7 @@
       </c>
       <c r="L2" s="26" t="str">
         <f ca="1">IFERROR("O-"&amp;MATCH(Datos!$J2&amp;":",KANBAN!O:O,0),"")</f>
-        <v>O-3</v>
+        <v/>
       </c>
       <c r="M2" s="26" t="str">
         <f>IFERROR("W-"&amp;MATCH(Datos!$J2&amp;":",KANBAN!W:W,0),"")</f>
@@ -15244,12 +15287,12 @@
       </c>
       <c r="P2" s="26" t="str">
         <f ca="1">Datos!$K2&amp;Datos!$L2&amp;Datos!$M2&amp;Datos!$N2&amp;Datos!$O2</f>
-        <v>O-3</v>
+        <v/>
       </c>
       <c r="Q2" s="27" t="str">
         <f ca="1">IFERROR(LEFT(Datos!$P2,FIND("-",Datos!$P2)-1) &amp; SUBSTITUTE(Datos!$P2,LEFT(Datos!$P2,FIND("-",Datos!$P2)-1) &amp;"-","") &amp; ":" &amp;
 LEFT(Datos!$P2,FIND("-",Datos!$P2)-1) &amp; SUBSTITUTE(Datos!$P2,LEFT(Datos!$P2,FIND("-",Datos!$P2)-1) &amp;"-","")+5,"")</f>
-        <v>O3:O8</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -15269,10 +15312,10 @@
         <v>45099</v>
       </c>
       <c r="F3" s="7">
-        <v>45104</v>
+        <v>45134</v>
       </c>
       <c r="G3" s="7">
-        <v>45101</v>
+        <v>45131</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>28</v>
@@ -15329,10 +15372,10 @@
         <v>45099</v>
       </c>
       <c r="F4" s="7">
-        <v>45104</v>
+        <v>45134</v>
       </c>
       <c r="G4" s="7">
-        <v>45101</v>
+        <v>45131</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>28</v>
@@ -15377,10 +15420,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>40</v>
@@ -15390,6 +15433,9 @@
       </c>
       <c r="E5" s="7">
         <v>45105</v>
+      </c>
+      <c r="F5" s="7">
+        <v>45148</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>29</v>
@@ -15404,11 +15450,11 @@
       </c>
       <c r="K5" s="29" t="str">
         <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J5&amp;":",KANBAN!G:G,0),"")</f>
-        <v>G-3</v>
+        <v/>
       </c>
       <c r="L5" s="29" t="str">
         <f ca="1">IFERROR("O-"&amp;MATCH(Datos!$J5&amp;":",KANBAN!O:O,0),"")</f>
-        <v/>
+        <v>O-3</v>
       </c>
       <c r="M5" s="29" t="str">
         <f>IFERROR("W-"&amp;MATCH(Datos!$J5&amp;":",KANBAN!W:W,0),"")</f>
@@ -15424,44 +15470,26 @@
       </c>
       <c r="P5" s="29" t="str">
         <f ca="1">Datos!$K5&amp;Datos!$L5&amp;Datos!$M5&amp;Datos!$N5&amp;Datos!$O5</f>
-        <v>G-3</v>
+        <v>O-3</v>
       </c>
       <c r="Q5" s="30" t="str">
         <f ca="1">IFERROR(LEFT(Datos!$P5,FIND("-",Datos!$P5)-1) &amp; SUBSTITUTE(Datos!$P5,LEFT(Datos!$P5,FIND("-",Datos!$P5)-1) &amp;"-","") &amp; ":" &amp;
 LEFT(Datos!$P5,FIND("-",Datos!$P5)-1) &amp; SUBSTITUTE(Datos!$P5,LEFT(Datos!$P5,FIND("-",Datos!$P5)-1) &amp;"-","")+5,"")</f>
-        <v>G3:G8</v>
+        <v>O3:O8</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="34" t="str" cm="1">
-        <f t="array" aca="1" ref="I6" ca="1">HYPERLINK("["&amp;Archivo_Nombre&amp;"]KANBAN!"&amp;INDEX(Datos!$Q$2:$Q$100,ROW()-1),IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1))</f>
-        <v>Tarea 5</v>
-      </c>
+      <c r="I6" s="40"/>
       <c r="J6" s="25" t="str">
         <f>IFERROR(IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1),"")</f>
-        <v>Tarea 5</v>
+        <v/>
       </c>
       <c r="K6" s="26" t="str">
         <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J6&amp;":",KANBAN!G:G,0),"")</f>
-        <v>G-10</v>
+        <v/>
       </c>
       <c r="L6" s="26" t="str">
         <f ca="1">IFERROR("O-"&amp;MATCH(Datos!$J6&amp;":",KANBAN!O:O,0),"")</f>
@@ -15481,15 +15509,18 @@
       </c>
       <c r="P6" s="26" t="str">
         <f ca="1">Datos!$K6&amp;Datos!$L6&amp;Datos!$M6&amp;Datos!$N6&amp;Datos!$O6</f>
-        <v>G-10</v>
+        <v/>
       </c>
       <c r="Q6" s="27" t="str">
         <f ca="1">IFERROR(LEFT(Datos!$P6,FIND("-",Datos!$P6)-1) &amp; SUBSTITUTE(Datos!$P6,LEFT(Datos!$P6,FIND("-",Datos!$P6)-1) &amp;"-","") &amp; ":" &amp;
 LEFT(Datos!$P6,FIND("-",Datos!$P6)-1) &amp; SUBSTITUTE(Datos!$P6,LEFT(Datos!$P6,FIND("-",Datos!$P6)-1) &amp;"-","")+5,"")</f>
-        <v>G10:G15</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="I7" s="34" t="str" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">HYPERLINK("["&amp;Archivo_Nombre&amp;"]KANBAN!"&amp;INDEX(Datos!$Q$2:$Q$100,ROW()-1),IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1))</f>
         <v/>
@@ -15529,6 +15560,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="I8" s="34" t="str" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">HYPERLINK("["&amp;Archivo_Nombre&amp;"]KANBAN!"&amp;INDEX(Datos!$Q$2:$Q$100,ROW()-1),IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1))</f>
         <v/>
@@ -15568,6 +15602,9 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="I9" s="34" t="str" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">HYPERLINK("["&amp;Archivo_Nombre&amp;"]KANBAN!"&amp;INDEX(Datos!$Q$2:$Q$100,ROW()-1),IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1))</f>
         <v/>
@@ -15607,17 +15644,35 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7">
+        <v>45105</v>
+      </c>
+      <c r="F10" s="7">
+        <v>45148</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="I10" s="34" t="str" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">HYPERLINK("["&amp;Archivo_Nombre&amp;"]KANBAN!"&amp;INDEX(Datos!$Q$2:$Q$100,ROW()-1),IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1))</f>
-        <v/>
+        <v>Tarea 9</v>
       </c>
       <c r="J10" s="25" t="str">
         <f>IFERROR(IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1),"")</f>
-        <v/>
+        <v>Tarea 9</v>
       </c>
       <c r="K10" s="26" t="str">
         <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J10&amp;":",KANBAN!G:G,0),"")</f>
-        <v/>
+        <v>G-3</v>
       </c>
       <c r="L10" s="26" t="str">
         <f ca="1">IFERROR("O-"&amp;MATCH(Datos!$J10&amp;":",KANBAN!O:O,0),"")</f>
@@ -15637,27 +15692,26 @@
       </c>
       <c r="P10" s="26" t="str">
         <f ca="1">Datos!$K10&amp;Datos!$L10&amp;Datos!$M10&amp;Datos!$N10&amp;Datos!$O10</f>
-        <v/>
+        <v>G-3</v>
       </c>
       <c r="Q10" s="27" t="str">
         <f ca="1">IFERROR(LEFT(Datos!$P10,FIND("-",Datos!$P10)-1) &amp; SUBSTITUTE(Datos!$P10,LEFT(Datos!$P10,FIND("-",Datos!$P10)-1) &amp;"-","") &amp; ":" &amp;
 LEFT(Datos!$P10,FIND("-",Datos!$P10)-1) &amp; SUBSTITUTE(Datos!$P10,LEFT(Datos!$P10,FIND("-",Datos!$P10)-1) &amp;"-","")+5,"")</f>
-        <v/>
+        <v>G3:G8</v>
       </c>
     </row>
     <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="34" t="str" cm="1">
-        <f t="array" aca="1" ref="I11" ca="1">HYPERLINK("["&amp;Archivo_Nombre&amp;"]KANBAN!"&amp;INDEX(Datos!$Q$2:$Q$100,ROW()-1),IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1))</f>
-        <v/>
-      </c>
+      <c r="I11" s="40"/>
       <c r="J11" s="28" t="str">
         <f>IFERROR(IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1),"")</f>
         <v/>
@@ -15695,7 +15749,9 @@
     <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -15742,7 +15798,9 @@
     <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -15787,21 +15845,33 @@
       </c>
     </row>
     <row r="14" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7">
+        <v>45138</v>
+      </c>
+      <c r="F14" s="7">
+        <v>45139</v>
+      </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="I14" s="34" t="str" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">HYPERLINK("["&amp;Archivo_Nombre&amp;"]KANBAN!"&amp;INDEX(Datos!$Q$2:$Q$100,ROW()-1),IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1))</f>
-        <v/>
+        <v>Tarea 13</v>
       </c>
       <c r="J14" s="25" t="str">
         <f>IFERROR(IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1),"")</f>
-        <v/>
+        <v>Tarea 13</v>
       </c>
       <c r="K14" s="26" t="str">
         <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J14&amp;":",KANBAN!G:G,0),"")</f>
@@ -15809,7 +15879,7 @@
       </c>
       <c r="L14" s="26" t="str">
         <f ca="1">IFERROR("O-"&amp;MATCH(Datos!$J14&amp;":",KANBAN!O:O,0),"")</f>
-        <v/>
+        <v>O-10</v>
       </c>
       <c r="M14" s="26" t="str">
         <f>IFERROR("W-"&amp;MATCH(Datos!$J14&amp;":",KANBAN!W:W,0),"")</f>
@@ -15825,34 +15895,46 @@
       </c>
       <c r="P14" s="26" t="str">
         <f ca="1">Datos!$K14&amp;Datos!$L14&amp;Datos!$M14&amp;Datos!$N14&amp;Datos!$O14</f>
-        <v/>
+        <v>O-10</v>
       </c>
       <c r="Q14" s="27" t="str">
         <f ca="1">IFERROR(LEFT(Datos!$P14,FIND("-",Datos!$P14)-1) &amp; SUBSTITUTE(Datos!$P14,LEFT(Datos!$P14,FIND("-",Datos!$P14)-1) &amp;"-","") &amp; ":" &amp;
 LEFT(Datos!$P14,FIND("-",Datos!$P14)-1) &amp; SUBSTITUTE(Datos!$P14,LEFT(Datos!$P14,FIND("-",Datos!$P14)-1) &amp;"-","")+5,"")</f>
-        <v/>
+        <v>O10:O15</v>
       </c>
     </row>
     <row r="15" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="7">
+        <v>45138</v>
+      </c>
+      <c r="F15" s="7">
+        <v>45142</v>
+      </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="I15" s="34" t="str" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">HYPERLINK("["&amp;Archivo_Nombre&amp;"]KANBAN!"&amp;INDEX(Datos!$Q$2:$Q$100,ROW()-1),IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1))</f>
-        <v/>
+        <v>Tarea 14</v>
       </c>
       <c r="J15" s="25" t="str">
         <f>IFERROR(IF(TablaDatos[[#This Row],[Estado]]="","","Tarea "&amp;ROW()-1),"")</f>
-        <v/>
+        <v>Tarea 14</v>
       </c>
       <c r="K15" s="26" t="str">
         <f ca="1">IFERROR("G-"&amp;MATCH(Datos!$J15&amp;":",KANBAN!G:G,0),"")</f>
-        <v/>
+        <v>G-10</v>
       </c>
       <c r="L15" s="26" t="str">
         <f ca="1">IFERROR("O-"&amp;MATCH(Datos!$J15&amp;":",KANBAN!O:O,0),"")</f>
@@ -15872,19 +15954,23 @@
       </c>
       <c r="P15" s="26" t="str">
         <f ca="1">Datos!$K15&amp;Datos!$L15&amp;Datos!$M15&amp;Datos!$N15&amp;Datos!$O15</f>
-        <v/>
+        <v>G-10</v>
       </c>
       <c r="Q15" s="27" t="str">
         <f ca="1">IFERROR(LEFT(Datos!$P15,FIND("-",Datos!$P15)-1) &amp; SUBSTITUTE(Datos!$P15,LEFT(Datos!$P15,FIND("-",Datos!$P15)-1) &amp;"-","") &amp; ":" &amp;
 LEFT(Datos!$P15,FIND("-",Datos!$P15)-1) &amp; SUBSTITUTE(Datos!$P15,LEFT(Datos!$P15,FIND("-",Datos!$P15)-1) &amp;"-","")+5,"")</f>
-        <v/>
+        <v>G10:G15</v>
       </c>
     </row>
     <row r="16" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -15930,7 +16016,9 @@
     <row r="17" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -19733,13 +19821,13 @@
   <sheetProtection autoFilter="0"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A51" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5 A7:A10 A12:A51" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>ListaEstados</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5 B7:B10 B12:B51" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>ListaCriticidad</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H51" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5 H7:H10 H12:H51" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>ListaUsuarios</formula1>
     </dataValidation>
   </dataValidations>
@@ -19780,36 +19868,36 @@
       <c r="B2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="38"/>
     </row>
     <row r="3" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">

--- a/documentacion/tablero_kanban_web_asm.xlsx
+++ b/documentacion/tablero_kanban_web_asm.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FPA\proyectos\asm-web\tfm-ism\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D1DEF3-4214-4575-8418-DBAB2FD013E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB242AB8-CD3D-407F-B572-756F6FD050C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2205" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KANBAN" sheetId="1" r:id="rId1"/>
@@ -2354,27 +2354,27 @@
         <f ca="1">K9--(O9="")</f>
         <v>2</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="N10" s="1" t="str" cm="1">
+      <c r="N10" s="1" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">IF(OR(L10="",O10=""),0,LEFT(O10)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L10,2)),2))</f>
-        <v>TU</v>
+        <v>0</v>
       </c>
       <c r="O10" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">IF(OR(L10="",M10&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M10=3,1,M10)),"$",""))&amp;L10+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,M10)&amp;IF(M10=3," "&amp;L10,"")&amp;":","")))</f>
-        <v>Tarea 13:</v>
+        <v/>
       </c>
       <c r="P10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">IF(OR(L10="",M10&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M10),"$",""))&amp;L10+1,
 IFERROR(INDEX(TablaDatos[],L10,M10),"")))</f>
-        <v>Dejar Nifi en cluster mode</v>
+        <v/>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="4"/>
@@ -2484,29 +2484,29 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" ref="K11:K18" ca="1" si="15">K10--(O10="")</f>
-        <v>2</v>
-      </c>
-      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="N11" s="1" t="str" cm="1">
+      <c r="N11" s="1" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">IF(OR(L11="",O11=""),0,LEFT(O11)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L11,2)),2))</f>
-        <v>DU</v>
+        <v>0</v>
       </c>
       <c r="O11" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">IF(OR(L11="",M11&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M11=3,1,M11)),"$",""))&amp;L11+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,M11)&amp;IF(M11=3," "&amp;L11,"")&amp;":","")))</f>
-        <v>Descripción:</v>
-      </c>
-      <c r="P11" s="4" cm="1">
+        <v/>
+      </c>
+      <c r="P11" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">IF(OR(L11="",M11&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M11),"$",""))&amp;L11+1,
 IFERROR(INDEX(TablaDatos[],L11,M11),"")))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="4"/>
@@ -2616,29 +2616,29 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-      <c r="N12" s="1" t="str" cm="1">
+      <c r="N12" s="1" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">IF(OR(L12="",O12=""),0,LEFT(O12)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L12,2)),2))</f>
-        <v>IU</v>
+        <v>0</v>
       </c>
       <c r="O12" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">IF(OR(L12="",M12&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M12=3,1,M12)),"$",""))&amp;L12+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,M12)&amp;IF(M12=3," "&amp;L12,"")&amp;":","")))</f>
-        <v>Inicio:</v>
-      </c>
-      <c r="P12" s="4" cm="1">
+        <v/>
+      </c>
+      <c r="P12" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">IF(OR(L12="",M12&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M12),"$",""))&amp;L12+1,
 IFERROR(INDEX(TablaDatos[],L12,M12),"")))</f>
-        <v>45138</v>
+        <v/>
       </c>
       <c r="S12" s="1">
         <f t="shared" si="4"/>
@@ -2748,29 +2748,29 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="N13" s="1" t="str" cm="1">
+      <c r="N13" s="1" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">IF(OR(L13="",O13=""),0,LEFT(O13)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L13,2)),2))</f>
-        <v>PU</v>
+        <v>0</v>
       </c>
       <c r="O13" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">IF(OR(L13="",M13&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M13=3,1,M13)),"$",""))&amp;L13+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,M13)&amp;IF(M13=3," "&amp;L13,"")&amp;":","")))</f>
-        <v>Previsto:</v>
-      </c>
-      <c r="P13" s="4" cm="1">
+        <v/>
+      </c>
+      <c r="P13" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">IF(OR(L13="",M13&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M13),"$",""))&amp;L13+1,
 IFERROR(INDEX(TablaDatos[],L13,M13),"")))</f>
-        <v>45139</v>
+        <v/>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="4"/>
@@ -2880,29 +2880,29 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="L14" s="1">
+        <v>6</v>
+      </c>
+      <c r="L14" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="N14" s="1" t="str" cm="1">
+      <c r="N14" s="1" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">IF(OR(L14="",O14=""),0,LEFT(O14)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L14,2)),2))</f>
-        <v>FU</v>
+        <v>0</v>
       </c>
       <c r="O14" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">IF(OR(L14="",M14&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M14=3,1,M14)),"$",""))&amp;L14+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,M14)&amp;IF(M14=3," "&amp;L14,"")&amp;":","")))</f>
-        <v>Final:</v>
-      </c>
-      <c r="P14" s="4" cm="1">
+        <v/>
+      </c>
+      <c r="P14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P14" ca="1">IF(OR(L14="",M14&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M14),"$",""))&amp;L14+1,
 IFERROR(INDEX(TablaDatos[],L14,M14),"")))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="4"/>
@@ -3012,29 +3012,29 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="L15" s="1">
+        <v>7</v>
+      </c>
+      <c r="L15" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
-      <c r="N15" s="1" t="str" cm="1">
+      <c r="N15" s="1" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">IF(OR(L15="",O15=""),0,LEFT(O15)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L15,2)),2))</f>
-        <v>AU</v>
+        <v>0</v>
       </c>
       <c r="O15" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">IF(OR(L15="",M15&gt;8),"",HYPERLINK("[" &amp; Archivo_Nombre &amp; "]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,IF(M15=3,1,M15)),"$",""))&amp;L15+1,
 IFERROR(INDEX(TablaDatos[#Headers],1,M15)&amp;IF(M15=3," "&amp;L15,"")&amp;":","")))</f>
-        <v>Asignado:</v>
+        <v/>
       </c>
       <c r="P15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">IF(OR(L15="",M15&gt;8),"",HYPERLINK("["&amp;Archivo_Nombre&amp;"]Datos!"&amp;LEFT(SUBSTITUTE(ADDRESS(1,M15),"$",""))&amp;L15+1,
 IFERROR(INDEX(TablaDatos[],L15,M15),"")))</f>
-        <v>Fio</v>
+        <v/>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="4"/>
@@ -3144,11 +3144,11 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="L16" s="1">
+        <v>8</v>
+      </c>
+      <c r="L16" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N17" s="1" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">IF(OR(L17="",O17=""),0,LEFT(O17)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L17,2)),2))</f>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N18" s="1" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">IF(OR(L18="",O18=""),0,LEFT(O18)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L18,2)),2))</f>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" ref="K19:K26" ca="1" si="18">K18--(O18="")</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N19" s="1" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">IF(OR(L19="",O19=""),0,LEFT(O19)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L19,2)),2))</f>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N20" s="1" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">IF(OR(L20="",O20=""),0,LEFT(O20)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L20,2)),2))</f>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N21" s="1" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">IF(OR(L21="",O21=""),0,LEFT(O21)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L21,2)),2))</f>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N22" s="1" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">IF(OR(L22="",O22=""),0,LEFT(O22)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L22,2)),2))</f>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N23" s="1" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">IF(OR(L23="",O23=""),0,LEFT(O23)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L23,2)),2))</f>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N24" s="1" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">IF(OR(L24="",O24=""),0,LEFT(O24)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L24,2)),2))</f>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N25" s="1" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">IF(OR(L25="",O25=""),0,LEFT(O25)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L25,2)),2))</f>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="M26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N26" s="1" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">IF(OR(L26="",O26=""),0,LEFT(O26)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L26,2)),2))</f>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" ref="K27:K28" ca="1" si="22">K26--(O26="")</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="M27" s="1">
         <f t="shared" ref="M27:M28" ca="1" si="23">IF(L27&lt;&gt;L26,3,M26+1)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N27" s="1" cm="1">
         <f t="array" aca="1" ref="N27" ca="1">IF(OR(L27="",O27=""),0,LEFT(O27)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L27,2)),2))</f>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="M28" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N28" s="1" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">IF(OR(L28="",O28=""),0,LEFT(O28)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L28,2)),2))</f>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" ref="K29:K92" ca="1" si="30">K28--(O28="")</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="M29" s="1">
         <f t="shared" ref="M29:M92" ca="1" si="31">IF(L29&lt;&gt;L28,3,M28+1)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N29" s="1" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">IF(OR(L29="",O29=""),0,LEFT(O29)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L29,2)),2))</f>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="M30" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N30" s="1" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">IF(OR(L30="",O30=""),0,LEFT(O30)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L30,2)),2))</f>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="M31" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N31" s="1" cm="1">
         <f t="array" aca="1" ref="N31" ca="1">IF(OR(L31="",O31=""),0,LEFT(O31)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L31,2)),2))</f>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="M32" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N32" s="1" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">IF(OR(L32="",O32=""),0,LEFT(O32)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L32,2)),2))</f>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="M33" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N33" s="1" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">IF(OR(L33="",O33=""),0,LEFT(O33)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L33,2)),2))</f>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="M34" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N34" s="1" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">IF(OR(L34="",O34=""),0,LEFT(O34)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L34,2)),2))</f>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="M35" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N35" s="1" cm="1">
         <f t="array" aca="1" ref="N35" ca="1">IF(OR(L35="",O35=""),0,LEFT(O35)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L35,2)),2))</f>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="M36" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N36" s="1" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">IF(OR(L36="",O36=""),0,LEFT(O36)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L36,2)),2))</f>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="M37" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N37" s="1" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">IF(OR(L37="",O37=""),0,LEFT(O37)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L37,2)),2))</f>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="M38" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N38" s="1" cm="1">
         <f t="array" aca="1" ref="N38" ca="1">IF(OR(L38="",O38=""),0,LEFT(O38)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L38,2)),2))</f>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="K39" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="M39" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N39" s="1" cm="1">
         <f t="array" aca="1" ref="N39" ca="1">IF(OR(L39="",O39=""),0,LEFT(O39)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L39,2)),2))</f>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="K40" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="M40" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N40" s="1" cm="1">
         <f t="array" aca="1" ref="N40" ca="1">IF(OR(L40="",O40=""),0,LEFT(O40)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L40,2)),2))</f>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="K41" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="M41" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N41" s="1" cm="1">
         <f t="array" aca="1" ref="N41" ca="1">IF(OR(L41="",O41=""),0,LEFT(O41)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L41,2)),2))</f>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="K42" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="M42" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N42" s="1" cm="1">
         <f t="array" aca="1" ref="N42" ca="1">IF(OR(L42="",O42=""),0,LEFT(O42)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L42,2)),2))</f>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="K43" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="M43" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N43" s="1" cm="1">
         <f t="array" aca="1" ref="N43" ca="1">IF(OR(L43="",O43=""),0,LEFT(O43)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L43,2)),2))</f>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="K44" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="M44" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N44" s="1" cm="1">
         <f t="array" aca="1" ref="N44" ca="1">IF(OR(L44="",O44=""),0,LEFT(O44)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L44,2)),2))</f>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="M45" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N45" s="1" cm="1">
         <f t="array" aca="1" ref="N45" ca="1">IF(OR(L45="",O45=""),0,LEFT(O45)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L45,2)),2))</f>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="K46" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7112,7 +7112,7 @@
       </c>
       <c r="M46" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N46" s="1" cm="1">
         <f t="array" aca="1" ref="N46" ca="1">IF(OR(L46="",O46=""),0,LEFT(O46)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L46,2)),2))</f>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="K47" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7244,7 +7244,7 @@
       </c>
       <c r="M47" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N47" s="1" cm="1">
         <f t="array" aca="1" ref="N47" ca="1">IF(OR(L47="",O47=""),0,LEFT(O47)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L47,2)),2))</f>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="K48" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="M48" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N48" s="1" cm="1">
         <f t="array" aca="1" ref="N48" ca="1">IF(OR(L48="",O48=""),0,LEFT(O48)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L48,2)),2))</f>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="K49" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="M49" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N49" s="1" cm="1">
         <f t="array" aca="1" ref="N49" ca="1">IF(OR(L49="",O49=""),0,LEFT(O49)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L49,2)),2))</f>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="K50" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7640,7 +7640,7 @@
       </c>
       <c r="M50" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N50" s="1" cm="1">
         <f t="array" aca="1" ref="N50" ca="1">IF(OR(L50="",O50=""),0,LEFT(O50)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L50,2)),2))</f>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="K51" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7772,7 +7772,7 @@
       </c>
       <c r="M51" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N51" s="1" cm="1">
         <f t="array" aca="1" ref="N51" ca="1">IF(OR(L51="",O51=""),0,LEFT(O51)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L51,2)),2))</f>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="K52" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L52" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7904,7 +7904,7 @@
       </c>
       <c r="M52" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N52" s="1" cm="1">
         <f t="array" aca="1" ref="N52" ca="1">IF(OR(L52="",O52=""),0,LEFT(O52)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L52,2)),2))</f>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="K53" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L53" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="M53" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N53" s="1" cm="1">
         <f t="array" aca="1" ref="N53" ca="1">IF(OR(L53="",O53=""),0,LEFT(O53)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L53,2)),2))</f>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="K54" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L54" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="M54" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N54" s="1" cm="1">
         <f t="array" aca="1" ref="N54" ca="1">IF(OR(L54="",O54=""),0,LEFT(O54)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L54,2)),2))</f>
@@ -8292,7 +8292,7 @@
       </c>
       <c r="K55" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L55" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8300,7 +8300,7 @@
       </c>
       <c r="M55" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N55" s="1" cm="1">
         <f t="array" aca="1" ref="N55" ca="1">IF(OR(L55="",O55=""),0,LEFT(O55)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L55,2)),2))</f>
@@ -8424,7 +8424,7 @@
       </c>
       <c r="K56" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L56" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8432,7 +8432,7 @@
       </c>
       <c r="M56" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N56" s="1" cm="1">
         <f t="array" aca="1" ref="N56" ca="1">IF(OR(L56="",O56=""),0,LEFT(O56)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L56,2)),2))</f>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="K57" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L57" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8564,7 +8564,7 @@
       </c>
       <c r="M57" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N57" s="1" cm="1">
         <f t="array" aca="1" ref="N57" ca="1">IF(OR(L57="",O57=""),0,LEFT(O57)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L57,2)),2))</f>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="K58" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L58" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8696,7 +8696,7 @@
       </c>
       <c r="M58" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N58" s="1" cm="1">
         <f t="array" aca="1" ref="N58" ca="1">IF(OR(L58="",O58=""),0,LEFT(O58)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L58,2)),2))</f>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="K59" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L59" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="M59" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N59" s="1" cm="1">
         <f t="array" aca="1" ref="N59" ca="1">IF(OR(L59="",O59=""),0,LEFT(O59)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L59,2)),2))</f>
@@ -8952,7 +8952,7 @@
       </c>
       <c r="K60" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L60" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8960,7 +8960,7 @@
       </c>
       <c r="M60" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N60" s="1" cm="1">
         <f t="array" aca="1" ref="N60" ca="1">IF(OR(L60="",O60=""),0,LEFT(O60)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L60,2)),2))</f>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="K61" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L61" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9092,7 +9092,7 @@
       </c>
       <c r="M61" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N61" s="1" cm="1">
         <f t="array" aca="1" ref="N61" ca="1">IF(OR(L61="",O61=""),0,LEFT(O61)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L61,2)),2))</f>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="K62" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L62" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9224,7 +9224,7 @@
       </c>
       <c r="M62" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N62" s="1" cm="1">
         <f t="array" aca="1" ref="N62" ca="1">IF(OR(L62="",O62=""),0,LEFT(O62)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L62,2)),2))</f>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="K63" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L63" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="M63" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N63" s="1" cm="1">
         <f t="array" aca="1" ref="N63" ca="1">IF(OR(L63="",O63=""),0,LEFT(O63)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L63,2)),2))</f>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="K64" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="L64" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="M64" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N64" s="1" cm="1">
         <f t="array" aca="1" ref="N64" ca="1">IF(OR(L64="",O64=""),0,LEFT(O64)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L64,2)),2))</f>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="K65" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L65" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9620,7 +9620,7 @@
       </c>
       <c r="M65" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N65" s="1" cm="1">
         <f t="array" aca="1" ref="N65" ca="1">IF(OR(L65="",O65=""),0,LEFT(O65)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L65,2)),2))</f>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="K66" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L66" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="M66" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N66" s="1" cm="1">
         <f t="array" aca="1" ref="N66" ca="1">IF(OR(L66="",O66=""),0,LEFT(O66)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L66,2)),2))</f>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="K67" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L67" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="M67" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="N67" s="1" cm="1">
         <f t="array" aca="1" ref="N67" ca="1">IF(OR(L67="",O67=""),0,LEFT(O67)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L67,2)),2))</f>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="K68" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L68" s="1" t="str">
         <f t="shared" ref="L68:L99" ca="1" si="37">IF(K68&gt;K67,IFERROR(SMALL(K$102:K$201,K68),""),L67)</f>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="M68" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N68" s="1" cm="1">
         <f t="array" aca="1" ref="N68" ca="1">IF(OR(L68="",O68=""),0,LEFT(O68)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L68,2)),2))</f>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="K69" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L69" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10148,7 +10148,7 @@
       </c>
       <c r="M69" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N69" s="1" cm="1">
         <f t="array" aca="1" ref="N69" ca="1">IF(OR(L69="",O69=""),0,LEFT(O69)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L69,2)),2))</f>
@@ -10272,7 +10272,7 @@
       </c>
       <c r="K70" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L70" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10280,7 +10280,7 @@
       </c>
       <c r="M70" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="N70" s="1" cm="1">
         <f t="array" aca="1" ref="N70" ca="1">IF(OR(L70="",O70=""),0,LEFT(O70)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L70,2)),2))</f>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="K71" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L71" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="M71" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N71" s="1" cm="1">
         <f t="array" aca="1" ref="N71" ca="1">IF(OR(L71="",O71=""),0,LEFT(O71)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L71,2)),2))</f>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="K72" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L72" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="M72" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N72" s="1" cm="1">
         <f t="array" aca="1" ref="N72" ca="1">IF(OR(L72="",O72=""),0,LEFT(O72)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L72,2)),2))</f>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="K73" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L73" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="M73" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N73" s="1" cm="1">
         <f t="array" aca="1" ref="N73" ca="1">IF(OR(L73="",O73=""),0,LEFT(O73)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L73,2)),2))</f>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="K74" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L74" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="M74" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N74" s="1" cm="1">
         <f t="array" aca="1" ref="N74" ca="1">IF(OR(L74="",O74=""),0,LEFT(O74)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L74,2)),2))</f>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="K75" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L75" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -10940,7 +10940,7 @@
       </c>
       <c r="M75" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="N75" s="1" cm="1">
         <f t="array" aca="1" ref="N75" ca="1">IF(OR(L75="",O75=""),0,LEFT(O75)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L75,2)),2))</f>
@@ -11064,7 +11064,7 @@
       </c>
       <c r="K76" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L76" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11072,7 +11072,7 @@
       </c>
       <c r="M76" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N76" s="1" cm="1">
         <f t="array" aca="1" ref="N76" ca="1">IF(OR(L76="",O76=""),0,LEFT(O76)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L76,2)),2))</f>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="K77" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L77" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11204,7 +11204,7 @@
       </c>
       <c r="M77" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N77" s="1" cm="1">
         <f t="array" aca="1" ref="N77" ca="1">IF(OR(L77="",O77=""),0,LEFT(O77)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L77,2)),2))</f>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="K78" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L78" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11336,7 +11336,7 @@
       </c>
       <c r="M78" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N78" s="1" cm="1">
         <f t="array" aca="1" ref="N78" ca="1">IF(OR(L78="",O78=""),0,LEFT(O78)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L78,2)),2))</f>
@@ -11460,7 +11460,7 @@
       </c>
       <c r="K79" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L79" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11468,7 +11468,7 @@
       </c>
       <c r="M79" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N79" s="1" cm="1">
         <f t="array" aca="1" ref="N79" ca="1">IF(OR(L79="",O79=""),0,LEFT(O79)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L79,2)),2))</f>
@@ -11592,7 +11592,7 @@
       </c>
       <c r="K80" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L80" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11600,7 +11600,7 @@
       </c>
       <c r="M80" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N80" s="1" cm="1">
         <f t="array" aca="1" ref="N80" ca="1">IF(OR(L80="",O80=""),0,LEFT(O80)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L80,2)),2))</f>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="K81" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L81" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11732,7 +11732,7 @@
       </c>
       <c r="M81" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="N81" s="1" cm="1">
         <f t="array" aca="1" ref="N81" ca="1">IF(OR(L81="",O81=""),0,LEFT(O81)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L81,2)),2))</f>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="K82" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L82" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11864,7 +11864,7 @@
       </c>
       <c r="M82" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N82" s="1" cm="1">
         <f t="array" aca="1" ref="N82" ca="1">IF(OR(L82="",O82=""),0,LEFT(O82)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L82,2)),2))</f>
@@ -11988,7 +11988,7 @@
       </c>
       <c r="K83" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L83" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="M83" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N83" s="1" cm="1">
         <f t="array" aca="1" ref="N83" ca="1">IF(OR(L83="",O83=""),0,LEFT(O83)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L83,2)),2))</f>
@@ -12120,7 +12120,7 @@
       </c>
       <c r="K84" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L84" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12128,7 +12128,7 @@
       </c>
       <c r="M84" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N84" s="1" cm="1">
         <f t="array" aca="1" ref="N84" ca="1">IF(OR(L84="",O84=""),0,LEFT(O84)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L84,2)),2))</f>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="K85" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L85" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12260,7 +12260,7 @@
       </c>
       <c r="M85" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="N85" s="1" cm="1">
         <f t="array" aca="1" ref="N85" ca="1">IF(OR(L85="",O85=""),0,LEFT(O85)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L85,2)),2))</f>
@@ -12384,7 +12384,7 @@
       </c>
       <c r="K86" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L86" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12392,7 +12392,7 @@
       </c>
       <c r="M86" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="N86" s="1" cm="1">
         <f t="array" aca="1" ref="N86" ca="1">IF(OR(L86="",O86=""),0,LEFT(O86)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L86,2)),2))</f>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="K87" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L87" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12524,7 +12524,7 @@
       </c>
       <c r="M87" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N87" s="1" cm="1">
         <f t="array" aca="1" ref="N87" ca="1">IF(OR(L87="",O87=""),0,LEFT(O87)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L87,2)),2))</f>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="K88" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L88" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="M88" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="N88" s="1" cm="1">
         <f t="array" aca="1" ref="N88" ca="1">IF(OR(L88="",O88=""),0,LEFT(O88)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L88,2)),2))</f>
@@ -12780,7 +12780,7 @@
       </c>
       <c r="K89" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L89" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="M89" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N89" s="1" cm="1">
         <f t="array" aca="1" ref="N89" ca="1">IF(OR(L89="",O89=""),0,LEFT(O89)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L89,2)),2))</f>
@@ -12912,7 +12912,7 @@
       </c>
       <c r="K90" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L90" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -12920,7 +12920,7 @@
       </c>
       <c r="M90" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N90" s="1" cm="1">
         <f t="array" aca="1" ref="N90" ca="1">IF(OR(L90="",O90=""),0,LEFT(O90)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L90,2)),2))</f>
@@ -13044,7 +13044,7 @@
       </c>
       <c r="K91" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L91" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13052,7 +13052,7 @@
       </c>
       <c r="M91" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="N91" s="1" cm="1">
         <f t="array" aca="1" ref="N91" ca="1">IF(OR(L91="",O91=""),0,LEFT(O91)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L91,2)),2))</f>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="K92" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L92" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13184,7 +13184,7 @@
       </c>
       <c r="M92" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N92" s="1" cm="1">
         <f t="array" aca="1" ref="N92" ca="1">IF(OR(L92="",O92=""),0,LEFT(O92)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L92,2)),2))</f>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="K93" s="1">
         <f t="shared" ref="K93:K99" ca="1" si="45">K92--(O92="")</f>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L93" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13316,7 +13316,7 @@
       </c>
       <c r="M93" s="1">
         <f t="shared" ref="M93:M99" ca="1" si="46">IF(L93&lt;&gt;L92,3,M92+1)</f>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="N93" s="1" cm="1">
         <f t="array" aca="1" ref="N93" ca="1">IF(OR(L93="",O93=""),0,LEFT(O93)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L93,2)),2))</f>
@@ -13440,7 +13440,7 @@
       </c>
       <c r="K94" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L94" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13448,7 +13448,7 @@
       </c>
       <c r="M94" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N94" s="1" cm="1">
         <f t="array" aca="1" ref="N94" ca="1">IF(OR(L94="",O94=""),0,LEFT(O94)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L94,2)),2))</f>
@@ -13572,7 +13572,7 @@
       </c>
       <c r="K95" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L95" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13580,7 +13580,7 @@
       </c>
       <c r="M95" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="N95" s="1" cm="1">
         <f t="array" aca="1" ref="N95" ca="1">IF(OR(L95="",O95=""),0,LEFT(O95)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L95,2)),2))</f>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="K96" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L96" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13712,7 +13712,7 @@
       </c>
       <c r="M96" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N96" s="1" cm="1">
         <f t="array" aca="1" ref="N96" ca="1">IF(OR(L96="",O96=""),0,LEFT(O96)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L96,2)),2))</f>
@@ -13836,7 +13836,7 @@
       </c>
       <c r="K97" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L97" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13844,7 +13844,7 @@
       </c>
       <c r="M97" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="N97" s="1" cm="1">
         <f t="array" aca="1" ref="N97" ca="1">IF(OR(L97="",O97=""),0,LEFT(O97)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L97,2)),2))</f>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="K98" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L98" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="M98" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" cm="1">
         <f t="array" aca="1" ref="N98" ca="1">IF(OR(L98="",O98=""),0,LEFT(O98)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L98,2)),2))</f>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="K99" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L99" s="1" t="str">
         <f t="shared" ca="1" si="37"/>
@@ -14108,7 +14108,7 @@
       </c>
       <c r="M99" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="N99" s="1" cm="1">
         <f t="array" aca="1" ref="N99" ca="1">IF(OR(L99="",O99=""),0,LEFT(O99)&amp;IFERROR(LEFT(INDEX(DatosKanban,KANBAN!L99,2)),2))</f>
@@ -14470,8 +14470,8 @@
       <c r="C114" s="1" t="str">
         <v/>
       </c>
-      <c r="K114" s="1">
-        <v>13</v>
+      <c r="K114" s="1" t="str">
+        <v/>
       </c>
       <c r="S114" s="1" t="str">
         <v/>
@@ -15156,7 +15156,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -15846,10 +15846,10 @@
     </row>
     <row r="14" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>50</v>
@@ -15879,7 +15879,7 @@
       </c>
       <c r="L14" s="26" t="str">
         <f ca="1">IFERROR("O-"&amp;MATCH(Datos!$J14&amp;":",KANBAN!O:O,0),"")</f>
-        <v>O-10</v>
+        <v/>
       </c>
       <c r="M14" s="26" t="str">
         <f>IFERROR("W-"&amp;MATCH(Datos!$J14&amp;":",KANBAN!W:W,0),"")</f>
@@ -15895,12 +15895,12 @@
       </c>
       <c r="P14" s="26" t="str">
         <f ca="1">Datos!$K14&amp;Datos!$L14&amp;Datos!$M14&amp;Datos!$N14&amp;Datos!$O14</f>
-        <v>O-10</v>
+        <v/>
       </c>
       <c r="Q14" s="27" t="str">
         <f ca="1">IFERROR(LEFT(Datos!$P14,FIND("-",Datos!$P14)-1) &amp; SUBSTITUTE(Datos!$P14,LEFT(Datos!$P14,FIND("-",Datos!$P14)-1) &amp;"-","") &amp; ":" &amp;
 LEFT(Datos!$P14,FIND("-",Datos!$P14)-1) &amp; SUBSTITUTE(Datos!$P14,LEFT(Datos!$P14,FIND("-",Datos!$P14)-1) &amp;"-","")+5,"")</f>
-        <v>O10:O15</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
